--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251CDCB-68C2-4883-8591-B6F82704281A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6781EBF-A17C-4CB5-BE22-26AE6C74F038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$30</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="439">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -3253,6 +3253,9 @@
     <t>Large red scorpionfish, Scorpaena scrofa, is a prevalent, important and highly valued commercial species throughout the rocky coastal areas of the Mediterranean Sea. Despite this, there is a surprising scarcity of biological and ecological information for this species. As artisanal fisheries have a very long tradition in the whole Mediterranean, a considerable impact of continuous fishing pressure is expected on this valuable rockfish. To elucidate some biological parameters that indicate the status of S.scrofa in the Adriatic Sea and to show which consequences high fishery effort may have on its age, growth and reproduction, sampling was carried out in the middle Adriatic using trammel nets. Temporal trends in body size/weight of S.scrofa were also assessed using long-term data including specimens caught from 1960 to 2010. Temporal trends of S.scrofa in the middle Adriatic indicated significant decreases of 19% in length and 43% in total weight over time. In contrast, official landings for the last five years showed an increase of 13%. However, this increasing trend most likely reflects the continuous change in national policies for reporting the catches. Both catch data and landings statistics showed peak in catch per unit effort during summer which coincides with spawning period of S.scrofa. Length at first sexual maturity was observed at 29.0cm for females and 24.9cm for males. All specimens larger than 32cm were mature. Age analysis revealed 15 age classes with a 25 year old female as the oldest specimen. However, age classes 3+ and 4+ were predominant in the total catch. The growth rate is relatively high during the first four years of life and afterwards it considerably slows down, with females growing at slightly slower rate and attaining slightly larger sizes than males. Given the identified biological implications that confirm our assumptions of inherent vulnerabilities and negative effects arising from continued artisanal fisheries practice, existing management should be complemented by a more holistic, ecosystem approach to regulations in order to assure more effective conservation measures for this large and slow-growing, long-lived fish. © 2014 Elsevier Ltd.</t>
   </si>
   <si>
+    <t>t-test , von Bertalanffy equation, non parametric Spearman correlation, Kolmogorov-Smirnov two sample test, multivariate Hotelling T2 - test, ANCOVA</t>
+  </si>
+  <si>
     <t>Scorpaena scrofa</t>
   </si>
   <si>
@@ -3594,18 +3597,12 @@
     <t>Raja clavata _ Torpedo marmorata</t>
   </si>
   <si>
-    <t>Eledone cirrhosa _ Eledone moschata _ Octopus vulgaris</t>
-  </si>
-  <si>
     <t>Crustacea _ Echinoderms</t>
   </si>
   <si>
     <t>Noticable survival of spottail mantis shrimp and of royal cucumber</t>
   </si>
   <si>
-    <t>Noticable survival of all three species</t>
-  </si>
-  <si>
     <t>Noticable survival of both species, as elasmobrnach lack of swimbladder.</t>
   </si>
   <si>
@@ -3723,9 +3720,6 @@
     <t>Pearson's correlation analysis, Fisher's test, kernel density estimation, Gi* hotspot analysis</t>
   </si>
   <si>
-    <t>Association of strandings and fishing capacity</t>
-  </si>
-  <si>
     <t>This study showed a strong correlation (without implying direct causation) between fishing capacity and cetacean strandings, and in particular OTB is one of the main pressures/ threats for cetaceans.</t>
   </si>
   <si>
@@ -3768,14 +3762,44 @@
     <t>Depth played a role in species' bycatches: long-tailed duchs were mainly caught at depth up to 10m, while velvet scoter was often caught at 30-40m</t>
   </si>
   <si>
-    <t>t-test, von Bertalanffy equation, non parametric Spearman correlation, Kolmogorov-Smirnov two sample test, multivariate Hotelling T2 - test, ANCOVA</t>
+    <t>Incidental catch rate</t>
+  </si>
+  <si>
+    <t>the study area is a small part of the eastern Mediterranean</t>
+  </si>
+  <si>
+    <t>Survival rate of regularly discarded species</t>
+  </si>
+  <si>
+    <t>Survival rate of regularly discarded fraction</t>
+  </si>
+  <si>
+    <t>Octopodidae</t>
+  </si>
+  <si>
+    <t>Noticable survival of all four species</t>
+  </si>
+  <si>
+    <t>Balearic and Catalan Seas constitute only a part of the western Mediterranean Sea. And the studied fleet concerns only the spanish ones.</t>
+  </si>
+  <si>
+    <t>Data extraction from literature on bycatch in fishing nets.</t>
+  </si>
+  <si>
+    <t>Summary statistics</t>
+  </si>
+  <si>
+    <t>Strandings</t>
+  </si>
+  <si>
+    <t>Fishing capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3883,14 +3907,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -3965,7 +3981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3985,23 +4001,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4026,7 +4030,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4312,111 +4318,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX32"/>
+  <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="AS32" sqref="AS32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13" style="28"/>
-    <col min="4" max="4" width="18.85546875" style="28" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="24" max="24" width="29.5703125" customWidth="1"/>
-    <col min="25" max="25" width="32.7109375" customWidth="1"/>
-    <col min="34" max="35" width="17.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" customWidth="1"/>
-    <col min="40" max="41" width="15.85546875" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" style="25"/>
+    <col min="4" max="4" width="18.88671875" style="25" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" customWidth="1"/>
+    <col min="24" max="24" width="29.5546875" customWidth="1"/>
+    <col min="25" max="25" width="32.6640625" customWidth="1"/>
+    <col min="34" max="35" width="17.6640625" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" customWidth="1"/>
+    <col min="37" max="37" width="19.109375" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" customWidth="1"/>
+    <col min="40" max="41" width="15.88671875" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" customWidth="1"/>
+    <col min="46" max="46" width="15.109375" customWidth="1"/>
+    <col min="47" max="47" width="18.6640625" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="25" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="23" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="24" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="26" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="20" t="s">
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="21" t="s">
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -4558,17 +4564,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="24" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="10">
@@ -4613,8 +4619,8 @@
       <c r="X3" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" s="12" t="s">
-        <v>414</v>
+      <c r="Z3" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -4626,7 +4632,7 @@
         <v>3</v>
       </c>
       <c r="AF3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG3" t="s">
         <v>71</v>
@@ -4643,7 +4649,7 @@
       <c r="AK3" t="s">
         <v>75</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AL3" s="12" t="s">
         <v>76</v>
       </c>
       <c r="AM3" t="s">
@@ -4652,8 +4658,8 @@
       <c r="AN3" t="s">
         <v>78</v>
       </c>
-      <c r="AO3" s="12" t="s">
-        <v>415</v>
+      <c r="AO3" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="AQ3" t="s">
         <v>79</v>
@@ -4664,27 +4670,30 @@
       <c r="AS3" t="s">
         <v>81</v>
       </c>
+      <c r="AU3" t="s">
+        <v>437</v>
+      </c>
       <c r="AV3" t="s">
         <v>82</v>
       </c>
       <c r="AW3" t="s">
         <v>112</v>
       </c>
-      <c r="AX3" s="14" t="s">
-        <v>416</v>
+      <c r="AX3" s="13" t="s">
+        <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="24" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="10">
@@ -4729,8 +4738,8 @@
       <c r="X4" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" s="12" t="s">
-        <v>414</v>
+      <c r="Z4" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -4742,7 +4751,7 @@
         <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG4" t="s">
         <v>71</v>
@@ -4759,7 +4768,7 @@
       <c r="AK4" t="s">
         <v>75</v>
       </c>
-      <c r="AL4" s="13" t="s">
+      <c r="AL4" s="12" t="s">
         <v>76</v>
       </c>
       <c r="AM4" t="s">
@@ -4768,8 +4777,8 @@
       <c r="AN4" t="s">
         <v>78</v>
       </c>
-      <c r="AO4" s="12" t="s">
-        <v>415</v>
+      <c r="AO4" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="AQ4" t="s">
         <v>79</v>
@@ -4780,59 +4789,67 @@
       <c r="AS4" t="s">
         <v>85</v>
       </c>
+      <c r="AU4" t="s">
+        <v>437</v>
+      </c>
       <c r="AV4" t="s">
         <v>82</v>
       </c>
       <c r="AW4" t="s">
         <v>112</v>
       </c>
-      <c r="AX4" s="14" t="s">
+      <c r="AX4" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="210" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2017</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="10">
-        <v>63</v>
-      </c>
-      <c r="H5" s="10">
-        <v>3</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1998</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="11">
+        <v>16</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <v>49</v>
+      </c>
+      <c r="J5" s="11">
         <v>64</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="K5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10" t="s">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="10"/>
       <c r="S5" t="s">
         <v>67</v>
       </c>
@@ -4840,43 +4857,49 @@
         <v>68</v>
       </c>
       <c r="U5" t="s">
-        <v>69</v>
+        <v>135</v>
+      </c>
+      <c r="V5" t="s">
+        <v>144</v>
       </c>
       <c r="X5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>414</v>
+        <v>156</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>2</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>429</v>
       </c>
       <c r="AF5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG5" t="s">
         <v>71</v>
       </c>
       <c r="AH5" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="AI5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="AK5" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="13" t="s">
-        <v>76</v>
+      <c r="AL5" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="AM5" t="s">
         <v>77</v>
@@ -4884,8 +4907,8 @@
       <c r="AN5" t="s">
         <v>78</v>
       </c>
-      <c r="AO5" s="12" t="s">
-        <v>415</v>
+      <c r="AO5" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="AQ5" t="s">
         <v>79</v>
@@ -4893,60 +4916,68 @@
       <c r="AR5" t="s">
         <v>84</v>
       </c>
-      <c r="AS5" s="18"/>
+      <c r="AS5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>428</v>
+      </c>
       <c r="AV5" t="s">
         <v>82</v>
       </c>
-      <c r="AX5" s="14" t="s">
-        <v>86</v>
+      <c r="AW5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX5" s="13" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>1998</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>16</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>1</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>49</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>64</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
         <v>66</v>
       </c>
       <c r="S6" t="s">
@@ -4965,16 +4996,25 @@
         <v>156</v>
       </c>
       <c r="Y6" t="s">
-        <v>417</v>
-      </c>
-      <c r="Z6" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z6" s="11" t="s">
         <v>259</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
       </c>
       <c r="AC6">
         <v>2</v>
       </c>
+      <c r="AE6" t="s">
+        <v>429</v>
+      </c>
       <c r="AF6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG6" t="s">
         <v>71</v>
@@ -4988,7 +5028,7 @@
       <c r="AK6" t="s">
         <v>75</v>
       </c>
-      <c r="AL6" s="13" t="s">
+      <c r="AL6" s="12" t="s">
         <v>260</v>
       </c>
       <c r="AM6" t="s">
@@ -4997,74 +5037,81 @@
       <c r="AN6" t="s">
         <v>78</v>
       </c>
-      <c r="AO6" s="12" t="s">
+      <c r="AO6" s="11" t="s">
         <v>261</v>
       </c>
       <c r="AQ6" t="s">
         <v>79</v>
       </c>
       <c r="AR6" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="AS6" t="s">
-        <v>249</v>
+        <v>240</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>428</v>
       </c>
       <c r="AV6" t="s">
         <v>82</v>
       </c>
       <c r="AW6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX6" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1998</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="12">
-        <v>16</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
-        <v>49</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="C7" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7">
+        <v>2015</v>
+      </c>
+      <c r="F7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M7" t="s">
+        <v>272</v>
+      </c>
+      <c r="N7" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12" t="s">
+      <c r="P7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q7" t="s">
         <v>66</v>
       </c>
       <c r="S7" t="s">
@@ -5074,80 +5121,92 @@
         <v>68</v>
       </c>
       <c r="U7" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="V7" t="s">
-        <v>144</v>
+        <v>169</v>
+      </c>
+      <c r="W7" t="s">
+        <v>116</v>
       </c>
       <c r="X7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>259</v>
+        <v>124</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG7" t="s">
         <v>71</v>
       </c>
       <c r="AH7" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="AI7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AK7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL7" s="13" t="s">
-        <v>260</v>
+        <v>127</v>
+      </c>
+      <c r="AL7" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="AM7" t="s">
         <v>77</v>
       </c>
-      <c r="AN7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO7" s="12" t="s">
-        <v>261</v>
+      <c r="AN7" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO7" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="AQ7" t="s">
         <v>79</v>
       </c>
       <c r="AR7" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="AS7" t="s">
-        <v>240</v>
+        <v>87</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>418</v>
       </c>
       <c r="AV7" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="AW7" t="s">
         <v>131</v>
       </c>
-      <c r="AX7" s="14" t="s">
-        <v>262</v>
+      <c r="AX7" s="13" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>263</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="25" t="s">
         <v>265</v>
       </c>
       <c r="E8">
@@ -5196,7 +5255,7 @@
         <v>68</v>
       </c>
       <c r="U8" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="V8" t="s">
         <v>169</v>
@@ -5207,8 +5266,11 @@
       <c r="X8" t="s">
         <v>124</v>
       </c>
-      <c r="Z8" s="12" t="s">
-        <v>430</v>
+      <c r="Y8" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -5220,10 +5282,10 @@
         <v>3</v>
       </c>
       <c r="AF8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG8" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="AH8" t="s">
         <v>138</v>
@@ -5234,17 +5296,17 @@
       <c r="AK8" t="s">
         <v>127</v>
       </c>
-      <c r="AL8" s="16" t="s">
-        <v>273</v>
+      <c r="AL8" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="AM8" t="s">
         <v>77</v>
       </c>
-      <c r="AN8" s="18" t="s">
+      <c r="AN8" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="AO8" s="12" t="s">
-        <v>419</v>
+      <c r="AO8" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="AQ8" t="s">
         <v>79</v>
@@ -5256,60 +5318,60 @@
         <v>87</v>
       </c>
       <c r="AT8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AU8" t="s">
-        <v>420</v>
+        <v>276</v>
       </c>
       <c r="AV8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="AW8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX8" s="14" t="s">
-        <v>276</v>
+        <v>112</v>
+      </c>
+      <c r="AX8" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>265</v>
+      <c r="C9" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>281</v>
       </c>
       <c r="E9">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="G9" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="H9" t="s">
         <v>268</v>
       </c>
       <c r="I9" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="J9" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K9" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="L9" t="s">
         <v>268</v>
       </c>
       <c r="M9" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="N9" t="s">
         <v>64</v>
@@ -5318,7 +5380,7 @@
         <v>65</v>
       </c>
       <c r="P9" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -5330,25 +5392,22 @@
         <v>68</v>
       </c>
       <c r="U9" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="V9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="X9" t="s">
         <v>124</v>
       </c>
-      <c r="Y9" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z9" s="12" t="s">
-        <v>430</v>
+      <c r="Z9" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="AA9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>2</v>
@@ -5356,97 +5415,94 @@
       <c r="AC9">
         <v>3</v>
       </c>
+      <c r="AE9" t="s">
+        <v>434</v>
+      </c>
       <c r="AF9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG9" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="AH9" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL9" s="16" t="s">
-        <v>273</v>
+        <v>75</v>
+      </c>
+      <c r="AL9" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="AM9" t="s">
         <v>77</v>
       </c>
-      <c r="AN9" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO9" s="12" t="s">
-        <v>419</v>
+      <c r="AN9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO9" s="11" t="s">
+        <v>291</v>
       </c>
       <c r="AQ9" t="s">
         <v>79</v>
       </c>
       <c r="AR9" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="AS9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="AU9" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="AV9" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AW9" t="s">
         <v>112</v>
       </c>
-      <c r="AX9" s="14" t="s">
-        <v>277</v>
+      <c r="AX9" s="13" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>280</v>
+      <c r="C10" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="E10">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="G10" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
+        <v>298</v>
+      </c>
+      <c r="I10" t="s">
+        <v>299</v>
+      </c>
+      <c r="J10" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" t="s">
         <v>268</v>
-      </c>
-      <c r="I10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K10" t="s">
-        <v>285</v>
       </c>
       <c r="L10" t="s">
         <v>268</v>
       </c>
       <c r="M10" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="N10" t="s">
         <v>64</v>
@@ -5455,7 +5511,7 @@
         <v>65</v>
       </c>
       <c r="P10" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="Q10" t="s">
         <v>66</v>
@@ -5467,34 +5523,46 @@
         <v>68</v>
       </c>
       <c r="U10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="V10" t="s">
         <v>161</v>
       </c>
       <c r="W10" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="X10" t="s">
         <v>124</v>
       </c>
-      <c r="Z10" s="12" t="s">
-        <v>288</v>
+      <c r="Z10" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
       </c>
       <c r="AF10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG10" t="s">
         <v>71</v>
       </c>
       <c r="AH10" t="s">
-        <v>126</v>
+        <v>164</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>209</v>
       </c>
       <c r="AK10" t="s">
         <v>75</v>
       </c>
-      <c r="AL10" s="13" t="s">
-        <v>289</v>
+      <c r="AL10" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="AM10" t="s">
         <v>77</v>
@@ -5502,70 +5570,70 @@
       <c r="AN10" t="s">
         <v>78</v>
       </c>
-      <c r="AO10" s="12" t="s">
-        <v>290</v>
+      <c r="AO10" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="AQ10" t="s">
         <v>79</v>
       </c>
       <c r="AR10" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AS10" t="s">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="AU10" t="s">
-        <v>304</v>
+        <v>419</v>
       </c>
       <c r="AV10" t="s">
         <v>82</v>
       </c>
       <c r="AW10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX10" s="14" t="s">
-        <v>291</v>
+        <v>131</v>
+      </c>
+      <c r="AX10" s="13" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>294</v>
+      <c r="C11" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>309</v>
       </c>
       <c r="E11">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F11" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="G11" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="H11" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="I11" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="J11" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="K11" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="L11" t="s">
         <v>268</v>
       </c>
       <c r="M11" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="N11" t="s">
         <v>64</v>
@@ -5574,31 +5642,25 @@
         <v>65</v>
       </c>
       <c r="P11" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="Q11" t="s">
         <v>66</v>
       </c>
       <c r="S11" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="T11" t="s">
         <v>68</v>
       </c>
       <c r="U11" t="s">
-        <v>177</v>
-      </c>
-      <c r="V11" t="s">
-        <v>161</v>
-      </c>
-      <c r="W11" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="X11" t="s">
         <v>124</v>
       </c>
-      <c r="Z11" s="12" t="s">
-        <v>301</v>
+      <c r="Z11" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -5607,25 +5669,25 @@
         <v>2</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="s">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="AG11" t="s">
         <v>71</v>
       </c>
       <c r="AH11" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AI11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AK11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL11" s="13" t="s">
-        <v>302</v>
+        <v>127</v>
+      </c>
+      <c r="AL11" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="AM11" t="s">
         <v>77</v>
@@ -5633,8 +5695,8 @@
       <c r="AN11" t="s">
         <v>78</v>
       </c>
-      <c r="AO11" s="12" t="s">
-        <v>303</v>
+      <c r="AO11" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="AQ11" t="s">
         <v>79</v>
@@ -5646,57 +5708,57 @@
         <v>81</v>
       </c>
       <c r="AU11" t="s">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AV11" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AW11" t="s">
         <v>131</v>
       </c>
-      <c r="AX11" s="14" t="s">
-        <v>305</v>
+      <c r="AX11" s="13" t="s">
+        <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="25" t="s">
         <v>308</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>309</v>
       </c>
       <c r="E12">
         <v>2005</v>
       </c>
       <c r="F12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H12" t="s">
         <v>268</v>
       </c>
       <c r="I12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L12" t="s">
         <v>268</v>
       </c>
       <c r="M12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N12" t="s">
         <v>64</v>
@@ -5705,7 +5767,7 @@
         <v>65</v>
       </c>
       <c r="P12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q12" t="s">
         <v>66</v>
@@ -5722,8 +5784,8 @@
       <c r="X12" t="s">
         <v>124</v>
       </c>
-      <c r="Z12" s="12" t="s">
-        <v>316</v>
+      <c r="Z12" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -5735,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="AF12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG12" t="s">
         <v>71</v>
@@ -5744,13 +5806,13 @@
         <v>148</v>
       </c>
       <c r="AI12" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="AK12" t="s">
         <v>127</v>
       </c>
-      <c r="AL12" s="13" t="s">
-        <v>318</v>
+      <c r="AL12" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="AM12" t="s">
         <v>77</v>
@@ -5758,8 +5820,8 @@
       <c r="AN12" t="s">
         <v>78</v>
       </c>
-      <c r="AO12" s="12" t="s">
-        <v>319</v>
+      <c r="AO12" s="11" t="s">
+        <v>320</v>
       </c>
       <c r="AQ12" t="s">
         <v>79</v>
@@ -5779,49 +5841,49 @@
       <c r="AW12" t="s">
         <v>131</v>
       </c>
-      <c r="AX12" s="14" t="s">
-        <v>422</v>
+      <c r="AX12" s="13" t="s">
+        <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="25" t="s">
         <v>308</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>309</v>
       </c>
       <c r="E13">
         <v>2005</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H13" t="s">
         <v>268</v>
       </c>
       <c r="I13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L13" t="s">
         <v>268</v>
       </c>
       <c r="M13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N13" t="s">
         <v>64</v>
@@ -5830,7 +5892,7 @@
         <v>65</v>
       </c>
       <c r="P13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q13" t="s">
         <v>66</v>
@@ -5842,13 +5904,13 @@
         <v>68</v>
       </c>
       <c r="U13" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="X13" t="s">
         <v>124</v>
       </c>
-      <c r="Z13" s="12" t="s">
-        <v>316</v>
+      <c r="Z13" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5860,22 +5922,19 @@
         <v>1</v>
       </c>
       <c r="AF13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG13" t="s">
         <v>71</v>
       </c>
       <c r="AH13" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AK13" t="s">
         <v>127</v>
       </c>
-      <c r="AL13" s="13" t="s">
-        <v>320</v>
+      <c r="AL13" s="11" t="s">
+        <v>322</v>
       </c>
       <c r="AM13" t="s">
         <v>77</v>
@@ -5883,8 +5942,8 @@
       <c r="AN13" t="s">
         <v>78</v>
       </c>
-      <c r="AO13" s="12" t="s">
-        <v>319</v>
+      <c r="AO13" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="AQ13" t="s">
         <v>79</v>
@@ -5896,57 +5955,57 @@
         <v>81</v>
       </c>
       <c r="AU13" t="s">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="AV13" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AW13" t="s">
         <v>131</v>
       </c>
-      <c r="AX13" s="14" t="s">
-        <v>422</v>
+      <c r="AX13" s="13" t="s">
+        <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>308</v>
+      <c r="C14" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>328</v>
       </c>
       <c r="E14">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="G14" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="H14" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="I14" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="J14" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="K14" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="L14" t="s">
         <v>268</v>
       </c>
       <c r="M14" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="N14" t="s">
         <v>64</v>
@@ -5955,25 +6014,34 @@
         <v>65</v>
       </c>
       <c r="P14" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="Q14" t="s">
         <v>66</v>
       </c>
       <c r="S14" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="T14" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="U14" t="s">
-        <v>183</v>
+        <v>170</v>
+      </c>
+      <c r="V14" t="s">
+        <v>169</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
       </c>
       <c r="X14" t="s">
         <v>124</v>
       </c>
-      <c r="Z14" s="12" t="s">
-        <v>316</v>
+      <c r="Y14" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z14" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -5982,22 +6050,25 @@
         <v>2</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="AG14" t="s">
         <v>71</v>
       </c>
       <c r="AH14" t="s">
-        <v>196</v>
+        <v>164</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>209</v>
       </c>
       <c r="AK14" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="AM14" t="s">
         <v>77</v>
@@ -6005,70 +6076,70 @@
       <c r="AN14" t="s">
         <v>78</v>
       </c>
-      <c r="AO14" s="12" t="s">
-        <v>322</v>
+      <c r="AO14" s="11" t="s">
+        <v>340</v>
       </c>
       <c r="AQ14" t="s">
         <v>79</v>
       </c>
       <c r="AR14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AS14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AU14" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AV14" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="AW14" t="s">
         <v>131</v>
       </c>
-      <c r="AX14" s="14" t="s">
-        <v>324</v>
+      <c r="AX14" s="13" t="s">
+        <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="25" t="s">
         <v>327</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>328</v>
       </c>
       <c r="E15">
         <v>2017</v>
       </c>
       <c r="F15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L15" t="s">
         <v>268</v>
       </c>
       <c r="M15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N15" t="s">
         <v>64</v>
@@ -6101,10 +6172,10 @@
         <v>124</v>
       </c>
       <c r="Y15" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z15" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>336</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6116,7 +6187,7 @@
         <v>3</v>
       </c>
       <c r="AF15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG15" t="s">
         <v>71</v>
@@ -6130,8 +6201,8 @@
       <c r="AK15" t="s">
         <v>75</v>
       </c>
-      <c r="AL15" s="13" t="s">
-        <v>302</v>
+      <c r="AL15" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="AM15" t="s">
         <v>77</v>
@@ -6139,8 +6210,8 @@
       <c r="AN15" t="s">
         <v>78</v>
       </c>
-      <c r="AO15" s="12" t="s">
-        <v>339</v>
+      <c r="AO15" s="11" t="s">
+        <v>340</v>
       </c>
       <c r="AQ15" t="s">
         <v>79</v>
@@ -6149,10 +6220,10 @@
         <v>84</v>
       </c>
       <c r="AS15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AU15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AV15" t="s">
         <v>111</v>
@@ -6160,49 +6231,49 @@
       <c r="AW15" t="s">
         <v>131</v>
       </c>
-      <c r="AX15" s="14" t="s">
-        <v>342</v>
+      <c r="AX15" s="13" t="s">
+        <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="25" t="s">
         <v>327</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>328</v>
       </c>
       <c r="E16">
         <v>2017</v>
       </c>
       <c r="F16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L16" t="s">
         <v>268</v>
       </c>
       <c r="M16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N16" t="s">
         <v>64</v>
@@ -6223,22 +6294,22 @@
         <v>169</v>
       </c>
       <c r="U16" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="V16" t="s">
         <v>169</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
-      </c>
-      <c r="X16" t="s">
+        <v>116</v>
+      </c>
+      <c r="X16" s="15" t="s">
         <v>124</v>
       </c>
       <c r="Y16" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z16" s="12" t="s">
         <v>336</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6249,11 +6320,14 @@
       <c r="AC16">
         <v>3</v>
       </c>
+      <c r="AE16" t="s">
+        <v>346</v>
+      </c>
       <c r="AF16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG16" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="AH16" t="s">
         <v>164</v>
@@ -6262,10 +6336,10 @@
         <v>209</v>
       </c>
       <c r="AK16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL16" s="13" t="s">
-        <v>302</v>
+        <v>110</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="AM16" t="s">
         <v>77</v>
@@ -6273,70 +6347,70 @@
       <c r="AN16" t="s">
         <v>78</v>
       </c>
-      <c r="AO16" s="12" t="s">
-        <v>339</v>
+      <c r="AO16" s="11" t="s">
+        <v>341</v>
       </c>
       <c r="AQ16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="AS16" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>348</v>
       </c>
       <c r="AU16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AV16" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="AW16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX16" s="14" t="s">
-        <v>343</v>
+        <v>120</v>
+      </c>
+      <c r="AX16" s="13" t="s">
+        <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="25" t="s">
         <v>327</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>328</v>
       </c>
       <c r="E17">
         <v>2017</v>
       </c>
       <c r="F17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L17" t="s">
         <v>268</v>
       </c>
       <c r="M17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N17" t="s">
         <v>64</v>
@@ -6363,16 +6437,16 @@
         <v>169</v>
       </c>
       <c r="W17" t="s">
-        <v>116</v>
-      </c>
-      <c r="X17" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="X17" s="15" t="s">
         <v>124</v>
       </c>
       <c r="Y17" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z17" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6384,10 +6458,10 @@
         <v>3</v>
       </c>
       <c r="AE17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG17" t="s">
         <v>99</v>
@@ -6401,8 +6475,8 @@
       <c r="AK17" t="s">
         <v>110</v>
       </c>
-      <c r="AL17" s="13" t="s">
-        <v>302</v>
+      <c r="AL17" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="AM17" t="s">
         <v>77</v>
@@ -6410,67 +6484,70 @@
       <c r="AN17" t="s">
         <v>78</v>
       </c>
-      <c r="AO17" s="12" t="s">
-        <v>340</v>
+      <c r="AO17" s="11" t="s">
+        <v>341</v>
       </c>
       <c r="AQ17" t="s">
         <v>140</v>
       </c>
       <c r="AS17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AT17" t="s">
         <v>347</v>
       </c>
       <c r="AU17" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AV17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX17" s="14" t="s">
-        <v>344</v>
+        <v>156</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX17" s="13" t="s">
+        <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>327</v>
+      <c r="C18" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>351</v>
       </c>
       <c r="E18">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="F18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G18" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="H18" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="I18" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="J18" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="K18" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="L18" t="s">
         <v>268</v>
       </c>
       <c r="M18" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="N18" t="s">
         <v>64</v>
@@ -6485,28 +6562,22 @@
         <v>66</v>
       </c>
       <c r="S18" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="T18" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="U18" t="s">
-        <v>135</v>
-      </c>
-      <c r="V18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="W18" t="s">
-        <v>107</v>
-      </c>
-      <c r="X18" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="X18" t="s">
         <v>124</v>
       </c>
-      <c r="Y18" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z18" s="12" t="s">
-        <v>338</v>
+      <c r="Z18" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6514,29 +6585,20 @@
       <c r="AB18">
         <v>2</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="15">
         <v>3</v>
       </c>
-      <c r="AE18" t="s">
-        <v>345</v>
-      </c>
       <c r="AF18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG18" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="AH18" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL18" s="13" t="s">
-        <v>302</v>
+        <v>126</v>
+      </c>
+      <c r="AL18" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="AM18" t="s">
         <v>77</v>
@@ -6544,67 +6606,73 @@
       <c r="AN18" t="s">
         <v>78</v>
       </c>
-      <c r="AO18" s="12" t="s">
-        <v>340</v>
+      <c r="AO18" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="AQ18" t="s">
-        <v>140</v>
+        <v>79</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>84</v>
       </c>
       <c r="AS18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AT18" t="s">
-        <v>346</v>
+        <v>421</v>
       </c>
       <c r="AU18" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="AV18" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX18" s="14" t="s">
-        <v>344</v>
+        <v>102</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX18" s="13" t="s">
+        <v>425</v>
       </c>
     </row>
-    <row r="19" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="25" t="s">
         <v>350</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>351</v>
       </c>
       <c r="E19">
         <v>2021</v>
       </c>
       <c r="F19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L19" t="s">
         <v>268</v>
       </c>
       <c r="M19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N19" t="s">
         <v>64</v>
@@ -6633,8 +6701,8 @@
       <c r="X19" t="s">
         <v>124</v>
       </c>
-      <c r="Z19" s="12" t="s">
-        <v>360</v>
+      <c r="Z19" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -6642,11 +6710,11 @@
       <c r="AB19">
         <v>2</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AC19" s="15">
         <v>3</v>
       </c>
       <c r="AF19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG19" t="s">
         <v>71</v>
@@ -6654,8 +6722,8 @@
       <c r="AH19" t="s">
         <v>126</v>
       </c>
-      <c r="AL19" s="13" t="s">
-        <v>357</v>
+      <c r="AL19" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="AM19" t="s">
         <v>77</v>
@@ -6663,8 +6731,8 @@
       <c r="AN19" t="s">
         <v>78</v>
       </c>
-      <c r="AO19" s="12" t="s">
-        <v>358</v>
+      <c r="AO19" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="AQ19" t="s">
         <v>79</v>
@@ -6676,10 +6744,10 @@
         <v>85</v>
       </c>
       <c r="AT19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AU19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AV19" t="s">
         <v>102</v>
@@ -6687,49 +6755,49 @@
       <c r="AW19" t="s">
         <v>131</v>
       </c>
-      <c r="AX19" s="14" t="s">
-        <v>427</v>
+      <c r="AX19" s="13" t="s">
+        <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="25" t="s">
         <v>350</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>351</v>
       </c>
       <c r="E20">
         <v>2021</v>
       </c>
       <c r="F20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L20" t="s">
         <v>268</v>
       </c>
       <c r="M20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N20" t="s">
         <v>64</v>
@@ -6758,8 +6826,8 @@
       <c r="X20" t="s">
         <v>124</v>
       </c>
-      <c r="Z20" s="12" t="s">
-        <v>360</v>
+      <c r="Z20" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -6767,11 +6835,11 @@
       <c r="AB20">
         <v>2</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AC20" s="15">
         <v>3</v>
       </c>
       <c r="AF20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG20" t="s">
         <v>71</v>
@@ -6779,8 +6847,8 @@
       <c r="AH20" t="s">
         <v>126</v>
       </c>
-      <c r="AL20" s="13" t="s">
-        <v>357</v>
+      <c r="AL20" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="AM20" t="s">
         <v>77</v>
@@ -6788,8 +6856,8 @@
       <c r="AN20" t="s">
         <v>78</v>
       </c>
-      <c r="AO20" s="12" t="s">
-        <v>358</v>
+      <c r="AO20" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="AQ20" t="s">
         <v>79</v>
@@ -6801,10 +6869,10 @@
         <v>85</v>
       </c>
       <c r="AT20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AU20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AV20" t="s">
         <v>102</v>
@@ -6812,49 +6880,49 @@
       <c r="AW20" t="s">
         <v>131</v>
       </c>
-      <c r="AX20" s="14" t="s">
-        <v>428</v>
+      <c r="AX20" s="13" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D21" s="19" t="s">
+      <c r="C21" s="25" t="s">
         <v>350</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>351</v>
       </c>
       <c r="E21">
         <v>2021</v>
       </c>
       <c r="F21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H21" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J21" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L21" t="s">
         <v>268</v>
       </c>
       <c r="M21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N21" t="s">
         <v>64</v>
@@ -6883,8 +6951,8 @@
       <c r="X21" t="s">
         <v>124</v>
       </c>
-      <c r="Z21" s="12" t="s">
-        <v>360</v>
+      <c r="Z21" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6892,11 +6960,11 @@
       <c r="AB21">
         <v>2</v>
       </c>
-      <c r="AC21" s="18">
+      <c r="AC21" s="15">
         <v>3</v>
       </c>
       <c r="AF21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG21" t="s">
         <v>71</v>
@@ -6904,8 +6972,8 @@
       <c r="AH21" t="s">
         <v>126</v>
       </c>
-      <c r="AL21" s="13" t="s">
-        <v>357</v>
+      <c r="AL21" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="AM21" t="s">
         <v>77</v>
@@ -6913,8 +6981,8 @@
       <c r="AN21" t="s">
         <v>78</v>
       </c>
-      <c r="AO21" s="12" t="s">
-        <v>358</v>
+      <c r="AO21" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="AQ21" t="s">
         <v>79</v>
@@ -6926,10 +6994,10 @@
         <v>85</v>
       </c>
       <c r="AT21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AU21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AV21" t="s">
         <v>102</v>
@@ -6937,49 +7005,49 @@
       <c r="AW21" t="s">
         <v>131</v>
       </c>
-      <c r="AX21" s="14" t="s">
-        <v>359</v>
+      <c r="AX21" s="13" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>350</v>
+      <c r="C22" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>364</v>
       </c>
       <c r="E22">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F22" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G22" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="H22" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="I22" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="J22" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="K22" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="L22" t="s">
         <v>268</v>
       </c>
       <c r="M22" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="N22" t="s">
         <v>64</v>
@@ -6994,126 +7062,222 @@
         <v>66</v>
       </c>
       <c r="S22" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="T22" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="U22" t="s">
         <v>162</v>
       </c>
       <c r="W22" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="X22" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z22" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA22">
-        <v>2</v>
-      </c>
-      <c r="AB22">
-        <v>2</v>
-      </c>
-      <c r="AC22" s="18">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="Z22" s="11" t="s">
+        <v>436</v>
       </c>
       <c r="AF22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG22" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="AH22" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL22" s="13" t="s">
-        <v>357</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL22" s="12"/>
       <c r="AM22" t="s">
         <v>77</v>
       </c>
       <c r="AN22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO22" s="12" t="s">
-        <v>358</v>
+        <v>201</v>
+      </c>
+      <c r="AO22" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="AQ22" t="s">
         <v>79</v>
       </c>
       <c r="AR22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AS22" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="AU22" t="s">
-        <v>303</v>
+        <v>431</v>
       </c>
       <c r="AV22" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="AW22" t="s">
         <v>131</v>
       </c>
-      <c r="AX22" s="14" t="s">
-        <v>429</v>
+      <c r="AX22" s="13" t="s">
+        <v>376</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
-      <c r="D23" s="17"/>
-      <c r="Z23" s="12"/>
-      <c r="AC23" s="18"/>
-      <c r="AL23" s="13"/>
-      <c r="AO23" s="12"/>
-      <c r="AX23" s="14"/>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23">
+        <v>2018</v>
+      </c>
+      <c r="F23" t="s">
+        <v>365</v>
+      </c>
+      <c r="G23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" t="s">
+        <v>367</v>
+      </c>
+      <c r="I23" t="s">
+        <v>368</v>
+      </c>
+      <c r="J23" t="s">
+        <v>369</v>
+      </c>
+      <c r="K23" t="s">
+        <v>370</v>
+      </c>
+      <c r="L23" t="s">
+        <v>268</v>
+      </c>
+      <c r="M23" t="s">
+        <v>371</v>
+      </c>
+      <c r="N23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23" t="s">
+        <v>67</v>
+      </c>
+      <c r="T23" t="s">
+        <v>68</v>
+      </c>
+      <c r="U23" t="s">
+        <v>162</v>
+      </c>
+      <c r="W23" t="s">
+        <v>154</v>
+      </c>
+      <c r="X23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL23" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO23" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>430</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX23" s="13" t="s">
+        <v>375</v>
+      </c>
     </row>
-    <row r="24" spans="1:50" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="25" t="s">
         <v>363</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>364</v>
       </c>
       <c r="E24">
         <v>2018</v>
       </c>
       <c r="F24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I24" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L24" t="s">
         <v>268</v>
       </c>
       <c r="M24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N24" t="s">
         <v>64</v>
@@ -7142,23 +7306,28 @@
       <c r="X24" t="s">
         <v>70</v>
       </c>
+      <c r="Z24" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="AF24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG24" t="s">
         <v>125</v>
       </c>
       <c r="AH24" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>219</v>
-      </c>
-      <c r="AL24" s="13"/>
+        <v>157</v>
+      </c>
+      <c r="AL24" s="11" t="s">
+        <v>432</v>
+      </c>
       <c r="AM24" t="s">
         <v>77</v>
       </c>
-      <c r="AO24" s="12" t="s">
+      <c r="AN24" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO24" s="11" t="s">
         <v>188</v>
       </c>
       <c r="AQ24" t="s">
@@ -7171,57 +7340,57 @@
         <v>81</v>
       </c>
       <c r="AU24" t="s">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="AV24" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="AW24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX24" s="14" t="s">
-        <v>377</v>
+        <v>83</v>
+      </c>
+      <c r="AX24" s="13" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="25" t="s">
         <v>363</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>364</v>
       </c>
       <c r="E25">
         <v>2018</v>
       </c>
       <c r="F25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L25" t="s">
         <v>268</v>
       </c>
       <c r="M25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N25" t="s">
         <v>64</v>
@@ -7250,25 +7419,34 @@
       <c r="X25" t="s">
         <v>70</v>
       </c>
+      <c r="Z25" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="AF25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG25" t="s">
         <v>125</v>
       </c>
       <c r="AH25" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="AI25" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL25" s="13" t="s">
-        <v>371</v>
+        <v>216</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL25" s="11" t="s">
+        <v>373</v>
       </c>
       <c r="AM25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO25" s="11" t="s">
         <v>188</v>
       </c>
       <c r="AQ25" t="s">
@@ -7281,54 +7459,57 @@
         <v>81</v>
       </c>
       <c r="AU25" t="s">
-        <v>82</v>
+        <v>430</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>188</v>
       </c>
       <c r="AW25" t="s">
         <v>120</v>
       </c>
-      <c r="AX25" s="14" t="s">
-        <v>376</v>
+      <c r="AX25" t="s">
+        <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>363</v>
+      <c r="C26" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>379</v>
       </c>
       <c r="E26">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F26" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="G26" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="H26" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="I26" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="J26" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K26" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="L26" t="s">
         <v>268</v>
       </c>
       <c r="M26" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="N26" t="s">
         <v>64</v>
@@ -7343,96 +7524,108 @@
         <v>66</v>
       </c>
       <c r="S26" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="T26" t="s">
         <v>68</v>
       </c>
       <c r="U26" t="s">
-        <v>162</v>
-      </c>
-      <c r="W26" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="X26" t="s">
-        <v>70</v>
+        <v>156</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>395</v>
       </c>
       <c r="AF26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG26" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AH26" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL26" s="13" t="s">
-        <v>372</v>
+        <v>126</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL26" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="AM26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO26" s="12" t="s">
-        <v>188</v>
+        <v>77</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO26" s="11" t="s">
+        <v>397</v>
       </c>
       <c r="AQ26" t="s">
         <v>79</v>
       </c>
       <c r="AR26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AS26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AU26" t="s">
-        <v>82</v>
+        <v>398</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>102</v>
       </c>
       <c r="AW26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX26" s="14" t="s">
-        <v>375</v>
+        <v>112</v>
+      </c>
+      <c r="AX26" s="13" t="s">
+        <v>399</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>363</v>
+      <c r="C27" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>388</v>
       </c>
       <c r="E27">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F27" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="G27" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="H27" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="I27" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="L27" t="s">
         <v>268</v>
       </c>
       <c r="M27" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="N27" t="s">
         <v>64</v>
@@ -7441,7 +7634,7 @@
         <v>65</v>
       </c>
       <c r="P27" t="s">
-        <v>268</v>
+        <v>394</v>
       </c>
       <c r="Q27" t="s">
         <v>66</v>
@@ -7453,96 +7646,117 @@
         <v>68</v>
       </c>
       <c r="U27" t="s">
-        <v>162</v>
+        <v>177</v>
+      </c>
+      <c r="V27" t="s">
+        <v>144</v>
       </c>
       <c r="W27" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="X27" t="s">
-        <v>70</v>
+        <v>124</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
       </c>
       <c r="AF27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG27" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AH27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="AI27" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>156</v>
+        <v>219</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>127</v>
       </c>
       <c r="AL27" s="12" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="AM27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO27" s="12" t="s">
-        <v>188</v>
+        <v>77</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO27" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="AQ27" t="s">
         <v>79</v>
       </c>
       <c r="AR27" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>81</v>
+        <v>202</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>402</v>
       </c>
       <c r="AU27" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>374</v>
+        <v>411</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX27" s="13" t="s">
+        <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>380</v>
+      <c r="C28" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>388</v>
       </c>
       <c r="E28">
         <v>2020</v>
       </c>
       <c r="F28" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G28" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="H28" t="s">
-        <v>297</v>
+        <v>391</v>
       </c>
       <c r="I28" t="s">
-        <v>383</v>
+        <v>268</v>
       </c>
       <c r="J28" t="s">
-        <v>384</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L28" t="s">
         <v>268</v>
       </c>
       <c r="M28" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="N28" t="s">
         <v>64</v>
@@ -7551,46 +7765,67 @@
         <v>65</v>
       </c>
       <c r="P28" t="s">
-        <v>268</v>
+        <v>394</v>
       </c>
       <c r="Q28" t="s">
         <v>66</v>
       </c>
       <c r="S28" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="T28" t="s">
         <v>68</v>
       </c>
       <c r="U28" t="s">
-        <v>69</v>
+        <v>177</v>
+      </c>
+      <c r="V28" t="s">
+        <v>144</v>
+      </c>
+      <c r="W28" t="s">
+        <v>170</v>
+      </c>
+      <c r="X28" t="s">
+        <v>124</v>
       </c>
       <c r="Z28" t="s">
-        <v>396</v>
+        <v>403</v>
+      </c>
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
       </c>
       <c r="AF28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG28" t="s">
         <v>71</v>
       </c>
       <c r="AH28" t="s">
-        <v>126</v>
+        <v>138</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>219</v>
       </c>
       <c r="AK28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL28" s="13" t="s">
-        <v>397</v>
+        <v>127</v>
+      </c>
+      <c r="AL28" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="AM28" t="s">
         <v>77</v>
       </c>
       <c r="AN28" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO28" s="12" t="s">
-        <v>398</v>
+        <v>197</v>
+      </c>
+      <c r="AO28" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="AQ28" t="s">
         <v>79</v>
@@ -7599,45 +7834,48 @@
         <v>84</v>
       </c>
       <c r="AS28" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>412</v>
       </c>
       <c r="AU28" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="AV28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW28" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AX28" s="14" t="s">
-        <v>400</v>
+      <c r="AX28" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>388</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="E29">
         <v>2020</v>
       </c>
       <c r="F29" t="s">
+        <v>389</v>
+      </c>
+      <c r="G29" t="s">
         <v>390</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>391</v>
-      </c>
-      <c r="H29" t="s">
-        <v>392</v>
       </c>
       <c r="I29" t="s">
         <v>268</v>
@@ -7646,13 +7884,13 @@
         <v>268</v>
       </c>
       <c r="K29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L29" t="s">
         <v>268</v>
       </c>
       <c r="M29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N29" t="s">
         <v>64</v>
@@ -7661,7 +7899,7 @@
         <v>65</v>
       </c>
       <c r="P29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q29" t="s">
         <v>66</v>
@@ -7685,7 +7923,7 @@
         <v>124</v>
       </c>
       <c r="Z29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -7697,21 +7935,18 @@
         <v>3</v>
       </c>
       <c r="AF29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG29" t="s">
         <v>71</v>
       </c>
       <c r="AH29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="AK29" t="s">
         <v>127</v>
       </c>
-      <c r="AL29" s="13" t="s">
+      <c r="AL29" s="12" t="s">
         <v>406</v>
       </c>
       <c r="AM29" t="s">
@@ -7720,8 +7955,8 @@
       <c r="AN29" t="s">
         <v>197</v>
       </c>
-      <c r="AO29" s="12" t="s">
-        <v>402</v>
+      <c r="AO29" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="AQ29" t="s">
         <v>79</v>
@@ -7730,45 +7965,45 @@
         <v>202</v>
       </c>
       <c r="AT29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AU29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AV29" t="s">
         <v>150</v>
       </c>
-      <c r="AW29" s="18" t="s">
+      <c r="AW29" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AX29" s="14" t="s">
-        <v>411</v>
+      <c r="AX29" t="s">
+        <v>407</v>
       </c>
     </row>
-    <row r="30" spans="1:50" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>388</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="E30">
         <v>2020</v>
       </c>
       <c r="F30" t="s">
+        <v>389</v>
+      </c>
+      <c r="G30" t="s">
         <v>390</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>391</v>
-      </c>
-      <c r="H30" t="s">
-        <v>392</v>
       </c>
       <c r="I30" t="s">
         <v>268</v>
@@ -7777,13 +8012,13 @@
         <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L30" t="s">
         <v>268</v>
       </c>
       <c r="M30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N30" t="s">
         <v>64</v>
@@ -7792,7 +8027,7 @@
         <v>65</v>
       </c>
       <c r="P30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q30" t="s">
         <v>66</v>
@@ -7816,7 +8051,7 @@
         <v>124</v>
       </c>
       <c r="Z30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -7828,21 +8063,18 @@
         <v>3</v>
       </c>
       <c r="AF30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG30" t="s">
         <v>71</v>
       </c>
       <c r="AH30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="AK30" t="s">
         <v>127</v>
       </c>
-      <c r="AL30" s="13" t="s">
+      <c r="AL30" s="12" t="s">
         <v>406</v>
       </c>
       <c r="AM30" t="s">
@@ -7851,8 +8083,8 @@
       <c r="AN30" t="s">
         <v>197</v>
       </c>
-      <c r="AO30" s="12" t="s">
-        <v>402</v>
+      <c r="AO30" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="AQ30" t="s">
         <v>79</v>
@@ -7864,282 +8096,22 @@
         <v>87</v>
       </c>
       <c r="AT30" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AU30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AV30" t="s">
         <v>150</v>
       </c>
-      <c r="AW30" s="18" t="s">
+      <c r="AW30" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AX30" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="31" spans="1:50" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>387</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="E31">
-        <v>2020</v>
-      </c>
-      <c r="F31" t="s">
-        <v>390</v>
-      </c>
-      <c r="G31" t="s">
-        <v>391</v>
-      </c>
-      <c r="H31" t="s">
-        <v>392</v>
-      </c>
-      <c r="I31" t="s">
-        <v>268</v>
-      </c>
-      <c r="J31" t="s">
-        <v>268</v>
-      </c>
-      <c r="K31" t="s">
-        <v>393</v>
-      </c>
-      <c r="L31" t="s">
-        <v>268</v>
-      </c>
-      <c r="M31" t="s">
-        <v>394</v>
-      </c>
-      <c r="N31" t="s">
-        <v>64</v>
-      </c>
-      <c r="O31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>66</v>
-      </c>
-      <c r="S31" t="s">
-        <v>67</v>
-      </c>
-      <c r="T31" t="s">
-        <v>68</v>
-      </c>
-      <c r="U31" t="s">
-        <v>177</v>
-      </c>
-      <c r="V31" t="s">
-        <v>144</v>
-      </c>
-      <c r="W31" t="s">
-        <v>170</v>
-      </c>
-      <c r="X31" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA31">
-        <v>2</v>
-      </c>
-      <c r="AB31">
-        <v>2</v>
-      </c>
-      <c r="AC31">
-        <v>3</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL31" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO31" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>202</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>403</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>412</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW31" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX31" t="s">
+      <c r="AX30" s="13" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:50" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="E32">
-        <v>2020</v>
-      </c>
-      <c r="F32" t="s">
-        <v>390</v>
-      </c>
-      <c r="G32" t="s">
-        <v>391</v>
-      </c>
-      <c r="H32" t="s">
-        <v>392</v>
-      </c>
-      <c r="I32" t="s">
-        <v>268</v>
-      </c>
-      <c r="J32" t="s">
-        <v>268</v>
-      </c>
-      <c r="K32" t="s">
-        <v>393</v>
-      </c>
-      <c r="L32" t="s">
-        <v>268</v>
-      </c>
-      <c r="M32" t="s">
-        <v>394</v>
-      </c>
-      <c r="N32" t="s">
-        <v>64</v>
-      </c>
-      <c r="O32" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>66</v>
-      </c>
-      <c r="S32" t="s">
-        <v>67</v>
-      </c>
-      <c r="T32" t="s">
-        <v>68</v>
-      </c>
-      <c r="U32" t="s">
-        <v>177</v>
-      </c>
-      <c r="V32" t="s">
-        <v>144</v>
-      </c>
-      <c r="W32" t="s">
-        <v>170</v>
-      </c>
-      <c r="X32" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA32">
-        <v>2</v>
-      </c>
-      <c r="AB32">
-        <v>2</v>
-      </c>
-      <c r="AC32">
-        <v>3</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL32" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO32" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>401</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>412</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW32" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX32" s="14" t="s">
-        <v>409</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AX2" xr:uid="{132076D4-BD24-47CD-9565-56DD9FD7E346}"/>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
@@ -8150,13 +8122,13 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P7:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P8:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
@@ -8167,17 +8139,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>Validation!$R$3:$R$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>R5:R1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
           <xm:sqref>AM3:AM1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>Validation!$R$3:$R$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>R6:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
@@ -8271,75 +8243,75 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.109375" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="25" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="23" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="24" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
       <c r="AM1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="AN1" s="9"/>
       <c r="AO1" s="9"/>
       <c r="AP1" s="9"/>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
       <c r="AU1" s="8" t="s">
         <v>6</v>
       </c>
@@ -8347,7 +8319,7 @@
       <c r="AW1" s="8"/>
       <c r="AX1" s="8"/>
     </row>
-    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8499,7 +8471,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q3" t="s">
         <v>66</v>
       </c>
@@ -8556,7 +8528,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q4" t="s">
         <v>103</v>
       </c>
@@ -8613,7 +8585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R5" t="s">
         <v>113</v>
       </c>
@@ -8669,7 +8641,7 @@
       </c>
       <c r="AX5" s="7"/>
     </row>
-    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R6" t="s">
         <v>121</v>
       </c>
@@ -8714,7 +8686,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R7" t="s">
         <v>132</v>
       </c>
@@ -8756,7 +8728,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R8" t="s">
         <v>142</v>
       </c>
@@ -8794,7 +8766,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R9" t="s">
         <v>151</v>
       </c>
@@ -8829,7 +8801,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>160</v>
       </c>
@@ -8861,7 +8833,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S11" t="s">
         <v>168</v>
       </c>
@@ -8896,7 +8868,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S12" t="s">
         <v>175</v>
       </c>
@@ -8928,7 +8900,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
         <v>182</v>
       </c>
@@ -8963,7 +8935,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S14" t="s">
         <v>189</v>
       </c>
@@ -8992,7 +8964,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
         <v>194</v>
       </c>
@@ -9021,7 +8993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
         <v>200</v>
       </c>
@@ -9041,7 +9013,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AM17" t="s">
         <v>78</v>
       </c>
@@ -9049,22 +9021,22 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH22" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH23" s="6" t="s">
         <v>72</v>
       </c>
@@ -9099,7 +9071,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH24" t="s">
         <v>73</v>
       </c>
@@ -9125,7 +9097,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH25" t="s">
         <v>213</v>
       </c>
@@ -9148,7 +9120,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ26" t="s">
         <v>219</v>
       </c>
@@ -9159,7 +9131,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ27" t="s">
         <v>221</v>
       </c>
@@ -9170,7 +9142,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ28" t="s">
         <v>223</v>
       </c>
@@ -9178,12 +9150,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ29" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH30" s="5" t="s">
         <v>224</v>
       </c>
@@ -9206,7 +9178,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH31" s="6" t="s">
         <v>73</v>
       </c>
@@ -9232,7 +9204,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH32" t="s">
         <v>233</v>
       </c>
@@ -9258,7 +9230,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH33" t="s">
         <v>74</v>
       </c>
@@ -9278,7 +9250,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AI34" t="s">
         <v>245</v>
       </c>
@@ -9292,7 +9264,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AI35" t="s">
         <v>156</v>
       </c>
@@ -9306,7 +9278,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AU36" t="s">
         <v>251</v>
       </c>
@@ -9314,10 +9286,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -9345,85 +9317,85 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="23" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
       <c r="V1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="21" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -9524,7 +9496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -9590,7 +9562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -9641,7 +9613,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -9695,7 +9667,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -9737,7 +9709,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -9782,7 +9754,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -9820,7 +9792,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -9858,7 +9830,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>160</v>
       </c>
@@ -9893,7 +9865,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>168</v>
       </c>
@@ -9925,7 +9897,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>175</v>
       </c>
@@ -9957,7 +9929,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>182</v>
       </c>
@@ -9986,7 +9958,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>189</v>
       </c>
@@ -10009,7 +9981,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>194</v>
       </c>
@@ -10035,7 +10007,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>200</v>
       </c>
@@ -10052,7 +10024,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q17" t="s">
         <v>164</v>
       </c>
@@ -10063,7 +10035,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q18" t="s">
         <v>172</v>
       </c>
@@ -10077,7 +10049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
         <v>228</v>
       </c>
@@ -10091,7 +10063,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S20" t="s">
         <v>241</v>
       </c>
@@ -10102,7 +10074,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S21" t="s">
         <v>257</v>
       </c>
@@ -10116,7 +10088,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S22" t="s">
         <v>156</v>
       </c>
@@ -10127,7 +10099,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>205</v>
       </c>
@@ -10138,7 +10110,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R24" t="s">
         <v>110</v>
       </c>
@@ -10146,7 +10118,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R25" t="s">
         <v>118</v>
       </c>
@@ -10154,7 +10126,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R26" t="s">
         <v>127</v>
       </c>
@@ -10162,7 +10134,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R27" t="s">
         <v>75</v>
       </c>
@@ -10176,7 +10148,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
         <v>185</v>
       </c>
@@ -10187,7 +10159,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
         <v>217</v>
       </c>
@@ -10198,7 +10170,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q30" t="s">
         <v>192</v>
       </c>
@@ -10209,7 +10181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R31" t="s">
         <v>218</v>
       </c>
@@ -10217,7 +10189,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
         <v>206</v>
       </c>
@@ -10225,12 +10197,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z34" t="s">
         <v>75</v>
       </c>
@@ -10259,6 +10231,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -10372,12 +10350,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -10387,6 +10359,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10400,19 +10387,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6781EBF-A17C-4CB5-BE22-26AE6C74F038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82203C27-A393-4968-A31A-03EB283E4220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$32</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="441">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -2618,9 +2618,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Tursiops truncatus _ Stenella coeruleoalba</t>
-  </si>
-  <si>
     <t>Catch_and_bycatch</t>
   </si>
   <si>
@@ -2648,53 +2645,6 @@
     <t>Gillnet</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">For </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>S.c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">., there was a strong positive strength of association for all the different types of fishing gears except for drift nets (weak negative) and set gillnets (moderate positive). For </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>T.t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF131413"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>., the strength of association was moderate and strongly positive except for drift nets (null) and set gillnets (weakly positive).</t>
-    </r>
-  </si>
-  <si>
     <t>Trammel net</t>
   </si>
   <si>
@@ -3215,9 +3165,6 @@
   </si>
   <si>
     <t>Chelonia mydas _ Caretta caretta</t>
-  </si>
-  <si>
-    <t>incidental catch as cause pf death of marine turtles</t>
   </si>
   <si>
     <t>Both nets and longlines are involved in catching sea turtles in the eastern Mediterranean _ at least 200 turtles are killed annually, either deliberately or due to entanglement in the fishing gears.</t>
@@ -3351,9 +3298,6 @@
     <t>Calonectris diomedea</t>
   </si>
   <si>
-    <t>Entanglment in longlines due to trawl regime</t>
-  </si>
-  <si>
     <t>In the absence of trawling discards birds were attracted to the bottom longline fishery.</t>
   </si>
   <si>
@@ -3393,9 +3337,6 @@
     <t>Catch _ Mortality</t>
   </si>
   <si>
-    <t>The number of birds accidentally captured at longline settings.</t>
-  </si>
-  <si>
     <t>Trawlers have a large impact in sea turtles in the Gulf of Gabes.</t>
   </si>
   <si>
@@ -3507,12 +3448,6 @@
     <t>Catch _ mortality</t>
   </si>
   <si>
-    <t>Mesh size of 140 mm is more dangerous than the smaller size of 72 mm</t>
-  </si>
-  <si>
-    <t>Trammel nets with 400 mm external panel causes comparable catch rates, especially of juvenilles and sub-adults.</t>
-  </si>
-  <si>
     <t>Large mesh opening and high netting slack strongly influence the risk of turtle's entanglement.</t>
   </si>
   <si>
@@ -3720,9 +3655,6 @@
     <t>Pearson's correlation analysis, Fisher's test, kernel density estimation, Gi* hotspot analysis</t>
   </si>
   <si>
-    <t>This study showed a strong correlation (without implying direct causation) between fishing capacity and cetacean strandings, and in particular OTB is one of the main pressures/ threats for cetaceans.</t>
-  </si>
-  <si>
     <t>interviews</t>
   </si>
   <si>
@@ -3793,13 +3725,43 @@
   </si>
   <si>
     <t>Fishing capacity</t>
+  </si>
+  <si>
+    <t>Probability of turtle entanglement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the interview data it is estimated that on average 5433 turtles per year may be caught in the GSA 17 by the Italian set net fisheries. </t>
+  </si>
+  <si>
+    <t>Catching process</t>
+  </si>
+  <si>
+    <t>Tursiops truncatus</t>
+  </si>
+  <si>
+    <t>Stenella coeruleoalba</t>
+  </si>
+  <si>
+    <t>This study showed a strong correlation (without implying direct causation) between fishing capacity and cetacean strandings, and in particular OTB is one of the main pressures/ threats for cetaceans. For T.t., the strength of association was moderate and strongly positive except for drift nets (null) and set gillnets (weakly positive).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study showed a strong correlation (without implying direct causation) between fishing capacity and cetacean strandings, and in particular OTB is one of the main pressures/ threats for cetaceans. For S.c., there was a strong positive strength of association for all the different types of fishing gears except for drift nets (weak negative) and set gillnets (moderate positive). </t>
+  </si>
+  <si>
+    <t>incidental catch as cause of death of marine turtles</t>
+  </si>
+  <si>
+    <t>Catching operations</t>
+  </si>
+  <si>
+    <t>Number of birds accidentally captured at longline settings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3874,14 +3836,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF131413"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4003,9 +3957,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4027,12 +3987,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4318,111 +4272,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX30"/>
+  <dimension ref="A1:AX32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS32" sqref="AS32"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13" style="25"/>
-    <col min="4" max="4" width="18.88671875" style="25" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="24" max="24" width="29.5546875" customWidth="1"/>
-    <col min="25" max="25" width="32.6640625" customWidth="1"/>
-    <col min="34" max="35" width="17.6640625" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="40" max="41" width="15.88671875" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.109375" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" style="18"/>
+    <col min="4" max="4" width="18.81640625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="24" width="29.54296875" customWidth="1"/>
+    <col min="25" max="25" width="32.7265625" customWidth="1"/>
+    <col min="34" max="35" width="17.7265625" customWidth="1"/>
+    <col min="36" max="36" width="18.7265625" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.7265625" customWidth="1"/>
+    <col min="39" max="39" width="14.26953125" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.7265625" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="19" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="22" t="s">
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="16" t="s">
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -4564,17 +4518,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="10">
@@ -4620,7 +4574,7 @@
         <v>70</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -4632,7 +4586,7 @@
         <v>3</v>
       </c>
       <c r="AF3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG3" t="s">
         <v>71</v>
@@ -4650,50 +4604,50 @@
         <v>75</v>
       </c>
       <c r="AL3" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="AM3" t="s">
         <v>76</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>77</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>78</v>
       </c>
-      <c r="AO3" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>79</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>80</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AU3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AV3" t="s">
         <v>81</v>
       </c>
-      <c r="AU3" t="s">
-        <v>437</v>
-      </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>82</v>
       </c>
-      <c r="AW3" t="s">
-        <v>112</v>
-      </c>
       <c r="AX3" s="13" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="10">
@@ -4739,7 +4693,7 @@
         <v>70</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -4751,7 +4705,7 @@
         <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG4" t="s">
         <v>71</v>
@@ -4769,87 +4723,82 @@
         <v>75</v>
       </c>
       <c r="AL4" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="AM4" t="s">
         <v>76</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>77</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>78</v>
       </c>
-      <c r="AO4" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>79</v>
-      </c>
       <c r="AR4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS4" t="s">
         <v>84</v>
       </c>
-      <c r="AS4" t="s">
-        <v>85</v>
-      </c>
       <c r="AU4" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="AV4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="AX4" s="13" t="s">
-        <v>86</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1998</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="11">
-        <v>16</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
-        <v>49</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="C5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="10">
+        <v>63</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11" t="s">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10" t="s">
         <v>66</v>
       </c>
+      <c r="R5" s="10"/>
       <c r="S5" t="s">
         <v>67</v>
       </c>
@@ -4857,129 +4806,118 @@
         <v>68</v>
       </c>
       <c r="U5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V5" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="X5" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>415</v>
+        <v>70</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>259</v>
+        <v>406</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5">
         <v>2</v>
       </c>
       <c r="AC5">
-        <v>2</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
       <c r="AF5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG5" t="s">
         <v>71</v>
       </c>
       <c r="AH5" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="AI5" t="s">
-        <v>209</v>
+        <v>73</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>74</v>
       </c>
       <c r="AK5" t="s">
         <v>75</v>
       </c>
       <c r="AL5" s="12" t="s">
-        <v>260</v>
+        <v>435</v>
       </c>
       <c r="AM5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN5" t="s">
         <v>77</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>78</v>
       </c>
-      <c r="AO5" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>79</v>
       </c>
-      <c r="AR5" t="s">
-        <v>84</v>
-      </c>
       <c r="AS5" t="s">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="AU5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AV5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="s">
         <v>82</v>
       </c>
-      <c r="AW5" t="s">
-        <v>112</v>
-      </c>
       <c r="AX5" s="13" t="s">
-        <v>262</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1998</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="11">
-        <v>16</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
-        <v>49</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="C6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2017</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="10">
+        <v>63</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11" t="s">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10" t="s">
         <v>66</v>
       </c>
+      <c r="R6" s="10"/>
       <c r="S6" t="s">
         <v>67</v>
       </c>
@@ -4987,131 +4925,121 @@
         <v>68</v>
       </c>
       <c r="U6" t="s">
-        <v>135</v>
-      </c>
-      <c r="V6" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="X6" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>415</v>
+        <v>70</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>259</v>
+        <v>406</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6">
         <v>2</v>
       </c>
       <c r="AC6">
-        <v>2</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>429</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG6" t="s">
         <v>71</v>
       </c>
       <c r="AH6" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="AI6" t="s">
-        <v>209</v>
+        <v>73</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>74</v>
       </c>
       <c r="AK6" t="s">
         <v>75</v>
       </c>
       <c r="AL6" s="12" t="s">
-        <v>260</v>
+        <v>435</v>
       </c>
       <c r="AM6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN6" t="s">
         <v>77</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>78</v>
       </c>
-      <c r="AO6" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>79</v>
-      </c>
       <c r="AR6" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="AS6" t="s">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="AU6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AV6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="AX6" s="13" t="s">
-        <v>262</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7">
-        <v>2015</v>
-      </c>
-      <c r="F7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M7" t="s">
-        <v>272</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="C7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1998</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="11">
+        <v>16</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
+        <v>49</v>
+      </c>
+      <c r="J7" s="11">
         <v>64</v>
       </c>
-      <c r="O7" t="s">
+      <c r="K7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
         <v>66</v>
       </c>
       <c r="S7" t="s">
@@ -5121,131 +5049,127 @@
         <v>68</v>
       </c>
       <c r="U7" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="V7" t="s">
-        <v>169</v>
-      </c>
-      <c r="W7" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="X7" t="s">
-        <v>124</v>
+        <v>154</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>407</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>2</v>
       </c>
       <c r="AC7">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>421</v>
       </c>
       <c r="AF7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG7" t="s">
         <v>71</v>
       </c>
       <c r="AH7" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="AI7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AK7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL7" s="14" t="s">
-        <v>274</v>
+        <v>75</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="AM7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN7" t="s">
         <v>77</v>
       </c>
-      <c r="AN7" s="15" t="s">
-        <v>197</v>
-      </c>
       <c r="AO7" s="11" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="AQ7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>420</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX7" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AT7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>418</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX7" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8">
-        <v>2015</v>
-      </c>
-      <c r="F8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I8" t="s">
-        <v>269</v>
-      </c>
-      <c r="J8" t="s">
-        <v>270</v>
-      </c>
-      <c r="K8" t="s">
-        <v>271</v>
-      </c>
-      <c r="L8" t="s">
-        <v>268</v>
-      </c>
-      <c r="M8" t="s">
-        <v>272</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="D8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1998</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="11">
+        <v>16</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>49</v>
+      </c>
+      <c r="J8" s="11">
         <v>64</v>
       </c>
-      <c r="O8" t="s">
+      <c r="K8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P8" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="S8" t="s">
@@ -5255,123 +5179,120 @@
         <v>68</v>
       </c>
       <c r="U8" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="V8" t="s">
-        <v>169</v>
-      </c>
-      <c r="W8" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="X8" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="Y8" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>2</v>
       </c>
       <c r="AC8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>421</v>
       </c>
       <c r="AF8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG8" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="AH8" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="AI8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AK8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL8" s="14" t="s">
-        <v>274</v>
+        <v>75</v>
+      </c>
+      <c r="AL8" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="AM8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN8" t="s">
         <v>77</v>
       </c>
-      <c r="AN8" s="15" t="s">
-        <v>197</v>
-      </c>
       <c r="AO8" s="11" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="AQ8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR8" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="AS8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="AU8" t="s">
-        <v>276</v>
+        <v>420</v>
       </c>
       <c r="AV8" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="AX8" s="13" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>281</v>
+      <c r="C9" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="E9">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="H9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" t="s">
         <v>268</v>
       </c>
-      <c r="I9" t="s">
-        <v>284</v>
-      </c>
-      <c r="J9" t="s">
-        <v>285</v>
-      </c>
-      <c r="K9" t="s">
-        <v>286</v>
-      </c>
       <c r="L9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M9" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="N9" t="s">
         <v>64</v>
@@ -5380,7 +5301,7 @@
         <v>65</v>
       </c>
       <c r="P9" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="Q9" t="s">
         <v>66</v>
@@ -5392,22 +5313,22 @@
         <v>68</v>
       </c>
       <c r="U9" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="V9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="W9" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9">
         <v>2</v>
@@ -5415,94 +5336,97 @@
       <c r="AC9">
         <v>3</v>
       </c>
-      <c r="AE9" t="s">
-        <v>434</v>
-      </c>
       <c r="AF9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG9" t="s">
         <v>71</v>
       </c>
       <c r="AH9" t="s">
-        <v>126</v>
+        <v>136</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>212</v>
       </c>
       <c r="AK9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL9" s="12" t="s">
-        <v>290</v>
+        <v>125</v>
+      </c>
+      <c r="AL9" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="AM9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN9" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO9" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>78</v>
       </c>
-      <c r="AO9" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>79</v>
-      </c>
       <c r="AR9" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="AS9" t="s">
-        <v>240</v>
+        <v>85</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>272</v>
       </c>
       <c r="AU9" t="s">
-        <v>305</v>
+        <v>410</v>
       </c>
       <c r="AV9" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="AW9" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="AX9" s="13" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>295</v>
+      <c r="C10" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="E10">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="F10" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="H10" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="I10" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="J10" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="K10" t="s">
         <v>268</v>
       </c>
       <c r="L10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M10" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="N10" t="s">
         <v>64</v>
@@ -5511,7 +5435,7 @@
         <v>65</v>
       </c>
       <c r="P10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q10" t="s">
         <v>66</v>
@@ -5523,19 +5447,22 @@
         <v>68</v>
       </c>
       <c r="U10" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="V10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="W10" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>408</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -5544,96 +5471,99 @@
         <v>2</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG10" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="AH10" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="AI10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AK10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL10" s="12" t="s">
-        <v>303</v>
+        <v>125</v>
+      </c>
+      <c r="AL10" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="AM10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN10" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO10" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>78</v>
       </c>
-      <c r="AO10" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>79</v>
-      </c>
       <c r="AR10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AS10" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>272</v>
       </c>
       <c r="AU10" t="s">
-        <v>419</v>
+        <v>273</v>
       </c>
       <c r="AV10" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AW10" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="AX10" s="13" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>309</v>
+      <c r="C11" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="E11">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="F11" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="G11" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="H11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I11" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="J11" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="K11" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="L11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M11" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="N11" t="s">
         <v>64</v>
@@ -5642,123 +5572,129 @@
         <v>65</v>
       </c>
       <c r="P11" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="Q11" t="s">
         <v>66</v>
       </c>
       <c r="S11" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="T11" t="s">
         <v>68</v>
       </c>
       <c r="U11" t="s">
-        <v>69</v>
+        <v>188</v>
+      </c>
+      <c r="V11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="AA11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>2</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>426</v>
       </c>
       <c r="AF11" t="s">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="AG11" t="s">
         <v>71</v>
       </c>
       <c r="AH11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="AK11" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL11" s="12" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="AM11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN11" t="s">
         <v>77</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>78</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>79</v>
-      </c>
       <c r="AR11" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AS11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV11" t="s">
         <v>81</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AW11" t="s">
         <v>82</v>
       </c>
-      <c r="AV11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>131</v>
-      </c>
       <c r="AX11" s="13" t="s">
-        <v>420</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>309</v>
+      <c r="C12" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="E12">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="F12" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G12" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="H12" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="I12" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="J12" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="K12" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="L12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M12" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="N12" t="s">
         <v>64</v>
@@ -5767,25 +5703,31 @@
         <v>65</v>
       </c>
       <c r="P12" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="Q12" t="s">
         <v>66</v>
       </c>
       <c r="S12" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="T12" t="s">
         <v>68</v>
       </c>
       <c r="U12" t="s">
-        <v>69</v>
+        <v>175</v>
+      </c>
+      <c r="V12" t="s">
+        <v>159</v>
+      </c>
+      <c r="W12" t="s">
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -5794,96 +5736,96 @@
         <v>2</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF12" t="s">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="AG12" t="s">
         <v>71</v>
       </c>
       <c r="AH12" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="AI12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="AK12" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL12" s="12" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="AM12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN12" t="s">
         <v>77</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AO12" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>78</v>
       </c>
-      <c r="AO12" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
         <v>79</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>80</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AU12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AV12" t="s">
         <v>81</v>
       </c>
-      <c r="AU12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>102</v>
-      </c>
       <c r="AW12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AX12" s="13" t="s">
-        <v>420</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>309</v>
+      <c r="C13" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="E13">
         <v>2005</v>
       </c>
       <c r="F13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" t="s">
+        <v>265</v>
+      </c>
+      <c r="I13" t="s">
+        <v>307</v>
+      </c>
+      <c r="J13" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" t="s">
+        <v>309</v>
+      </c>
+      <c r="L13" t="s">
+        <v>265</v>
+      </c>
+      <c r="M13" t="s">
         <v>310</v>
-      </c>
-      <c r="G13" t="s">
-        <v>311</v>
-      </c>
-      <c r="H13" t="s">
-        <v>268</v>
-      </c>
-      <c r="I13" t="s">
-        <v>312</v>
-      </c>
-      <c r="J13" t="s">
-        <v>313</v>
-      </c>
-      <c r="K13" t="s">
-        <v>314</v>
-      </c>
-      <c r="L13" t="s">
-        <v>268</v>
-      </c>
-      <c r="M13" t="s">
-        <v>315</v>
       </c>
       <c r="N13" t="s">
         <v>64</v>
@@ -5892,25 +5834,25 @@
         <v>65</v>
       </c>
       <c r="P13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q13" t="s">
         <v>66</v>
       </c>
       <c r="S13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T13" t="s">
         <v>68</v>
       </c>
       <c r="U13" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="X13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5922,90 +5864,93 @@
         <v>1</v>
       </c>
       <c r="AF13" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AG13" t="s">
         <v>71</v>
       </c>
       <c r="AH13" t="s">
-        <v>196</v>
+        <v>146</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>206</v>
       </c>
       <c r="AK13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL13" s="11" t="s">
-        <v>322</v>
+        <v>125</v>
+      </c>
+      <c r="AL13" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="AM13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN13" t="s">
         <v>77</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AO13" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>78</v>
       </c>
-      <c r="AO13" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>79</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AS13" t="s">
         <v>80</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AU13" t="s">
         <v>81</v>
       </c>
-      <c r="AU13" t="s">
-        <v>324</v>
-      </c>
       <c r="AV13" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AW13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AX13" s="13" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>328</v>
+      <c r="C14" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="E14">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="F14" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="G14" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="H14" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="J14" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="K14" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="L14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M14" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N14" t="s">
         <v>64</v>
@@ -6014,34 +5959,25 @@
         <v>65</v>
       </c>
       <c r="P14" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="Q14" t="s">
         <v>66</v>
       </c>
       <c r="S14" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T14" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="U14" t="s">
-        <v>170</v>
-      </c>
-      <c r="V14" t="s">
-        <v>169</v>
-      </c>
-      <c r="W14" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="X14" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>338</v>
+        <v>122</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -6050,96 +5986,96 @@
         <v>2</v>
       </c>
       <c r="AC14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="AG14" t="s">
         <v>71</v>
       </c>
       <c r="AH14" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="AI14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AK14" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="AM14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN14" t="s">
         <v>77</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>78</v>
       </c>
-      <c r="AO14" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="AQ14" t="s">
+      <c r="AR14" t="s">
         <v>79</v>
       </c>
-      <c r="AR14" t="s">
-        <v>84</v>
-      </c>
       <c r="AS14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AU14" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="AV14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AW14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AX14" s="13" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>328</v>
+      <c r="C15" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="E15">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="G15" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="H15" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="J15" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="K15" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="L15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M15" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N15" t="s">
         <v>64</v>
@@ -6148,34 +6084,25 @@
         <v>65</v>
       </c>
       <c r="P15" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="Q15" t="s">
         <v>66</v>
       </c>
       <c r="S15" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T15" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="U15" t="s">
-        <v>170</v>
-      </c>
-      <c r="V15" t="s">
-        <v>169</v>
-      </c>
-      <c r="W15" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>338</v>
+        <v>122</v>
       </c>
       <c r="Z15" s="11" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6184,96 +6111,93 @@
         <v>2</v>
       </c>
       <c r="AC15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="AG15" t="s">
         <v>71</v>
       </c>
       <c r="AH15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="AK15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL15" s="12" t="s">
-        <v>303</v>
+        <v>125</v>
+      </c>
+      <c r="AL15" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="AM15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN15" t="s">
         <v>77</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO15" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>78</v>
       </c>
-      <c r="AO15" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="AQ15" t="s">
+      <c r="AR15" t="s">
         <v>79</v>
       </c>
-      <c r="AR15" t="s">
-        <v>84</v>
-      </c>
       <c r="AS15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AU15" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="AV15" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="AW15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AX15" s="13" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>328</v>
+      <c r="C16" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>323</v>
       </c>
       <c r="E16">
         <v>2017</v>
       </c>
       <c r="F16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" t="s">
+        <v>326</v>
+      </c>
+      <c r="I16" t="s">
+        <v>327</v>
+      </c>
+      <c r="J16" t="s">
+        <v>328</v>
+      </c>
+      <c r="K16" t="s">
         <v>329</v>
       </c>
-      <c r="G16" t="s">
+      <c r="L16" t="s">
+        <v>265</v>
+      </c>
+      <c r="M16" t="s">
         <v>330</v>
-      </c>
-      <c r="H16" t="s">
-        <v>331</v>
-      </c>
-      <c r="I16" t="s">
-        <v>332</v>
-      </c>
-      <c r="J16" t="s">
-        <v>333</v>
-      </c>
-      <c r="K16" t="s">
-        <v>334</v>
-      </c>
-      <c r="L16" t="s">
-        <v>268</v>
-      </c>
-      <c r="M16" t="s">
-        <v>335</v>
       </c>
       <c r="N16" t="s">
         <v>64</v>
@@ -6282,7 +6206,7 @@
         <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q16" t="s">
         <v>66</v>
@@ -6291,25 +6215,25 @@
         <v>67</v>
       </c>
       <c r="T16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U16" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="V16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W16" t="s">
-        <v>116</v>
-      </c>
-      <c r="X16" s="15" t="s">
-        <v>124</v>
+        <v>152</v>
+      </c>
+      <c r="X16" t="s">
+        <v>122</v>
       </c>
       <c r="Y16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6320,97 +6244,94 @@
       <c r="AC16">
         <v>3</v>
       </c>
-      <c r="AE16" t="s">
-        <v>346</v>
-      </c>
       <c r="AF16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG16" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="AH16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO16" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW16" t="s">
         <v>110</v>
       </c>
-      <c r="AL16" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO16" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>348</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>342</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>120</v>
-      </c>
       <c r="AX16" s="13" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>328</v>
+      <c r="C17" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>323</v>
       </c>
       <c r="E17">
         <v>2017</v>
       </c>
       <c r="F17" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" t="s">
+        <v>326</v>
+      </c>
+      <c r="I17" t="s">
+        <v>327</v>
+      </c>
+      <c r="J17" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" t="s">
         <v>329</v>
       </c>
-      <c r="G17" t="s">
+      <c r="L17" t="s">
+        <v>265</v>
+      </c>
+      <c r="M17" t="s">
         <v>330</v>
-      </c>
-      <c r="H17" t="s">
-        <v>331</v>
-      </c>
-      <c r="I17" t="s">
-        <v>332</v>
-      </c>
-      <c r="J17" t="s">
-        <v>333</v>
-      </c>
-      <c r="K17" t="s">
-        <v>334</v>
-      </c>
-      <c r="L17" t="s">
-        <v>268</v>
-      </c>
-      <c r="M17" t="s">
-        <v>335</v>
       </c>
       <c r="N17" t="s">
         <v>64</v>
@@ -6419,7 +6340,7 @@
         <v>65</v>
       </c>
       <c r="P17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q17" t="s">
         <v>66</v>
@@ -6428,25 +6349,25 @@
         <v>67</v>
       </c>
       <c r="T17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U17" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="V17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W17" t="s">
-        <v>107</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>124</v>
+        <v>152</v>
+      </c>
+      <c r="X17" t="s">
+        <v>122</v>
       </c>
       <c r="Y17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6457,97 +6378,94 @@
       <c r="AC17">
         <v>3</v>
       </c>
-      <c r="AE17" t="s">
-        <v>346</v>
-      </c>
       <c r="AF17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG17" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="AH17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW17" t="s">
         <v>110</v>
       </c>
-      <c r="AL17" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO17" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>347</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>342</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>120</v>
-      </c>
       <c r="AX17" s="13" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>351</v>
+      <c r="C18" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>323</v>
       </c>
       <c r="E18">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="F18" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18" t="s">
+        <v>326</v>
+      </c>
+      <c r="I18" t="s">
+        <v>327</v>
+      </c>
+      <c r="J18" t="s">
+        <v>328</v>
+      </c>
+      <c r="K18" t="s">
         <v>329</v>
       </c>
-      <c r="G18" t="s">
-        <v>352</v>
-      </c>
-      <c r="H18" t="s">
-        <v>353</v>
-      </c>
-      <c r="I18" t="s">
-        <v>354</v>
-      </c>
-      <c r="J18" t="s">
-        <v>355</v>
-      </c>
-      <c r="K18" t="s">
-        <v>356</v>
-      </c>
       <c r="L18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M18" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="N18" t="s">
         <v>64</v>
@@ -6556,28 +6474,34 @@
         <v>65</v>
       </c>
       <c r="P18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q18" t="s">
         <v>66</v>
       </c>
       <c r="S18" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="T18" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="U18" t="s">
-        <v>162</v>
+        <v>133</v>
+      </c>
+      <c r="V18" t="s">
+        <v>167</v>
       </c>
       <c r="W18" t="s">
-        <v>116</v>
-      </c>
-      <c r="X18" t="s">
-        <v>124</v>
+        <v>114</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>331</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6585,94 +6509,103 @@
       <c r="AB18">
         <v>2</v>
       </c>
-      <c r="AC18" s="15">
+      <c r="AC18">
         <v>3</v>
       </c>
+      <c r="AE18" t="s">
+        <v>339</v>
+      </c>
       <c r="AF18" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG18" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="AH18" t="s">
-        <v>126</v>
+        <v>162</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>108</v>
       </c>
       <c r="AL18" s="12" t="s">
-        <v>358</v>
+        <v>299</v>
       </c>
       <c r="AM18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN18" t="s">
         <v>77</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AO18" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>78</v>
       </c>
-      <c r="AO18" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>79</v>
-      </c>
       <c r="AR18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS18" t="s">
         <v>84</v>
       </c>
-      <c r="AS18" t="s">
-        <v>85</v>
-      </c>
       <c r="AT18" t="s">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="AU18" t="s">
-        <v>304</v>
+        <v>431</v>
       </c>
       <c r="AV18" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AW18" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="AX18" s="13" t="s">
-        <v>425</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>351</v>
+      <c r="C19" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>323</v>
       </c>
       <c r="E19">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="F19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H19" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19" t="s">
+        <v>327</v>
+      </c>
+      <c r="J19" t="s">
+        <v>328</v>
+      </c>
+      <c r="K19" t="s">
         <v>329</v>
       </c>
-      <c r="G19" t="s">
-        <v>352</v>
-      </c>
-      <c r="H19" t="s">
-        <v>353</v>
-      </c>
-      <c r="I19" t="s">
-        <v>354</v>
-      </c>
-      <c r="J19" t="s">
-        <v>355</v>
-      </c>
-      <c r="K19" t="s">
-        <v>356</v>
-      </c>
       <c r="L19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M19" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="N19" t="s">
         <v>64</v>
@@ -6681,28 +6614,34 @@
         <v>65</v>
       </c>
       <c r="P19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
       </c>
       <c r="S19" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="T19" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="U19" t="s">
-        <v>162</v>
+        <v>133</v>
+      </c>
+      <c r="V19" t="s">
+        <v>167</v>
       </c>
       <c r="W19" t="s">
-        <v>116</v>
-      </c>
-      <c r="X19" t="s">
-        <v>124</v>
+        <v>105</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>331</v>
       </c>
       <c r="Z19" s="11" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -6710,94 +6649,103 @@
       <c r="AB19">
         <v>2</v>
       </c>
-      <c r="AC19" s="15">
+      <c r="AC19">
         <v>3</v>
       </c>
+      <c r="AE19" t="s">
+        <v>339</v>
+      </c>
       <c r="AF19" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG19" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="AH19" t="s">
-        <v>126</v>
+        <v>162</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>108</v>
       </c>
       <c r="AL19" s="12" t="s">
-        <v>358</v>
+        <v>299</v>
       </c>
       <c r="AM19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN19" t="s">
         <v>77</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AO19" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>78</v>
       </c>
-      <c r="AO19" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>79</v>
-      </c>
       <c r="AR19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS19" t="s">
         <v>85</v>
       </c>
       <c r="AT19" t="s">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="AU19" t="s">
-        <v>304</v>
+        <v>431</v>
       </c>
       <c r="AV19" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AW19" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="AX19" s="13" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>351</v>
+      <c r="C20" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>344</v>
       </c>
       <c r="E20">
         <v>2021</v>
       </c>
       <c r="F20" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G20" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H20" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I20" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J20" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K20" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M20" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="N20" t="s">
         <v>64</v>
@@ -6806,28 +6754,28 @@
         <v>65</v>
       </c>
       <c r="P20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q20" t="s">
         <v>66</v>
       </c>
       <c r="S20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -6839,90 +6787,90 @@
         <v>3</v>
       </c>
       <c r="AF20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG20" t="s">
         <v>71</v>
       </c>
       <c r="AH20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AL20" s="12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AM20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN20" t="s">
         <v>77</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AO20" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>78</v>
       </c>
-      <c r="AO20" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>79</v>
-      </c>
       <c r="AR20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS20" t="s">
         <v>84</v>
       </c>
-      <c r="AS20" t="s">
-        <v>85</v>
-      </c>
       <c r="AT20" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="AU20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AV20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AW20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AX20" s="13" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>351</v>
+      <c r="C21" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>344</v>
       </c>
       <c r="E21">
         <v>2021</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G21" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H21" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I21" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J21" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K21" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M21" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="N21" t="s">
         <v>64</v>
@@ -6931,28 +6879,28 @@
         <v>65</v>
       </c>
       <c r="P21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q21" t="s">
         <v>66</v>
       </c>
       <c r="S21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6964,90 +6912,90 @@
         <v>3</v>
       </c>
       <c r="AF21" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG21" t="s">
         <v>71</v>
       </c>
       <c r="AH21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AL21" s="12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AM21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN21" t="s">
         <v>77</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AO21" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>78</v>
       </c>
-      <c r="AO21" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>79</v>
-      </c>
       <c r="AR21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS21" t="s">
         <v>84</v>
       </c>
-      <c r="AS21" t="s">
-        <v>85</v>
-      </c>
       <c r="AT21" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="AU21" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AV21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AW21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AX21" s="13" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>364</v>
+      <c r="C22" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>344</v>
       </c>
       <c r="E22">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F22" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="G22" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="H22" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="I22" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="J22" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="K22" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="L22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M22" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="N22" t="s">
         <v>64</v>
@@ -7056,112 +7004,123 @@
         <v>65</v>
       </c>
       <c r="P22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q22" t="s">
         <v>66</v>
       </c>
       <c r="S22" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="T22" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="U22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W22" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="X22" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>436</v>
+        <v>354</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="15">
+        <v>3</v>
       </c>
       <c r="AF22" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG22" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AH22" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>219</v>
-      </c>
-      <c r="AL22" s="12"/>
+        <v>124</v>
+      </c>
+      <c r="AL22" s="12" t="s">
+        <v>351</v>
+      </c>
       <c r="AM22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN22" t="s">
         <v>77</v>
       </c>
-      <c r="AN22" t="s">
-        <v>201</v>
-      </c>
       <c r="AO22" s="11" t="s">
-        <v>188</v>
+        <v>352</v>
       </c>
       <c r="AQ22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AS22" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>415</v>
       </c>
       <c r="AU22" t="s">
-        <v>431</v>
+        <v>300</v>
       </c>
       <c r="AV22" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="AW22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AX22" s="13" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>364</v>
+      <c r="C23" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>344</v>
       </c>
       <c r="E23">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F23" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="G23" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="H23" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="I23" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="J23" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="K23" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="L23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M23" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="N23" t="s">
         <v>64</v>
@@ -7170,114 +7129,123 @@
         <v>65</v>
       </c>
       <c r="P23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q23" t="s">
         <v>66</v>
       </c>
       <c r="S23" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="T23" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="U23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W23" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="X23" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>436</v>
+        <v>354</v>
+      </c>
+      <c r="AA23">
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>3</v>
       </c>
       <c r="AF23" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG23" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="AH23" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="AL23" s="12" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="AM23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN23" t="s">
         <v>77</v>
       </c>
-      <c r="AN23" t="s">
-        <v>201</v>
-      </c>
       <c r="AO23" s="11" t="s">
-        <v>188</v>
+        <v>352</v>
       </c>
       <c r="AQ23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AS23" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>416</v>
       </c>
       <c r="AU23" t="s">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="AV23" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="AW23" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="AX23" s="13" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>364</v>
+      <c r="C24" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="E24">
         <v>2018</v>
       </c>
       <c r="F24" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G24" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H24" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="I24" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="J24" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K24" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M24" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="N24" t="s">
         <v>64</v>
@@ -7286,7 +7254,7 @@
         <v>65</v>
       </c>
       <c r="P24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q24" t="s">
         <v>66</v>
@@ -7298,99 +7266,100 @@
         <v>68</v>
       </c>
       <c r="U24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X24" t="s">
         <v>70</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="AF24" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AH24" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL24" s="11" t="s">
-        <v>432</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL24" s="12"/>
       <c r="AM24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AO24" s="11" t="s">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="AQ24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR24" t="s">
         <v>79</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AS24" t="s">
         <v>80</v>
       </c>
-      <c r="AS24" t="s">
-        <v>81</v>
-      </c>
       <c r="AU24" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="AV24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AW24" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="AX24" s="13" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>364</v>
+      <c r="C25" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="E25">
         <v>2018</v>
       </c>
       <c r="F25" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G25" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H25" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="I25" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="J25" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K25" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="N25" t="s">
         <v>64</v>
@@ -7399,7 +7368,7 @@
         <v>65</v>
       </c>
       <c r="P25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q25" t="s">
         <v>66</v>
@@ -7411,105 +7380,102 @@
         <v>68</v>
       </c>
       <c r="U25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X25" t="s">
         <v>70</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="AF25" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AH25" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="AI25" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL25" s="11" t="s">
-        <v>373</v>
+        <v>206</v>
+      </c>
+      <c r="AL25" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="AM25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AO25" s="11" t="s">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="AQ25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR25" t="s">
         <v>79</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AS25" t="s">
         <v>80</v>
       </c>
-      <c r="AS25" t="s">
-        <v>81</v>
-      </c>
       <c r="AU25" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AV25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AW25" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>374</v>
+        <v>118</v>
+      </c>
+      <c r="AX25" s="13" t="s">
+        <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>379</v>
+      <c r="C26" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="E26">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F26" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="G26" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="H26" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="I26" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="J26" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="K26" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="L26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="N26" t="s">
         <v>64</v>
@@ -7518,114 +7484,111 @@
         <v>65</v>
       </c>
       <c r="P26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q26" t="s">
         <v>66</v>
       </c>
       <c r="S26" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="T26" t="s">
         <v>68</v>
       </c>
       <c r="U26" t="s">
-        <v>69</v>
+        <v>160</v>
+      </c>
+      <c r="W26" t="s">
+        <v>152</v>
       </c>
       <c r="X26" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>395</v>
+        <v>70</v>
+      </c>
+      <c r="Z26" s="11" t="s">
+        <v>428</v>
       </c>
       <c r="AF26" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG26" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="AH26" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL26" s="12" t="s">
-        <v>396</v>
+        <v>155</v>
+      </c>
+      <c r="AL26" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="AM26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN26" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO26" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>78</v>
       </c>
-      <c r="AO26" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>79</v>
       </c>
-      <c r="AR26" t="s">
-        <v>84</v>
-      </c>
       <c r="AS26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AU26" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="AV26" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="AW26" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AX26" s="13" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>388</v>
+      <c r="C27" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="E27">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F27" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="G27" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="H27" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="I27" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="J27" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="K27" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="L27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="N27" t="s">
         <v>64</v>
@@ -7634,7 +7597,7 @@
         <v>65</v>
       </c>
       <c r="P27" t="s">
-        <v>394</v>
+        <v>265</v>
       </c>
       <c r="Q27" t="s">
         <v>66</v>
@@ -7646,117 +7609,105 @@
         <v>68</v>
       </c>
       <c r="U27" t="s">
-        <v>177</v>
-      </c>
-      <c r="V27" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="W27" t="s">
+        <v>152</v>
+      </c>
+      <c r="X27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH27" t="s">
         <v>170</v>
       </c>
-      <c r="X27" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA27">
-        <v>2</v>
-      </c>
-      <c r="AB27">
-        <v>2</v>
-      </c>
-      <c r="AC27">
-        <v>3</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>318</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>138</v>
-      </c>
       <c r="AI27" t="s">
-        <v>219</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL27" s="12" t="s">
-        <v>405</v>
+        <v>214</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL27" s="11" t="s">
+        <v>366</v>
       </c>
       <c r="AM27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO27" s="11" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="AQ27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR27" t="s">
         <v>79</v>
       </c>
-      <c r="AR27" t="s">
-        <v>202</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>402</v>
+      <c r="AS27" t="s">
+        <v>80</v>
       </c>
       <c r="AU27" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AV27" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW27" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX27" s="13" t="s">
-        <v>410</v>
+        <v>186</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>388</v>
+      <c r="C28" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="E28">
         <v>2020</v>
       </c>
       <c r="F28" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="G28" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="H28" t="s">
-        <v>391</v>
+        <v>294</v>
       </c>
       <c r="I28" t="s">
-        <v>268</v>
+        <v>375</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="K28" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="N28" t="s">
         <v>64</v>
@@ -7765,132 +7716,114 @@
         <v>65</v>
       </c>
       <c r="P28" t="s">
-        <v>394</v>
+        <v>265</v>
       </c>
       <c r="Q28" t="s">
         <v>66</v>
       </c>
       <c r="S28" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="T28" t="s">
         <v>68</v>
       </c>
       <c r="U28" t="s">
-        <v>177</v>
-      </c>
-      <c r="V28" t="s">
-        <v>144</v>
-      </c>
-      <c r="W28" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="X28" t="s">
-        <v>124</v>
+        <v>154</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>427</v>
       </c>
       <c r="Z28" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA28">
-        <v>2</v>
-      </c>
-      <c r="AB28">
-        <v>2</v>
-      </c>
-      <c r="AC28">
-        <v>3</v>
+        <v>388</v>
       </c>
       <c r="AF28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG28" t="s">
         <v>71</v>
       </c>
       <c r="AH28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="AK28" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL28" s="12" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="AM28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN28" t="s">
         <v>77</v>
       </c>
-      <c r="AN28" t="s">
-        <v>197</v>
-      </c>
       <c r="AO28" s="11" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="AQ28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS28" t="s">
         <v>84</v>
       </c>
-      <c r="AS28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>412</v>
-      </c>
       <c r="AU28" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="AV28" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW28" s="15" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>110</v>
       </c>
       <c r="AX28" s="13" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>388</v>
+      <c r="C29" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>381</v>
       </c>
       <c r="E29">
         <v>2020</v>
       </c>
       <c r="F29" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G29" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H29" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="L29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="N29" t="s">
         <v>64</v>
@@ -7899,7 +7832,7 @@
         <v>65</v>
       </c>
       <c r="P29" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Q29" t="s">
         <v>66</v>
@@ -7911,19 +7844,19 @@
         <v>68</v>
       </c>
       <c r="U29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z29" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -7935,90 +7868,93 @@
         <v>3</v>
       </c>
       <c r="AF29" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG29" t="s">
         <v>71</v>
       </c>
       <c r="AH29" t="s">
-        <v>157</v>
+        <v>136</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>217</v>
       </c>
       <c r="AK29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AL29" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AM29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AQ29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AT29" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AU29" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AV29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AW29" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>407</v>
+        <v>82</v>
+      </c>
+      <c r="AX29" s="13" t="s">
+        <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>388</v>
+      <c r="C30" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>381</v>
       </c>
       <c r="E30">
         <v>2020</v>
       </c>
       <c r="F30" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G30" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H30" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="L30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="N30" t="s">
         <v>64</v>
@@ -8027,7 +7963,7 @@
         <v>65</v>
       </c>
       <c r="P30" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Q30" t="s">
         <v>66</v>
@@ -8039,19 +7975,19 @@
         <v>68</v>
       </c>
       <c r="U30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z30" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8063,52 +7999,314 @@
         <v>3</v>
       </c>
       <c r="AF30" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG30" t="s">
         <v>71</v>
       </c>
       <c r="AH30" t="s">
-        <v>157</v>
+        <v>136</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>217</v>
       </c>
       <c r="AK30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AL30" s="12" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AM30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AO30" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>405</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>404</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW30" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX30" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>379</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="E31">
+        <v>2020</v>
+      </c>
+      <c r="F31" t="s">
+        <v>382</v>
+      </c>
+      <c r="G31" t="s">
+        <v>383</v>
+      </c>
+      <c r="H31" t="s">
+        <v>384</v>
+      </c>
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>385</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="s">
+        <v>386</v>
+      </c>
+      <c r="N31" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>66</v>
+      </c>
+      <c r="S31" t="s">
+        <v>67</v>
+      </c>
+      <c r="T31" t="s">
+        <v>68</v>
+      </c>
+      <c r="U31" t="s">
+        <v>175</v>
+      </c>
+      <c r="V31" t="s">
+        <v>142</v>
+      </c>
+      <c r="W31" t="s">
+        <v>168</v>
+      </c>
+      <c r="X31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL31" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO31" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>404</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>379</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="E32">
+        <v>2020</v>
+      </c>
+      <c r="F32" t="s">
+        <v>382</v>
+      </c>
+      <c r="G32" t="s">
+        <v>383</v>
+      </c>
+      <c r="H32" t="s">
+        <v>384</v>
+      </c>
+      <c r="I32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" t="s">
+        <v>385</v>
+      </c>
+      <c r="L32" t="s">
+        <v>265</v>
+      </c>
+      <c r="M32" t="s">
+        <v>386</v>
+      </c>
+      <c r="N32" t="s">
+        <v>64</v>
+      </c>
+      <c r="O32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>66</v>
+      </c>
+      <c r="S32" t="s">
+        <v>67</v>
+      </c>
+      <c r="T32" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" t="s">
+        <v>175</v>
+      </c>
+      <c r="V32" t="s">
+        <v>142</v>
+      </c>
+      <c r="W32" t="s">
+        <v>168</v>
+      </c>
+      <c r="X32" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL32" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO32" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>393</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>404</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW32" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX32" s="13" t="s">
         <v>401</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>400</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>411</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW30" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX30" s="13" t="s">
-        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -8122,14 +8320,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P7:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P9:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8143,7 +8341,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R5:R1048576</xm:sqref>
+          <xm:sqref>R7:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
@@ -8243,75 +8441,75 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="19" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
       <c r="AM1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="AN1" s="9"/>
       <c r="AO1" s="9"/>
       <c r="AP1" s="9"/>
-      <c r="AQ1" s="16" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
       <c r="AU1" s="8" t="s">
         <v>6</v>
       </c>
@@ -8319,7 +8517,7 @@
       <c r="AW1" s="8"/>
       <c r="AX1" s="8"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -8471,27 +8669,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>66</v>
       </c>
       <c r="R3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" t="s">
         <v>95</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" t="s">
         <v>96</v>
-      </c>
-      <c r="T3" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W3" t="s">
-        <v>98</v>
       </c>
       <c r="X3" t="s">
         <v>70</v>
@@ -8507,51 +8705,51 @@
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK3" t="s">
         <v>99</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV3" t="s">
         <v>100</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AW3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="Q4" t="s">
         <v>101</v>
       </c>
-      <c r="AM3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV3" t="s">
+      <c r="R4" t="s">
         <v>102</v>
       </c>
-      <c r="AW3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>103</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4" t="s">
         <v>106</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="W4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4" t="s">
-        <v>108</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -8564,13 +8762,13 @@
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AM4" s="6" t="s">
         <v>45</v>
@@ -8579,33 +8777,33 @@
         <v>49</v>
       </c>
       <c r="AV4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
         <v>111</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="S5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="R5" t="s">
+      <c r="T5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="V5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="AA5">
@@ -8625,671 +8823,671 @@
         <v>72</v>
       </c>
       <c r="AK5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW5" t="s">
         <v>118</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>120</v>
       </c>
       <c r="AX5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S6" t="s">
         <v>67</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X6" t="s">
         <v>122</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="X6" t="s">
-        <v>124</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK6" t="s">
         <v>125</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AM6" t="s">
         <v>126</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AQ6" t="s">
         <v>127</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AV6" t="s">
         <v>128</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AW6" t="s">
         <v>129</v>
       </c>
-      <c r="AV6" t="s">
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="R7" t="s">
         <v>130</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="S7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>132</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>133</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
+        <v>132</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X7" t="s">
         <v>134</v>
-      </c>
-      <c r="U7" t="s">
-        <v>135</v>
-      </c>
-      <c r="V7" t="s">
-        <v>134</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="X7" t="s">
-        <v>136</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AH7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AK7" t="s">
         <v>75</v>
       </c>
       <c r="AM7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV7" t="s">
         <v>139</v>
       </c>
-      <c r="AQ7" t="s">
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="R8" t="s">
         <v>140</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="S8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>142</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>143</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
+        <v>142</v>
+      </c>
+      <c r="W8" t="s">
+        <v>133</v>
+      </c>
+      <c r="X8" t="s">
         <v>144</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AG8" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V8" t="s">
-        <v>144</v>
-      </c>
-      <c r="W8" t="s">
-        <v>135</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="AH8" t="s">
         <v>146</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AM8" t="s">
         <v>147</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>149</v>
       </c>
       <c r="AQ8" t="s">
         <v>75</v>
       </c>
       <c r="AV8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S9" t="s">
         <v>150</v>
       </c>
+      <c r="T9" t="s">
+        <v>151</v>
+      </c>
+      <c r="U9" t="s">
+        <v>152</v>
+      </c>
+      <c r="V9" t="s">
+        <v>151</v>
+      </c>
+      <c r="W9" t="s">
+        <v>143</v>
+      </c>
+      <c r="X9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="R9" t="s">
-        <v>151</v>
-      </c>
-      <c r="S9" t="s">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S10" t="s">
+        <v>158</v>
+      </c>
+      <c r="T10" t="s">
+        <v>159</v>
+      </c>
+      <c r="U10" t="s">
+        <v>160</v>
+      </c>
+      <c r="V10" t="s">
+        <v>159</v>
+      </c>
+      <c r="W10" t="s">
         <v>152</v>
       </c>
-      <c r="T9" t="s">
-        <v>153</v>
-      </c>
-      <c r="U9" t="s">
-        <v>154</v>
-      </c>
-      <c r="V9" t="s">
-        <v>153</v>
-      </c>
-      <c r="W9" t="s">
-        <v>145</v>
-      </c>
-      <c r="X9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>158</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>159</v>
+      <c r="X10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S10" t="s">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" t="s">
+        <v>167</v>
+      </c>
+      <c r="U11" t="s">
+        <v>168</v>
+      </c>
+      <c r="V11" t="s">
+        <v>167</v>
+      </c>
+      <c r="W11" t="s">
         <v>160</v>
       </c>
-      <c r="T10" t="s">
-        <v>161</v>
-      </c>
-      <c r="U10" t="s">
-        <v>162</v>
-      </c>
-      <c r="V10" t="s">
-        <v>161</v>
-      </c>
-      <c r="W10" t="s">
-        <v>154</v>
-      </c>
-      <c r="X10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ10" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>167</v>
+      <c r="X11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S11" t="s">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S12" t="s">
+        <v>173</v>
+      </c>
+      <c r="T12" t="s">
+        <v>174</v>
+      </c>
+      <c r="U12" t="s">
+        <v>175</v>
+      </c>
+      <c r="V12" t="s">
+        <v>174</v>
+      </c>
+      <c r="W12" t="s">
         <v>168</v>
       </c>
-      <c r="T11" t="s">
-        <v>169</v>
-      </c>
-      <c r="U11" t="s">
-        <v>170</v>
-      </c>
-      <c r="V11" t="s">
-        <v>169</v>
-      </c>
-      <c r="W11" t="s">
-        <v>162</v>
-      </c>
-      <c r="X11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ11" s="6" t="s">
+      <c r="X12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>79</v>
       </c>
-      <c r="AR11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>174</v>
+      <c r="AR12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S12" t="s">
-        <v>175</v>
-      </c>
-      <c r="T12" t="s">
-        <v>176</v>
-      </c>
-      <c r="U12" t="s">
-        <v>177</v>
-      </c>
-      <c r="V12" t="s">
-        <v>176</v>
-      </c>
-      <c r="W12" t="s">
-        <v>170</v>
-      </c>
-      <c r="X12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR12" t="s">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S13" t="s">
         <v>180</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S13" t="s">
-        <v>182</v>
       </c>
       <c r="T13" t="s">
         <v>68</v>
       </c>
       <c r="U13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V13" t="s">
         <v>68</v>
       </c>
       <c r="W13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="X13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>184</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AR13" t="s">
         <v>185</v>
       </c>
-      <c r="AM13" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ13" t="s">
+      <c r="AV13" t="s">
         <v>186</v>
       </c>
-      <c r="AR13" t="s">
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S14" t="s">
         <v>187</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="U14" t="s">
         <v>188</v>
       </c>
+      <c r="W14" t="s">
+        <v>181</v>
+      </c>
+      <c r="X14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S14" t="s">
-        <v>189</v>
-      </c>
-      <c r="U14" t="s">
-        <v>190</v>
-      </c>
-      <c r="W14" t="s">
-        <v>183</v>
-      </c>
-      <c r="X14" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH14" t="s">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S15" t="s">
         <v>192</v>
-      </c>
-      <c r="AM14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S15" t="s">
-        <v>194</v>
       </c>
       <c r="U15" t="s">
         <v>69</v>
       </c>
       <c r="W15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM15" t="s">
         <v>195</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AQ15" t="s">
         <v>196</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AR15" t="s">
         <v>197</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AV15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="S16" t="s">
         <v>198</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>199</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="S16" t="s">
-        <v>200</v>
       </c>
       <c r="W16" t="s">
         <v>69</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AM16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AQ16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AR16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AQ17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>72</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AJ23" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM23" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN23" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO23" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AK23" s="6" t="s">
+      <c r="AP23" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR23" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AL23" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM23" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN23" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO23" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP23" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ23" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AR23" s="6" t="s">
-        <v>206</v>
-      </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>73</v>
       </c>
       <c r="AJ24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM24" t="s">
         <v>207</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AN24" t="s">
         <v>208</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AO24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP24" t="s">
         <v>209</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AQ24" t="s">
         <v>210</v>
       </c>
-      <c r="AO24" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP24" t="s">
+    </row>
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AH25" t="s">
         <v>211</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AJ25" t="s">
         <v>212</v>
       </c>
+      <c r="AK25" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AH25" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>216</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP25" t="s">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AJ26" t="s">
         <v>217</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AK26" t="s">
         <v>218</v>
       </c>
+      <c r="AO26" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AJ26" t="s">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AJ27" t="s">
         <v>219</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AK27" t="s">
         <v>220</v>
       </c>
-      <c r="AO26" t="s">
-        <v>118</v>
+      <c r="AO27" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AJ27" t="s">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AJ28" t="s">
         <v>221</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>222</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AJ28" t="s">
-        <v>223</v>
       </c>
       <c r="AO28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AH30" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR30" s="6" t="s">
         <v>224</v>
       </c>
+      <c r="AS30" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT30" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV30" s="6" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AH30" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="AQ30" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="AR30" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="AS30" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AT30" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV30" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>73</v>
       </c>
       <c r="AI31" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT31" t="s">
         <v>228</v>
       </c>
-      <c r="AQ31" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS31" t="s">
+      <c r="AU31" t="s">
         <v>229</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="AV31" t="s">
         <v>230</v>
       </c>
-      <c r="AU31" t="s">
+    </row>
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AH32" t="s">
         <v>231</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AI32" t="s">
         <v>232</v>
       </c>
+      <c r="AQ32" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AH32" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>236</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>74</v>
       </c>
       <c r="AI33" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT33" t="s">
         <v>241</v>
       </c>
-      <c r="AS33" t="s">
+      <c r="AU33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV33" t="s">
         <v>242</v>
       </c>
-      <c r="AT33" t="s">
+    </row>
+    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AI34" t="s">
         <v>243</v>
       </c>
-      <c r="AU33" t="s">
+      <c r="AT34" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU34" t="s">
         <v>85</v>
       </c>
-      <c r="AV33" t="s">
-        <v>244</v>
+      <c r="AV34" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="34" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AI34" t="s">
-        <v>245</v>
-      </c>
-      <c r="AT34" t="s">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AI35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT35" t="s">
         <v>246</v>
       </c>
-      <c r="AU34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV34" t="s">
+      <c r="AU35" t="s">
         <v>247</v>
       </c>
+      <c r="AV35" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="35" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AI35" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>248</v>
-      </c>
-      <c r="AU35" t="s">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
+      <c r="AU36" t="s">
         <v>249</v>
       </c>
-      <c r="AV35" t="s">
+      <c r="AV36" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="34:48" x14ac:dyDescent="0.3">
-      <c r="AU36" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -9317,85 +9515,85 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" customWidth="1"/>
+    <col min="21" max="21" width="17.7265625" customWidth="1"/>
+    <col min="22" max="22" width="18.7265625" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.26953125" customWidth="1"/>
+    <col min="31" max="31" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
       <c r="V1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="17" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -9496,24 +9694,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
       </c>
       <c r="G3" t="s">
         <v>70</v>
@@ -9529,60 +9727,60 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R3" t="s">
         <v>73</v>
       </c>
       <c r="S3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Z3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AB3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>102</v>
       </c>
-      <c r="AF3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
         <v>106</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -9595,45 +9793,45 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" t="s">
+        <v>253</v>
+      </c>
+      <c r="W4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE4" t="s">
         <v>109</v>
       </c>
-      <c r="S4" t="s">
-        <v>255</v>
-      </c>
-      <c r="W4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>111</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="B5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -9649,560 +9847,560 @@
         <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AB5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>119</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" t="s">
-        <v>124</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q6" t="s">
+        <v>124</v>
+      </c>
+      <c r="V6" t="s">
         <v>126</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE6" t="s">
         <v>128</v>
       </c>
-      <c r="AB6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>130</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="B7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>132</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>133</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
         <v>134</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" t="s">
-        <v>136</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>201</v>
+      </c>
+      <c r="R7" t="s">
+        <v>205</v>
+      </c>
+      <c r="V7" t="s">
         <v>137</v>
       </c>
-      <c r="Q7" t="s">
-        <v>203</v>
-      </c>
-      <c r="R7" t="s">
-        <v>207</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="AA7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE7" t="s">
         <v>139</v>
       </c>
-      <c r="AA7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE7" t="s">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
         <v>141</v>
       </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="R8" t="s">
+        <v>212</v>
+      </c>
+      <c r="V8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
         <v>143</v>
       </c>
-      <c r="C8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" t="s">
-        <v>146</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="R8" t="s">
-        <v>214</v>
-      </c>
-      <c r="V8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>150</v>
+      <c r="G9" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R9" t="s">
+        <v>217</v>
+      </c>
+      <c r="V9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
         <v>152</v>
       </c>
-      <c r="C9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="R10" t="s">
         <v>219</v>
       </c>
-      <c r="V9" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>159</v>
+      <c r="V10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" t="s">
         <v>160</v>
       </c>
-      <c r="C10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" t="s">
-        <v>163</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="G11" t="s">
+        <v>169</v>
+      </c>
+      <c r="R11" t="s">
         <v>221</v>
       </c>
-      <c r="V10" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>167</v>
+      <c r="V11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" t="s">
         <v>168</v>
       </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" t="s">
-        <v>171</v>
-      </c>
-      <c r="R11" t="s">
-        <v>223</v>
-      </c>
-      <c r="V11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>174</v>
+      <c r="G12" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>202</v>
+      </c>
+      <c r="R12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>204</v>
-      </c>
-      <c r="R12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AB13" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" t="s">
+        <v>189</v>
+      </c>
+      <c r="R14" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB14" t="s">
         <v>246</v>
       </c>
-      <c r="AE13" t="s">
-        <v>188</v>
+      <c r="AE14" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" t="s">
-        <v>191</v>
-      </c>
-      <c r="R14" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
         <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AA15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AE15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
         <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>162</v>
+      </c>
+      <c r="R17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="Q18" t="s">
+        <v>170</v>
+      </c>
+      <c r="R18" t="s">
+        <v>254</v>
+      </c>
+      <c r="T18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="R19" t="s">
+        <v>226</v>
+      </c>
+      <c r="S19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="S20" t="s">
         <v>239</v>
       </c>
+      <c r="T20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>200</v>
+      </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q17" t="s">
-        <v>164</v>
-      </c>
-      <c r="R17" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>85</v>
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="S21" t="s">
+        <v>255</v>
+      </c>
+      <c r="T21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q18" t="s">
-        <v>172</v>
-      </c>
-      <c r="R18" t="s">
-        <v>256</v>
-      </c>
-      <c r="T18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="R19" t="s">
-        <v>228</v>
-      </c>
-      <c r="S19" t="s">
-        <v>234</v>
-      </c>
-      <c r="T19" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="S20" t="s">
-        <v>241</v>
-      </c>
-      <c r="T20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="S21" t="s">
-        <v>257</v>
-      </c>
-      <c r="T21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T22" t="s">
         <v>75</v>
       </c>
       <c r="AB22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AB23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AB25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>75</v>
       </c>
       <c r="Z27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AA27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AB27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
+        <v>183</v>
+      </c>
+      <c r="R28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA28" t="s">
         <v>185</v>
       </c>
-      <c r="R28" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>187</v>
-      </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AA29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="Q30" t="s">
+        <v>190</v>
+      </c>
+      <c r="R30" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB30" t="s">
         <v>84</v>
       </c>
-      <c r="AB29" t="s">
-        <v>258</v>
-      </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q30" t="s">
-        <v>192</v>
-      </c>
-      <c r="R30" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>85</v>
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="R31" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="R31" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>199</v>
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
+      <c r="Q32" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q32" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>156</v>
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
+      <c r="Z33" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
-      <c r="Z33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>75</v>
       </c>
@@ -10222,21 +10420,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -10350,30 +10533,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10387,4 +10562,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82203C27-A393-4968-A31A-03EB283E4220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74334AB6-C807-4A96-8D41-825FD8DEAE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="442">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -3755,6 +3755,9 @@
   </si>
   <si>
     <t>Number of birds accidentally captured at longline settings</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
   </si>
 </sst>
 </file>
@@ -4275,10 +4278,10 @@
   <dimension ref="A1:AX32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6248,7 +6251,7 @@
         <v>313</v>
       </c>
       <c r="AG16" t="s">
-        <v>71</v>
+        <v>441</v>
       </c>
       <c r="AH16" t="s">
         <v>162</v>
@@ -6382,7 +6385,7 @@
         <v>313</v>
       </c>
       <c r="AG17" t="s">
-        <v>71</v>
+        <v>441</v>
       </c>
       <c r="AH17" t="s">
         <v>162</v>
@@ -6519,7 +6522,7 @@
         <v>313</v>
       </c>
       <c r="AG18" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="AH18" t="s">
         <v>162</v>
@@ -6659,7 +6662,7 @@
         <v>313</v>
       </c>
       <c r="AG19" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="AH19" t="s">
         <v>162</v>
@@ -8336,7 +8339,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
@@ -8401,7 +8404,7 @@
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AG3:AG1048576</xm:sqref>
+          <xm:sqref>AG3:AG15 AG18:AG1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
@@ -8427,6 +8430,12 @@
           </x14:formula1>
           <xm:sqref>AV3:AV1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84FB6C9D-6663-48D4-B8D6-1FA5BD04B6AD}">
+          <x14:formula1>
+            <xm:f>Validation!$AG$3:$AG$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG16:AG17</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -8438,7 +8447,7 @@
   <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="AB2" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9017,6 +9026,9 @@
       </c>
       <c r="X10" t="s">
         <v>161</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>441</v>
       </c>
       <c r="AH10" t="s">
         <v>162</v>
@@ -10534,18 +10546,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10565,24 +10577,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74334AB6-C807-4A96-8D41-825FD8DEAE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E9693F-301F-4663-A70B-CC63F5641411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$50</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="459">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -3388,15 +3388,6 @@
     <t>Elasmobranch _ Fish _ Cephalopods _ Invertebrates</t>
   </si>
   <si>
-    <t>Trophic interactions and fisheries input</t>
-  </si>
-  <si>
-    <t>Production/ Biomass ratio</t>
-  </si>
-  <si>
-    <t>In an ecosystem heavily exploited by multispecies fisheries, the present management system base on TACs is not suitable for sustaining elasmobranch species.</t>
-  </si>
-  <si>
     <t>SW4_0481</t>
   </si>
   <si>
@@ -3670,9 +3661,6 @@
     <t>Catch rate</t>
   </si>
   <si>
-    <t>Increasing trends in the abundance indices during the last 5 years of time series, possibly due to the reduction of trawl fishery.</t>
-  </si>
-  <si>
     <t>40-70mm, targeting herring, perch or garfish.</t>
   </si>
   <si>
@@ -3758,6 +3746,91 @@
   </si>
   <si>
     <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>Mixed trophic impact</t>
+  </si>
+  <si>
+    <t>The trawl fishery has a very negative effect, at a higher level than for small sharks, as is the case of the gillnet fishery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most important negative impact on catshark is that produced by the commercial trawl fishery and, to a lesser extent, by the longline fishery; these are the main causes of its total mortality. </t>
+  </si>
+  <si>
+    <t>Closed area</t>
+  </si>
+  <si>
+    <t>The main fish species groups that gain benefit from the trawl exclusion
+are elasmobranchs (catshark and rays), small demersal fish (e.g. Pagellus, Boops), benthic fish (mullet, gurnards and great weever). Also, benthic cephalopods (octopus and white octopus) and other invertebrates (sea urchins) groups show major increases in the level of biomass in the Llanes closed area after closure to trawl operations.</t>
+  </si>
+  <si>
+    <t>Echinoidea</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pagellus _ Boops _ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Triglidae</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> _ Trachinus draco</t>
+    </r>
+  </si>
+  <si>
+    <t>Octopoda</t>
+  </si>
+  <si>
+    <t>Fishing effort</t>
+  </si>
+  <si>
+    <t>Time series analysis</t>
+  </si>
+  <si>
+    <t>Survey biomass index</t>
+  </si>
+  <si>
+    <t>Rays and catshark (large-bodied species with low rates of turn-over), anglerfish, megrim (trawl catch only), hake (strong trawl effect on juveniles), benthic cephalopods and large demersal fish are the main trophic groups, which increased their biomass when trawl fishing decreased.</t>
+  </si>
+  <si>
+    <t>Relative biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horse mackerel, small demersal fish, sardine and anchovy (populations with high rates of turnover and planktophagous food preferences) are not affected by the different values of trawl regimes. </t>
+  </si>
+  <si>
+    <t>Rays and catshark (large-bodied species with low rates of turn-over), anglerfish, megrim (trawl catch only), hake (strong trawl effect on juveniles), benthic cephalopods and large demersal fish are the main trophic groups, which increased their biomass when trawl fishing decreased. Small demersal fish are not affected by the different values of trawl regimes.</t>
+  </si>
+  <si>
+    <t>Trachurus trachurus _ Sardina pilchardus _ Engraulis encrasicolus</t>
+  </si>
+  <si>
+    <t>Lepidorhombus whiffiagonis</t>
+  </si>
+  <si>
+    <t>Lepidorhombus whiffiagonis _ Merluccius merluccius _ Lophius</t>
+  </si>
+  <si>
+    <t>in a closed area, the biomass levels of rays, catshark, large demersal fish, benthic fish, small demersal fish and benthic cephalopods are higher than in adjacent areas</t>
+  </si>
+  <si>
+    <t>Micromesistius poutassou _ Sardina pilchardus _ Engraulis encrasicolus</t>
+  </si>
+  <si>
+    <t>Biomass of species and species groups</t>
   </si>
 </sst>
 </file>
@@ -4275,13 +4348,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX32"/>
+  <dimension ref="A1:AX52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="AK19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG19" sqref="AG19"/>
+      <selection pane="bottomRight" activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4577,7 +4650,7 @@
         <v>70</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -4607,7 +4680,7 @@
         <v>75</v>
       </c>
       <c r="AL3" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AM3" t="s">
         <v>76</v>
@@ -4616,7 +4689,7 @@
         <v>77</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AQ3" t="s">
         <v>78</v>
@@ -4628,7 +4701,7 @@
         <v>80</v>
       </c>
       <c r="AU3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AV3" t="s">
         <v>81</v>
@@ -4637,7 +4710,7 @@
         <v>82</v>
       </c>
       <c r="AX3" s="13" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
@@ -4696,7 +4769,7 @@
         <v>70</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -4726,7 +4799,7 @@
         <v>75</v>
       </c>
       <c r="AL4" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AM4" t="s">
         <v>76</v>
@@ -4735,7 +4808,7 @@
         <v>77</v>
       </c>
       <c r="AO4" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AQ4" t="s">
         <v>78</v>
@@ -4747,7 +4820,7 @@
         <v>84</v>
       </c>
       <c r="AU4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AV4" t="s">
         <v>81</v>
@@ -4756,7 +4829,7 @@
         <v>129</v>
       </c>
       <c r="AX4" s="13" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
@@ -4815,7 +4888,7 @@
         <v>70</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -4845,7 +4918,7 @@
         <v>75</v>
       </c>
       <c r="AL5" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AM5" t="s">
         <v>76</v>
@@ -4854,7 +4927,7 @@
         <v>77</v>
       </c>
       <c r="AO5" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AQ5" t="s">
         <v>78</v>
@@ -4866,7 +4939,7 @@
         <v>80</v>
       </c>
       <c r="AU5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AV5" t="s">
         <v>81</v>
@@ -4875,7 +4948,7 @@
         <v>82</v>
       </c>
       <c r="AX5" s="13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
@@ -4934,7 +5007,7 @@
         <v>70</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -4964,7 +5037,7 @@
         <v>75</v>
       </c>
       <c r="AL6" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AM6" t="s">
         <v>76</v>
@@ -4973,7 +5046,7 @@
         <v>77</v>
       </c>
       <c r="AO6" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AQ6" t="s">
         <v>78</v>
@@ -4985,7 +5058,7 @@
         <v>84</v>
       </c>
       <c r="AU6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AV6" t="s">
         <v>81</v>
@@ -4994,7 +5067,7 @@
         <v>129</v>
       </c>
       <c r="AX6" s="13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
@@ -5061,7 +5134,7 @@
         <v>154</v>
       </c>
       <c r="Y7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Z7" s="11" t="s">
         <v>257</v>
@@ -5076,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="AE7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AF7" t="s">
         <v>313</v>
@@ -5103,7 +5176,7 @@
         <v>77</v>
       </c>
       <c r="AO7" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AQ7" t="s">
         <v>78</v>
@@ -5115,7 +5188,7 @@
         <v>247</v>
       </c>
       <c r="AU7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AV7" t="s">
         <v>81</v>
@@ -5191,7 +5264,7 @@
         <v>154</v>
       </c>
       <c r="Y8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Z8" s="11" t="s">
         <v>257</v>
@@ -5206,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="AE8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AF8" t="s">
         <v>313</v>
@@ -5233,7 +5306,7 @@
         <v>77</v>
       </c>
       <c r="AO8" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AQ8" t="s">
         <v>78</v>
@@ -5245,7 +5318,7 @@
         <v>238</v>
       </c>
       <c r="AU8" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AV8" t="s">
         <v>81</v>
@@ -5364,7 +5437,7 @@
         <v>195</v>
       </c>
       <c r="AO9" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AQ9" t="s">
         <v>78</v>
@@ -5379,7 +5452,7 @@
         <v>272</v>
       </c>
       <c r="AU9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AV9" t="s">
         <v>109</v>
@@ -5462,7 +5535,7 @@
         <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Z10" s="11" t="s">
         <v>270</v>
@@ -5501,7 +5574,7 @@
         <v>195</v>
       </c>
       <c r="AO10" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AQ10" t="s">
         <v>78</v>
@@ -5611,7 +5684,7 @@
         <v>3</v>
       </c>
       <c r="AE11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AF11" t="s">
         <v>313</v>
@@ -5635,7 +5708,7 @@
         <v>77</v>
       </c>
       <c r="AO11" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AQ11" t="s">
         <v>78</v>
@@ -5647,7 +5720,7 @@
         <v>238</v>
       </c>
       <c r="AU11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AV11" t="s">
         <v>81</v>
@@ -5778,7 +5851,7 @@
         <v>80</v>
       </c>
       <c r="AU12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AV12" t="s">
         <v>81</v>
@@ -5867,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="AF13" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AG13" t="s">
         <v>71</v>
@@ -5903,16 +5976,16 @@
         <v>80</v>
       </c>
       <c r="AU13" t="s">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="AV13" t="s">
         <v>100</v>
       </c>
       <c r="AW13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX13" s="13" t="s">
-        <v>412</v>
+        <v>110</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
@@ -5992,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="AF14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AG14" t="s">
         <v>71</v>
@@ -6001,13 +6074,13 @@
         <v>146</v>
       </c>
       <c r="AI14" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AK14" t="s">
         <v>125</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AM14" t="s">
         <v>76</v>
@@ -6022,22 +6095,22 @@
         <v>78</v>
       </c>
       <c r="AR14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AS14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AU14" t="s">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="AV14" t="s">
         <v>100</v>
       </c>
       <c r="AW14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX14" s="13" t="s">
-        <v>412</v>
+        <v>110</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
@@ -6099,7 +6172,7 @@
         <v>68</v>
       </c>
       <c r="U15" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="X15" t="s">
         <v>122</v>
@@ -6117,19 +6190,22 @@
         <v>1</v>
       </c>
       <c r="AF15" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AG15" t="s">
         <v>71</v>
       </c>
       <c r="AH15" t="s">
-        <v>194</v>
+        <v>146</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>218</v>
       </c>
       <c r="AK15" t="s">
         <v>125</v>
       </c>
-      <c r="AL15" s="11" t="s">
-        <v>317</v>
+      <c r="AL15" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="AM15" t="s">
         <v>76</v>
@@ -6138,7 +6214,7 @@
         <v>77</v>
       </c>
       <c r="AO15" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AQ15" t="s">
         <v>78</v>
@@ -6150,57 +6226,57 @@
         <v>80</v>
       </c>
       <c r="AU15" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="AV15" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AW15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX15" s="13" t="s">
-        <v>320</v>
+        <v>110</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E16">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="F16" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G16" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="H16" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="I16" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="J16" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="K16" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="L16" t="s">
         <v>265</v>
       </c>
       <c r="M16" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="N16" t="s">
         <v>64</v>
@@ -6209,34 +6285,25 @@
         <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q16" t="s">
         <v>66</v>
       </c>
       <c r="S16" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T16" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="U16" t="s">
-        <v>168</v>
-      </c>
-      <c r="V16" t="s">
-        <v>167</v>
-      </c>
-      <c r="W16" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="X16" t="s">
         <v>122</v>
       </c>
-      <c r="Y16" t="s">
-        <v>333</v>
-      </c>
       <c r="Z16" s="11" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6245,25 +6312,25 @@
         <v>2</v>
       </c>
       <c r="AC16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG16" t="s">
-        <v>441</v>
+        <v>71</v>
       </c>
       <c r="AH16" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="AI16" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="AK16" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AL16" s="12" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="AM16" t="s">
         <v>76</v>
@@ -6272,19 +6339,19 @@
         <v>77</v>
       </c>
       <c r="AO16" s="11" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="AQ16" t="s">
         <v>78</v>
       </c>
       <c r="AR16" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="AS16" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="AU16" t="s">
-        <v>337</v>
+        <v>438</v>
       </c>
       <c r="AV16" t="s">
         <v>100</v>
@@ -6292,49 +6359,49 @@
       <c r="AW16" t="s">
         <v>110</v>
       </c>
-      <c r="AX16" s="13" t="s">
-        <v>432</v>
+      <c r="AX16" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E17">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="F17" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G17" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="H17" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="I17" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="J17" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="K17" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="L17" t="s">
         <v>265</v>
       </c>
       <c r="M17" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="N17" t="s">
         <v>64</v>
@@ -6343,34 +6410,25 @@
         <v>65</v>
       </c>
       <c r="P17" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q17" t="s">
         <v>66</v>
       </c>
       <c r="S17" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T17" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="U17" t="s">
-        <v>168</v>
-      </c>
-      <c r="V17" t="s">
-        <v>167</v>
-      </c>
-      <c r="W17" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="X17" t="s">
         <v>122</v>
       </c>
-      <c r="Y17" t="s">
-        <v>333</v>
-      </c>
       <c r="Z17" s="11" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6379,25 +6437,25 @@
         <v>2</v>
       </c>
       <c r="AC17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG17" t="s">
-        <v>441</v>
+        <v>71</v>
       </c>
       <c r="AH17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="AI17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AK17" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AL17" s="12" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="AM17" t="s">
         <v>76</v>
@@ -6406,19 +6464,13 @@
         <v>77</v>
       </c>
       <c r="AO17" s="11" t="s">
-        <v>335</v>
+        <v>446</v>
       </c>
       <c r="AQ17" t="s">
         <v>78</v>
       </c>
-      <c r="AR17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>85</v>
-      </c>
       <c r="AU17" t="s">
-        <v>337</v>
+        <v>450</v>
       </c>
       <c r="AV17" t="s">
         <v>100</v>
@@ -6426,49 +6478,49 @@
       <c r="AW17" t="s">
         <v>110</v>
       </c>
-      <c r="AX17" s="13" t="s">
-        <v>432</v>
+      <c r="AX17" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E18">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="F18" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G18" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="H18" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="I18" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="J18" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="K18" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="L18" t="s">
         <v>265</v>
       </c>
       <c r="M18" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="N18" t="s">
         <v>64</v>
@@ -6477,34 +6529,25 @@
         <v>65</v>
       </c>
       <c r="P18" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q18" t="s">
         <v>66</v>
       </c>
       <c r="S18" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T18" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="U18" t="s">
-        <v>133</v>
-      </c>
-      <c r="V18" t="s">
-        <v>167</v>
-      </c>
-      <c r="W18" t="s">
-        <v>114</v>
-      </c>
-      <c r="X18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="X18" t="s">
         <v>122</v>
       </c>
-      <c r="Y18" t="s">
-        <v>331</v>
-      </c>
       <c r="Z18" s="11" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6513,28 +6556,25 @@
         <v>2</v>
       </c>
       <c r="AC18">
-        <v>3</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>339</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG18" t="s">
         <v>71</v>
       </c>
       <c r="AH18" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="AI18" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="AK18" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AL18" s="12" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="AM18" t="s">
         <v>76</v>
@@ -6543,72 +6583,63 @@
         <v>77</v>
       </c>
       <c r="AO18" s="11" t="s">
-        <v>336</v>
+        <v>446</v>
       </c>
       <c r="AQ18" t="s">
         <v>78</v>
       </c>
-      <c r="AR18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>341</v>
-      </c>
       <c r="AU18" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="AV18" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AW18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX18" s="13" t="s">
-        <v>338</v>
+        <v>110</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E19">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="F19" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G19" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="H19" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="I19" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="J19" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="K19" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="L19" t="s">
         <v>265</v>
       </c>
       <c r="M19" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="N19" t="s">
         <v>64</v>
@@ -6617,34 +6648,25 @@
         <v>65</v>
       </c>
       <c r="P19" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
       </c>
       <c r="S19" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T19" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="U19" t="s">
-        <v>133</v>
-      </c>
-      <c r="V19" t="s">
-        <v>167</v>
-      </c>
-      <c r="W19" t="s">
-        <v>105</v>
-      </c>
-      <c r="X19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="X19" t="s">
         <v>122</v>
       </c>
-      <c r="Y19" t="s">
-        <v>331</v>
-      </c>
       <c r="Z19" s="11" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -6653,102 +6675,87 @@
         <v>2</v>
       </c>
       <c r="AC19">
-        <v>3</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>339</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG19" t="s">
         <v>71</v>
       </c>
       <c r="AH19" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="AI19" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AK19" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="AL19" s="12" t="s">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="AM19" t="s">
         <v>76</v>
       </c>
-      <c r="AN19" t="s">
-        <v>77</v>
-      </c>
       <c r="AO19" s="11" t="s">
-        <v>336</v>
+        <v>446</v>
       </c>
       <c r="AQ19" t="s">
         <v>78</v>
       </c>
-      <c r="AR19" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>340</v>
-      </c>
       <c r="AU19" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="AV19" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AW19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX19" s="13" t="s">
-        <v>338</v>
+        <v>129</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>344</v>
+        <v>303</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="E20">
-        <v>2021</v>
+        <v>2005</v>
       </c>
       <c r="F20" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G20" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="H20" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="I20" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="J20" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="K20" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="L20" t="s">
         <v>265</v>
       </c>
       <c r="M20" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N20" t="s">
         <v>64</v>
@@ -6757,28 +6764,25 @@
         <v>65</v>
       </c>
       <c r="P20" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q20" t="s">
         <v>66</v>
       </c>
       <c r="S20" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="T20" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="U20" t="s">
-        <v>160</v>
-      </c>
-      <c r="W20" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="X20" t="s">
         <v>122</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -6786,94 +6790,88 @@
       <c r="AB20">
         <v>2</v>
       </c>
-      <c r="AC20" s="15">
-        <v>3</v>
+      <c r="AC20">
+        <v>1</v>
       </c>
       <c r="AF20" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG20" t="s">
         <v>71</v>
       </c>
       <c r="AH20" t="s">
-        <v>124</v>
+        <v>136</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>125</v>
       </c>
       <c r="AL20" s="12" t="s">
-        <v>351</v>
+        <v>453</v>
       </c>
       <c r="AM20" t="s">
         <v>76</v>
       </c>
-      <c r="AN20" t="s">
-        <v>77</v>
-      </c>
       <c r="AO20" s="11" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="AQ20" t="s">
         <v>78</v>
       </c>
-      <c r="AR20" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>413</v>
-      </c>
       <c r="AU20" t="s">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AV20" t="s">
         <v>100</v>
       </c>
       <c r="AW20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX20" s="13" t="s">
-        <v>417</v>
+        <v>118</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>344</v>
+        <v>303</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="E21">
-        <v>2021</v>
+        <v>2005</v>
       </c>
       <c r="F21" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G21" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="H21" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="I21" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="J21" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="K21" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="L21" t="s">
         <v>265</v>
       </c>
       <c r="M21" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N21" t="s">
         <v>64</v>
@@ -6882,28 +6880,25 @@
         <v>65</v>
       </c>
       <c r="P21" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q21" t="s">
         <v>66</v>
       </c>
       <c r="S21" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="T21" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="U21" t="s">
-        <v>160</v>
-      </c>
-      <c r="W21" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="X21" t="s">
         <v>122</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6911,94 +6906,86 @@
       <c r="AB21">
         <v>2</v>
       </c>
-      <c r="AC21" s="15">
-        <v>3</v>
+      <c r="AC21">
+        <v>1</v>
       </c>
       <c r="AF21" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG21" t="s">
         <v>71</v>
       </c>
       <c r="AH21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL21" s="12" t="s">
-        <v>351</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL21" s="12"/>
       <c r="AM21" t="s">
         <v>76</v>
       </c>
-      <c r="AN21" t="s">
-        <v>77</v>
-      </c>
       <c r="AO21" s="11" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="AQ21" t="s">
         <v>78</v>
       </c>
-      <c r="AR21" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>414</v>
-      </c>
       <c r="AU21" t="s">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AV21" t="s">
         <v>100</v>
       </c>
       <c r="AW21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX21" s="13" t="s">
-        <v>418</v>
+        <v>118</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>344</v>
+        <v>303</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="E22">
-        <v>2021</v>
+        <v>2005</v>
       </c>
       <c r="F22" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G22" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="H22" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="I22" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="J22" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="K22" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="L22" t="s">
         <v>265</v>
       </c>
       <c r="M22" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N22" t="s">
         <v>64</v>
@@ -7007,28 +6994,25 @@
         <v>65</v>
       </c>
       <c r="P22" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q22" t="s">
         <v>66</v>
       </c>
       <c r="S22" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="T22" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="U22" t="s">
-        <v>160</v>
-      </c>
-      <c r="W22" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="X22" t="s">
         <v>122</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7036,20 +7020,26 @@
       <c r="AB22">
         <v>2</v>
       </c>
-      <c r="AC22" s="15">
-        <v>3</v>
+      <c r="AC22">
+        <v>1</v>
       </c>
       <c r="AF22" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG22" t="s">
         <v>71</v>
       </c>
       <c r="AH22" t="s">
-        <v>124</v>
+        <v>146</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>125</v>
       </c>
       <c r="AL22" s="12" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="AM22" t="s">
         <v>76</v>
@@ -7058,72 +7048,63 @@
         <v>77</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>352</v>
+        <v>441</v>
       </c>
       <c r="AQ22" t="s">
         <v>78</v>
       </c>
-      <c r="AR22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>415</v>
-      </c>
       <c r="AU22" t="s">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AV22" t="s">
         <v>100</v>
       </c>
       <c r="AW22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX22" s="13" t="s">
-        <v>353</v>
+        <v>110</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>344</v>
+        <v>303</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="E23">
-        <v>2021</v>
+        <v>2005</v>
       </c>
       <c r="F23" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G23" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="H23" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="I23" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="J23" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="K23" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="L23" t="s">
         <v>265</v>
       </c>
       <c r="M23" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N23" t="s">
         <v>64</v>
@@ -7132,28 +7113,25 @@
         <v>65</v>
       </c>
       <c r="P23" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q23" t="s">
         <v>66</v>
       </c>
       <c r="S23" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="T23" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="U23" t="s">
-        <v>160</v>
-      </c>
-      <c r="W23" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="X23" t="s">
         <v>122</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7161,20 +7139,26 @@
       <c r="AB23">
         <v>2</v>
       </c>
-      <c r="AC23" s="15">
-        <v>3</v>
+      <c r="AC23">
+        <v>1</v>
       </c>
       <c r="AF23" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG23" t="s">
         <v>71</v>
       </c>
       <c r="AH23" t="s">
-        <v>124</v>
+        <v>146</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>125</v>
       </c>
       <c r="AL23" s="12" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="AM23" t="s">
         <v>76</v>
@@ -7183,72 +7167,63 @@
         <v>77</v>
       </c>
       <c r="AO23" s="11" t="s">
-        <v>352</v>
+        <v>441</v>
       </c>
       <c r="AQ23" t="s">
         <v>78</v>
       </c>
-      <c r="AR23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>416</v>
-      </c>
       <c r="AU23" t="s">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AV23" t="s">
         <v>100</v>
       </c>
       <c r="AW23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX23" s="13" t="s">
-        <v>419</v>
+        <v>110</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="E24">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="F24" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G24" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="H24" t="s">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="I24" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="J24" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="K24" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="L24" t="s">
         <v>265</v>
       </c>
       <c r="M24" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="N24" t="s">
         <v>64</v>
@@ -7257,112 +7232,112 @@
         <v>65</v>
       </c>
       <c r="P24" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q24" t="s">
         <v>66</v>
       </c>
       <c r="S24" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T24" t="s">
         <v>68</v>
       </c>
       <c r="U24" t="s">
-        <v>160</v>
-      </c>
-      <c r="W24" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="X24" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>428</v>
+        <v>312</v>
+      </c>
+      <c r="AA24">
+        <v>2</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
       </c>
       <c r="AF24" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG24" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AH24" t="s">
         <v>136</v>
       </c>
       <c r="AI24" t="s">
         <v>217</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>125</v>
       </c>
       <c r="AL24" s="12"/>
       <c r="AM24" t="s">
         <v>76</v>
       </c>
-      <c r="AN24" t="s">
-        <v>199</v>
-      </c>
       <c r="AO24" s="11" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AQ24" t="s">
         <v>78</v>
       </c>
-      <c r="AR24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>80</v>
-      </c>
       <c r="AU24" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="AV24" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="AW24" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX24" s="13" t="s">
-        <v>369</v>
+        <v>82</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="E25">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="F25" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G25" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="H25" t="s">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="I25" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="J25" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="K25" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="L25" t="s">
         <v>265</v>
       </c>
       <c r="M25" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="N25" t="s">
         <v>64</v>
@@ -7371,114 +7346,109 @@
         <v>65</v>
       </c>
       <c r="P25" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q25" t="s">
         <v>66</v>
       </c>
       <c r="S25" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T25" t="s">
         <v>68</v>
       </c>
       <c r="U25" t="s">
-        <v>160</v>
-      </c>
-      <c r="W25" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="X25" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>428</v>
+        <v>447</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
       </c>
       <c r="AF25" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG25" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AH25" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL25" s="12" t="s">
-        <v>365</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL25" s="11"/>
       <c r="AM25" t="s">
         <v>76</v>
       </c>
-      <c r="AN25" t="s">
-        <v>199</v>
-      </c>
       <c r="AO25" s="11" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AQ25" t="s">
         <v>78</v>
       </c>
-      <c r="AR25" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>80</v>
-      </c>
       <c r="AU25" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="AV25" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="AW25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX25" s="13" t="s">
-        <v>368</v>
+        <v>82</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="E26">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="F26" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G26" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="H26" t="s">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="I26" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="J26" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="K26" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="L26" t="s">
         <v>265</v>
       </c>
       <c r="M26" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="N26" t="s">
         <v>64</v>
@@ -7487,111 +7457,114 @@
         <v>65</v>
       </c>
       <c r="P26" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q26" t="s">
         <v>66</v>
       </c>
       <c r="S26" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T26" t="s">
         <v>68</v>
       </c>
       <c r="U26" t="s">
-        <v>160</v>
-      </c>
-      <c r="W26" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="X26" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>428</v>
+        <v>447</v>
+      </c>
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
       </c>
       <c r="AF26" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG26" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AH26" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL26" s="11" t="s">
-        <v>424</v>
+        <v>136</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL26" s="12" t="s">
+        <v>457</v>
       </c>
       <c r="AM26" t="s">
         <v>76</v>
       </c>
-      <c r="AN26" t="s">
-        <v>199</v>
-      </c>
       <c r="AO26" s="11" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AQ26" t="s">
         <v>78</v>
       </c>
-      <c r="AR26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>80</v>
-      </c>
       <c r="AU26" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="AV26" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="AW26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX26" s="13" t="s">
-        <v>425</v>
+        <v>110</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="E27">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="F27" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G27" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="H27" t="s">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="I27" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="J27" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="K27" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="L27" t="s">
         <v>265</v>
       </c>
       <c r="M27" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="N27" t="s">
         <v>64</v>
@@ -7600,117 +7573,114 @@
         <v>65</v>
       </c>
       <c r="P27" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q27" t="s">
         <v>66</v>
       </c>
       <c r="S27" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T27" t="s">
         <v>68</v>
       </c>
       <c r="U27" t="s">
-        <v>160</v>
-      </c>
-      <c r="W27" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="X27" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>428</v>
+        <v>447</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
       </c>
       <c r="AF27" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG27" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AH27" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AI27" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL27" s="11" t="s">
-        <v>366</v>
+        <v>205</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL27" s="12" t="s">
+        <v>454</v>
       </c>
       <c r="AM27" t="s">
         <v>76</v>
       </c>
-      <c r="AN27" t="s">
-        <v>199</v>
-      </c>
       <c r="AO27" s="11" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AQ27" t="s">
         <v>78</v>
       </c>
-      <c r="AR27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>80</v>
-      </c>
       <c r="AU27" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="AV27" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="AW27" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AX27" t="s">
-        <v>367</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>372</v>
+        <v>303</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="E28">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="F28" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="G28" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="H28" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="I28" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="J28" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="K28" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="L28" t="s">
         <v>265</v>
       </c>
       <c r="M28" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="N28" t="s">
         <v>64</v>
@@ -7719,13 +7689,13 @@
         <v>65</v>
       </c>
       <c r="P28" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="Q28" t="s">
         <v>66</v>
       </c>
       <c r="S28" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="T28" t="s">
         <v>68</v>
@@ -7734,28 +7704,37 @@
         <v>69</v>
       </c>
       <c r="X28" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>427</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>388</v>
+        <v>70</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
       </c>
       <c r="AF28" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG28" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="AH28" t="s">
-        <v>124</v>
+        <v>146</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>206</v>
       </c>
       <c r="AK28" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AL28" s="12" t="s">
-        <v>389</v>
+        <v>314</v>
       </c>
       <c r="AM28" t="s">
         <v>76</v>
@@ -7764,69 +7743,63 @@
         <v>77</v>
       </c>
       <c r="AO28" s="11" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="AQ28" t="s">
         <v>78</v>
       </c>
-      <c r="AR28" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>84</v>
-      </c>
       <c r="AU28" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="AV28" t="s">
         <v>100</v>
       </c>
       <c r="AW28" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX28" s="13" t="s">
-        <v>392</v>
+        <v>82</v>
+      </c>
+      <c r="AX28" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="E29">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="F29" t="s">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="G29" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="H29" t="s">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="K29" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s">
         <v>265</v>
       </c>
       <c r="M29" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="N29" t="s">
         <v>64</v>
@@ -7835,31 +7808,25 @@
         <v>65</v>
       </c>
       <c r="P29" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="Q29" t="s">
         <v>66</v>
       </c>
       <c r="S29" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T29" t="s">
         <v>68</v>
       </c>
       <c r="U29" t="s">
-        <v>175</v>
-      </c>
-      <c r="V29" t="s">
-        <v>142</v>
-      </c>
-      <c r="W29" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="X29" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>396</v>
+        <v>70</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>447</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -7868,96 +7835,90 @@
         <v>2</v>
       </c>
       <c r="AC29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF29" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG29" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="AH29" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AI29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK29" t="s">
         <v>125</v>
       </c>
       <c r="AL29" s="12" t="s">
-        <v>398</v>
+        <v>316</v>
       </c>
       <c r="AM29" t="s">
         <v>76</v>
       </c>
       <c r="AN29" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="AQ29" t="s">
         <v>78</v>
       </c>
-      <c r="AR29" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>395</v>
-      </c>
       <c r="AU29" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="AV29" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW29" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW29" t="s">
         <v>82</v>
       </c>
-      <c r="AX29" s="13" t="s">
-        <v>403</v>
+      <c r="AX29" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="E30">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="F30" t="s">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="G30" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="K30" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s">
         <v>265</v>
       </c>
       <c r="M30" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="N30" t="s">
         <v>64</v>
@@ -7966,31 +7927,25 @@
         <v>65</v>
       </c>
       <c r="P30" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="Q30" t="s">
         <v>66</v>
       </c>
       <c r="S30" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T30" t="s">
         <v>68</v>
       </c>
       <c r="U30" t="s">
-        <v>175</v>
-      </c>
-      <c r="V30" t="s">
-        <v>142</v>
-      </c>
-      <c r="W30" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="X30" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>396</v>
+        <v>70</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>447</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -7999,13 +7954,13 @@
         <v>2</v>
       </c>
       <c r="AC30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF30" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG30" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="AH30" t="s">
         <v>136</v>
@@ -8017,81 +7972,69 @@
         <v>125</v>
       </c>
       <c r="AL30" s="12" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="AM30" t="s">
         <v>76</v>
       </c>
-      <c r="AN30" t="s">
-        <v>195</v>
-      </c>
       <c r="AO30" s="11" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="AQ30" t="s">
         <v>78</v>
       </c>
-      <c r="AR30" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>405</v>
-      </c>
       <c r="AU30" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="AV30" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW30" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX30" s="13" t="s">
-        <v>402</v>
+        <v>100</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX30" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="E31">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="F31" t="s">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="G31" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="H31" t="s">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="K31" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s">
         <v>265</v>
       </c>
       <c r="M31" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="N31" t="s">
         <v>64</v>
@@ -8100,31 +8043,25 @@
         <v>65</v>
       </c>
       <c r="P31" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="Q31" t="s">
         <v>66</v>
       </c>
       <c r="S31" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T31" t="s">
         <v>68</v>
       </c>
       <c r="U31" t="s">
-        <v>175</v>
-      </c>
-      <c r="V31" t="s">
-        <v>142</v>
-      </c>
-      <c r="W31" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="X31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>396</v>
+        <v>70</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>447</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8133,13 +8070,13 @@
         <v>2</v>
       </c>
       <c r="AC31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG31" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="AH31" t="s">
         <v>155</v>
@@ -8147,79 +8084,70 @@
       <c r="AK31" t="s">
         <v>125</v>
       </c>
-      <c r="AL31" s="12" t="s">
-        <v>399</v>
+      <c r="AL31" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="AM31" t="s">
         <v>76</v>
       </c>
-      <c r="AN31" t="s">
-        <v>195</v>
-      </c>
       <c r="AO31" s="11" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="AQ31" t="s">
         <v>78</v>
       </c>
-      <c r="AR31" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>395</v>
-      </c>
       <c r="AU31" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="AV31" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW31" t="s">
         <v>82</v>
       </c>
-      <c r="AX31" t="s">
-        <v>400</v>
+      <c r="AX31" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="E32">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="F32" t="s">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="G32" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="H32" t="s">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
         <v>265</v>
       </c>
       <c r="M32" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="N32" t="s">
         <v>64</v>
@@ -8228,31 +8156,25 @@
         <v>65</v>
       </c>
       <c r="P32" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="Q32" t="s">
         <v>66</v>
       </c>
       <c r="S32" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="T32" t="s">
         <v>68</v>
       </c>
       <c r="U32" t="s">
-        <v>175</v>
-      </c>
-      <c r="V32" t="s">
-        <v>142</v>
-      </c>
-      <c r="W32" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="X32" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>396</v>
+        <v>70</v>
+      </c>
+      <c r="Z32" s="11" t="s">
+        <v>447</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8261,56 +8183,2323 @@
         <v>2</v>
       </c>
       <c r="AC32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF32" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
       <c r="AG32" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="AH32" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>154</v>
       </c>
       <c r="AK32" t="s">
         <v>125</v>
       </c>
-      <c r="AL32" s="12" t="s">
-        <v>399</v>
+      <c r="AL32" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="AM32" t="s">
         <v>76</v>
       </c>
       <c r="AN32" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AO32" s="11" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="AQ32" t="s">
         <v>78</v>
       </c>
-      <c r="AR32" t="s">
+      <c r="AU32" t="s">
+        <v>448</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX32" s="18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E33">
+        <v>2005</v>
+      </c>
+      <c r="F33" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" t="s">
+        <v>306</v>
+      </c>
+      <c r="H33" t="s">
+        <v>265</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" t="s">
+        <v>310</v>
+      </c>
+      <c r="N33" t="s">
+        <v>64</v>
+      </c>
+      <c r="O33" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>66</v>
+      </c>
+      <c r="S33" t="s">
+        <v>112</v>
+      </c>
+      <c r="T33" t="s">
+        <v>68</v>
+      </c>
+      <c r="U33" t="s">
+        <v>181</v>
+      </c>
+      <c r="X33" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL33" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO33" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>458</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX33" s="13"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>318</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34">
+        <v>2017</v>
+      </c>
+      <c r="F34" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" t="s">
+        <v>322</v>
+      </c>
+      <c r="H34" t="s">
+        <v>323</v>
+      </c>
+      <c r="I34" t="s">
+        <v>324</v>
+      </c>
+      <c r="J34" t="s">
+        <v>325</v>
+      </c>
+      <c r="K34" t="s">
+        <v>326</v>
+      </c>
+      <c r="L34" t="s">
+        <v>265</v>
+      </c>
+      <c r="M34" t="s">
+        <v>327</v>
+      </c>
+      <c r="N34" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>66</v>
+      </c>
+      <c r="S34" t="s">
+        <v>67</v>
+      </c>
+      <c r="T34" t="s">
+        <v>167</v>
+      </c>
+      <c r="U34" t="s">
+        <v>168</v>
+      </c>
+      <c r="V34" t="s">
+        <v>167</v>
+      </c>
+      <c r="W34" t="s">
+        <v>152</v>
+      </c>
+      <c r="X34" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z34" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA34">
+        <v>2</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL34" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO34" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR34" t="s">
         <v>83</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AS34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>334</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX34" s="13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35">
+        <v>2017</v>
+      </c>
+      <c r="F35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" t="s">
+        <v>322</v>
+      </c>
+      <c r="H35" t="s">
+        <v>323</v>
+      </c>
+      <c r="I35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" t="s">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s">
+        <v>265</v>
+      </c>
+      <c r="M35" t="s">
+        <v>327</v>
+      </c>
+      <c r="N35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>66</v>
+      </c>
+      <c r="S35" t="s">
+        <v>67</v>
+      </c>
+      <c r="T35" t="s">
+        <v>167</v>
+      </c>
+      <c r="U35" t="s">
+        <v>168</v>
+      </c>
+      <c r="V35" t="s">
+        <v>167</v>
+      </c>
+      <c r="W35" t="s">
+        <v>152</v>
+      </c>
+      <c r="X35" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z35" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA35">
+        <v>2</v>
+      </c>
+      <c r="AB35">
+        <v>2</v>
+      </c>
+      <c r="AC35">
+        <v>3</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL35" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO35" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS35" t="s">
         <v>85</v>
       </c>
-      <c r="AT32" t="s">
+      <c r="AU35" t="s">
+        <v>334</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX35" s="13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36">
+        <v>2017</v>
+      </c>
+      <c r="F36" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" t="s">
+        <v>322</v>
+      </c>
+      <c r="H36" t="s">
+        <v>323</v>
+      </c>
+      <c r="I36" t="s">
+        <v>324</v>
+      </c>
+      <c r="J36" t="s">
+        <v>325</v>
+      </c>
+      <c r="K36" t="s">
+        <v>326</v>
+      </c>
+      <c r="L36" t="s">
+        <v>265</v>
+      </c>
+      <c r="M36" t="s">
+        <v>327</v>
+      </c>
+      <c r="N36" t="s">
+        <v>64</v>
+      </c>
+      <c r="O36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>66</v>
+      </c>
+      <c r="S36" t="s">
+        <v>67</v>
+      </c>
+      <c r="T36" t="s">
+        <v>167</v>
+      </c>
+      <c r="U36" t="s">
+        <v>133</v>
+      </c>
+      <c r="V36" t="s">
+        <v>167</v>
+      </c>
+      <c r="W36" t="s">
+        <v>114</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z36" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+      <c r="AC36">
+        <v>3</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL36" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO36" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>338</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>427</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX36" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E37">
+        <v>2017</v>
+      </c>
+      <c r="F37" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>322</v>
+      </c>
+      <c r="H37" t="s">
+        <v>323</v>
+      </c>
+      <c r="I37" t="s">
+        <v>324</v>
+      </c>
+      <c r="J37" t="s">
+        <v>325</v>
+      </c>
+      <c r="K37" t="s">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s">
+        <v>265</v>
+      </c>
+      <c r="M37" t="s">
+        <v>327</v>
+      </c>
+      <c r="N37" t="s">
+        <v>64</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>66</v>
+      </c>
+      <c r="S37" t="s">
+        <v>67</v>
+      </c>
+      <c r="T37" t="s">
+        <v>167</v>
+      </c>
+      <c r="U37" t="s">
+        <v>133</v>
+      </c>
+      <c r="V37" t="s">
+        <v>167</v>
+      </c>
+      <c r="W37" t="s">
+        <v>105</v>
+      </c>
+      <c r="X37" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z37" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>2</v>
+      </c>
+      <c r="AC37">
+        <v>3</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL37" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO37" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>337</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>427</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX37" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E38">
+        <v>2021</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>342</v>
+      </c>
+      <c r="H38" t="s">
+        <v>343</v>
+      </c>
+      <c r="I38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" t="s">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s">
+        <v>346</v>
+      </c>
+      <c r="L38" t="s">
+        <v>265</v>
+      </c>
+      <c r="M38" t="s">
+        <v>347</v>
+      </c>
+      <c r="N38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S38" t="s">
+        <v>94</v>
+      </c>
+      <c r="T38" t="s">
+        <v>159</v>
+      </c>
+      <c r="U38" t="s">
+        <v>160</v>
+      </c>
+      <c r="W38" t="s">
+        <v>114</v>
+      </c>
+      <c r="X38" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z38" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA38">
+        <v>2</v>
+      </c>
+      <c r="AB38">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL38" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO38" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX38" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E39">
+        <v>2021</v>
+      </c>
+      <c r="F39" t="s">
+        <v>321</v>
+      </c>
+      <c r="G39" t="s">
+        <v>342</v>
+      </c>
+      <c r="H39" t="s">
+        <v>343</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s">
+        <v>265</v>
+      </c>
+      <c r="M39" t="s">
+        <v>347</v>
+      </c>
+      <c r="N39" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>66</v>
+      </c>
+      <c r="S39" t="s">
+        <v>94</v>
+      </c>
+      <c r="T39" t="s">
+        <v>159</v>
+      </c>
+      <c r="U39" t="s">
+        <v>160</v>
+      </c>
+      <c r="W39" t="s">
+        <v>114</v>
+      </c>
+      <c r="X39" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z39" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL39" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO39" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>410</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX39" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>339</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E40">
+        <v>2021</v>
+      </c>
+      <c r="F40" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" t="s">
+        <v>342</v>
+      </c>
+      <c r="H40" t="s">
+        <v>343</v>
+      </c>
+      <c r="I40" t="s">
+        <v>344</v>
+      </c>
+      <c r="J40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K40" t="s">
+        <v>346</v>
+      </c>
+      <c r="L40" t="s">
+        <v>265</v>
+      </c>
+      <c r="M40" t="s">
+        <v>347</v>
+      </c>
+      <c r="N40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>66</v>
+      </c>
+      <c r="S40" t="s">
+        <v>94</v>
+      </c>
+      <c r="T40" t="s">
+        <v>159</v>
+      </c>
+      <c r="U40" t="s">
+        <v>160</v>
+      </c>
+      <c r="W40" t="s">
+        <v>114</v>
+      </c>
+      <c r="X40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z40" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AB40">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL40" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO40" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>411</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX40" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E41">
+        <v>2021</v>
+      </c>
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
+        <v>342</v>
+      </c>
+      <c r="H41" t="s">
+        <v>343</v>
+      </c>
+      <c r="I41" t="s">
+        <v>344</v>
+      </c>
+      <c r="J41" t="s">
+        <v>345</v>
+      </c>
+      <c r="K41" t="s">
+        <v>346</v>
+      </c>
+      <c r="L41" t="s">
+        <v>265</v>
+      </c>
+      <c r="M41" t="s">
+        <v>347</v>
+      </c>
+      <c r="N41" t="s">
+        <v>64</v>
+      </c>
+      <c r="O41" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>66</v>
+      </c>
+      <c r="S41" t="s">
+        <v>94</v>
+      </c>
+      <c r="T41" t="s">
+        <v>159</v>
+      </c>
+      <c r="U41" t="s">
+        <v>160</v>
+      </c>
+      <c r="W41" t="s">
+        <v>114</v>
+      </c>
+      <c r="X41" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL41" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO41" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX41" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E42">
+        <v>2018</v>
+      </c>
+      <c r="F42" t="s">
+        <v>355</v>
+      </c>
+      <c r="G42" t="s">
+        <v>356</v>
+      </c>
+      <c r="H42" t="s">
+        <v>357</v>
+      </c>
+      <c r="I42" t="s">
+        <v>358</v>
+      </c>
+      <c r="J42" t="s">
+        <v>359</v>
+      </c>
+      <c r="K42" t="s">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s">
+        <v>265</v>
+      </c>
+      <c r="M42" t="s">
+        <v>361</v>
+      </c>
+      <c r="N42" t="s">
+        <v>64</v>
+      </c>
+      <c r="O42" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>66</v>
+      </c>
+      <c r="S42" t="s">
+        <v>67</v>
+      </c>
+      <c r="T42" t="s">
+        <v>68</v>
+      </c>
+      <c r="U42" t="s">
+        <v>160</v>
+      </c>
+      <c r="W42" t="s">
+        <v>152</v>
+      </c>
+      <c r="X42" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL42" s="12"/>
+      <c r="AM42" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO42" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>419</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX42" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E43">
+        <v>2018</v>
+      </c>
+      <c r="F43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G43" t="s">
+        <v>356</v>
+      </c>
+      <c r="H43" t="s">
+        <v>357</v>
+      </c>
+      <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" t="s">
+        <v>359</v>
+      </c>
+      <c r="K43" t="s">
+        <v>360</v>
+      </c>
+      <c r="L43" t="s">
+        <v>265</v>
+      </c>
+      <c r="M43" t="s">
+        <v>361</v>
+      </c>
+      <c r="N43" t="s">
+        <v>64</v>
+      </c>
+      <c r="O43" t="s">
+        <v>65</v>
+      </c>
+      <c r="P43" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>66</v>
+      </c>
+      <c r="S43" t="s">
+        <v>67</v>
+      </c>
+      <c r="T43" t="s">
+        <v>68</v>
+      </c>
+      <c r="U43" t="s">
+        <v>160</v>
+      </c>
+      <c r="W43" t="s">
+        <v>152</v>
+      </c>
+      <c r="X43" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL43" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO43" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>418</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX43" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E44">
+        <v>2018</v>
+      </c>
+      <c r="F44" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" t="s">
+        <v>356</v>
+      </c>
+      <c r="H44" t="s">
+        <v>357</v>
+      </c>
+      <c r="I44" t="s">
+        <v>358</v>
+      </c>
+      <c r="J44" t="s">
+        <v>359</v>
+      </c>
+      <c r="K44" t="s">
+        <v>360</v>
+      </c>
+      <c r="L44" t="s">
+        <v>265</v>
+      </c>
+      <c r="M44" t="s">
+        <v>361</v>
+      </c>
+      <c r="N44" t="s">
+        <v>64</v>
+      </c>
+      <c r="O44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>66</v>
+      </c>
+      <c r="S44" t="s">
+        <v>67</v>
+      </c>
+      <c r="T44" t="s">
+        <v>68</v>
+      </c>
+      <c r="U44" t="s">
+        <v>160</v>
+      </c>
+      <c r="W44" t="s">
+        <v>152</v>
+      </c>
+      <c r="X44" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z44" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL44" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO44" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>419</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX44" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>352</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E45">
+        <v>2018</v>
+      </c>
+      <c r="F45" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" t="s">
+        <v>356</v>
+      </c>
+      <c r="H45" t="s">
+        <v>357</v>
+      </c>
+      <c r="I45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" t="s">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s">
+        <v>265</v>
+      </c>
+      <c r="M45" t="s">
+        <v>361</v>
+      </c>
+      <c r="N45" t="s">
+        <v>64</v>
+      </c>
+      <c r="O45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P45" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>66</v>
+      </c>
+      <c r="S45" t="s">
+        <v>67</v>
+      </c>
+      <c r="T45" t="s">
+        <v>68</v>
+      </c>
+      <c r="U45" t="s">
+        <v>160</v>
+      </c>
+      <c r="W45" t="s">
+        <v>152</v>
+      </c>
+      <c r="X45" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL45" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO45" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>418</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>367</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="E46">
+        <v>2020</v>
+      </c>
+      <c r="F46" t="s">
+        <v>370</v>
+      </c>
+      <c r="G46" t="s">
+        <v>371</v>
+      </c>
+      <c r="H46" t="s">
+        <v>294</v>
+      </c>
+      <c r="I46" t="s">
+        <v>372</v>
+      </c>
+      <c r="J46" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" t="s">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s">
+        <v>265</v>
+      </c>
+      <c r="M46" t="s">
+        <v>375</v>
+      </c>
+      <c r="N46" t="s">
+        <v>64</v>
+      </c>
+      <c r="O46" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>66</v>
+      </c>
+      <c r="S46" t="s">
+        <v>94</v>
+      </c>
+      <c r="T46" t="s">
+        <v>68</v>
+      </c>
+      <c r="U46" t="s">
+        <v>69</v>
+      </c>
+      <c r="X46" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL46" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO46" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>388</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX46" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>376</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E47">
+        <v>2020</v>
+      </c>
+      <c r="F47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G47" t="s">
+        <v>380</v>
+      </c>
+      <c r="H47" t="s">
+        <v>381</v>
+      </c>
+      <c r="I47" t="s">
+        <v>265</v>
+      </c>
+      <c r="J47" t="s">
+        <v>265</v>
+      </c>
+      <c r="K47" t="s">
+        <v>382</v>
+      </c>
+      <c r="L47" t="s">
+        <v>265</v>
+      </c>
+      <c r="M47" t="s">
+        <v>383</v>
+      </c>
+      <c r="N47" t="s">
+        <v>64</v>
+      </c>
+      <c r="O47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>66</v>
+      </c>
+      <c r="S47" t="s">
+        <v>67</v>
+      </c>
+      <c r="T47" t="s">
+        <v>68</v>
+      </c>
+      <c r="U47" t="s">
+        <v>175</v>
+      </c>
+      <c r="V47" t="s">
+        <v>142</v>
+      </c>
+      <c r="W47" t="s">
+        <v>168</v>
+      </c>
+      <c r="X47" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z47" t="s">
         <v>393</v>
       </c>
-      <c r="AU32" t="s">
-        <v>404</v>
-      </c>
-      <c r="AV32" t="s">
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <v>2</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL47" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO47" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>392</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV47" t="s">
         <v>148</v>
       </c>
-      <c r="AW32" s="15" t="s">
+      <c r="AW47" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX47" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>376</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E48">
+        <v>2020</v>
+      </c>
+      <c r="F48" t="s">
+        <v>379</v>
+      </c>
+      <c r="G48" t="s">
+        <v>380</v>
+      </c>
+      <c r="H48" t="s">
+        <v>381</v>
+      </c>
+      <c r="I48" t="s">
+        <v>265</v>
+      </c>
+      <c r="J48" t="s">
+        <v>265</v>
+      </c>
+      <c r="K48" t="s">
+        <v>382</v>
+      </c>
+      <c r="L48" t="s">
+        <v>265</v>
+      </c>
+      <c r="M48" t="s">
+        <v>383</v>
+      </c>
+      <c r="N48" t="s">
+        <v>64</v>
+      </c>
+      <c r="O48" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>66</v>
+      </c>
+      <c r="S48" t="s">
+        <v>67</v>
+      </c>
+      <c r="T48" t="s">
+        <v>68</v>
+      </c>
+      <c r="U48" t="s">
+        <v>175</v>
+      </c>
+      <c r="V48" t="s">
+        <v>142</v>
+      </c>
+      <c r="W48" t="s">
+        <v>168</v>
+      </c>
+      <c r="X48" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA48">
+        <v>2</v>
+      </c>
+      <c r="AB48">
+        <v>2</v>
+      </c>
+      <c r="AC48">
+        <v>3</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL48" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO48" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>402</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW48" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AX32" s="13" t="s">
+      <c r="AX48" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>376</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E49">
+        <v>2020</v>
+      </c>
+      <c r="F49" t="s">
+        <v>379</v>
+      </c>
+      <c r="G49" t="s">
+        <v>380</v>
+      </c>
+      <c r="H49" t="s">
+        <v>381</v>
+      </c>
+      <c r="I49" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49" t="s">
+        <v>265</v>
+      </c>
+      <c r="K49" t="s">
+        <v>382</v>
+      </c>
+      <c r="L49" t="s">
+        <v>265</v>
+      </c>
+      <c r="M49" t="s">
+        <v>383</v>
+      </c>
+      <c r="N49" t="s">
+        <v>64</v>
+      </c>
+      <c r="O49" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>66</v>
+      </c>
+      <c r="S49" t="s">
+        <v>67</v>
+      </c>
+      <c r="T49" t="s">
+        <v>68</v>
+      </c>
+      <c r="U49" t="s">
+        <v>175</v>
+      </c>
+      <c r="V49" t="s">
+        <v>142</v>
+      </c>
+      <c r="W49" t="s">
+        <v>168</v>
+      </c>
+      <c r="X49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA49">
+        <v>2</v>
+      </c>
+      <c r="AB49">
+        <v>2</v>
+      </c>
+      <c r="AC49">
+        <v>3</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL49" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO49" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>392</v>
+      </c>
+      <c r="AU49" t="s">
         <v>401</v>
       </c>
+      <c r="AV49" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW49" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>376</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E50">
+        <v>2020</v>
+      </c>
+      <c r="F50" t="s">
+        <v>379</v>
+      </c>
+      <c r="G50" t="s">
+        <v>380</v>
+      </c>
+      <c r="H50" t="s">
+        <v>381</v>
+      </c>
+      <c r="I50" t="s">
+        <v>265</v>
+      </c>
+      <c r="J50" t="s">
+        <v>265</v>
+      </c>
+      <c r="K50" t="s">
+        <v>382</v>
+      </c>
+      <c r="L50" t="s">
+        <v>265</v>
+      </c>
+      <c r="M50" t="s">
+        <v>383</v>
+      </c>
+      <c r="N50" t="s">
+        <v>64</v>
+      </c>
+      <c r="O50" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>66</v>
+      </c>
+      <c r="S50" t="s">
+        <v>67</v>
+      </c>
+      <c r="T50" t="s">
+        <v>68</v>
+      </c>
+      <c r="U50" t="s">
+        <v>175</v>
+      </c>
+      <c r="V50" t="s">
+        <v>142</v>
+      </c>
+      <c r="W50" t="s">
+        <v>168</v>
+      </c>
+      <c r="X50" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA50">
+        <v>2</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AC50">
+        <v>3</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL50" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO50" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>390</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW50" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX50" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX51" s="13"/>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX52" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8330,7 +10519,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AN3:AN1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8340,6 +10529,18 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+          <x14:formula1>
+            <xm:f>Validation!$AG$3:$AG$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG36:AG1048576 AG3:AG33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84FB6C9D-6663-48D4-B8D6-1FA5BD04B6AD}">
+          <x14:formula1>
+            <xm:f>Validation!$AG$3:$AG$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>AG34:AG35</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
@@ -8400,12 +10601,6 @@
           </x14:formula1>
           <xm:sqref>AC3:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
-          <x14:formula1>
-            <xm:f>Validation!$AG$3:$AG$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>AG3:AG15 AG18:AG1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
@@ -8429,12 +10624,6 @@
             <xm:f>Validation!$AV$3:$AV$15</xm:f>
           </x14:formula1>
           <xm:sqref>AV3:AV1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84FB6C9D-6663-48D4-B8D6-1FA5BD04B6AD}">
-          <x14:formula1>
-            <xm:f>Validation!$AG$3:$AG$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>AG16:AG17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9028,7 +11217,7 @@
         <v>161</v>
       </c>
       <c r="AG10" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AH10" t="s">
         <v>162</v>
@@ -10432,8 +12621,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -10545,7 +12740,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10554,14 +12749,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7A8CB34-40C8-436E-85B3-6AD7AB04556D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -10576,25 +12780,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E9693F-301F-4663-A70B-CC63F5641411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5864ADB3-D520-4544-9739-53EA0658D082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$48</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="456">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -3337,9 +3337,6 @@
     <t>Catch _ Mortality</t>
   </si>
   <si>
-    <t>Trawlers have a large impact in sea turtles in the Gulf of Gabes.</t>
-  </si>
-  <si>
     <t>SW4_1531</t>
   </si>
   <si>
@@ -3607,9 +3604,6 @@
     <t>cuttlefish _ fish species (Diplodus spp, Sparus, Solea solea) _ crustaceans</t>
   </si>
   <si>
-    <t>catch per effort</t>
-  </si>
-  <si>
     <t>smaller pots measuring 40x100cm _ larger pots measuring 60x140cm, targeting cuttlefish</t>
   </si>
   <si>
@@ -3622,27 +3616,9 @@
     <t xml:space="preserve">Diplodus annularis </t>
   </si>
   <si>
-    <t xml:space="preserve"> Sepia officinalis</t>
-  </si>
-  <si>
-    <t>Pots were more efficient than GTRs for cuttlefish, in terms of size and catches.</t>
-  </si>
-  <si>
     <t>Trammel nets catch cuttlefish of all sizes, and discards are greater with this gear, producing a higher impact even in the benthic community.</t>
   </si>
   <si>
-    <t>Greater catch efficiency using GTR than pots, but greater number of undersized individuals using GTRs.</t>
-  </si>
-  <si>
-    <t>Pots showed a high selectivity for larger fish, minimizing the discards, even if they had no differnece with GTRs in larger fish sizes.</t>
-  </si>
-  <si>
-    <t>Biomass _discards</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Pearson's correlation analysis, Fisher's test, kernel density estimation, Gi* hotspot analysis</t>
   </si>
   <si>
@@ -3656,9 +3632,6 @@
   </si>
   <si>
     <t>Catches</t>
-  </si>
-  <si>
-    <t>Catch rate</t>
   </si>
   <si>
     <t>40-70mm, targeting herring, perch or garfish.</t>
@@ -3831,6 +3804,25 @@
   </si>
   <si>
     <t>Biomass of species and species groups</t>
+  </si>
+  <si>
+    <t>discards</t>
+  </si>
+  <si>
+    <t>pot vs. traditional trammel net</t>
+  </si>
+  <si>
+    <t>Sepia officinalis</t>
+  </si>
+  <si>
+    <t>Pots showed a high selectivity for larger fish, minimizing the discards, even if they had no difference with GTRs in larger fish sizes.</t>
+  </si>
+  <si>
+    <t>mortality rate _ total mortality</t>
+  </si>
+  <si>
+    <t>Trawlers have a large impact in sea turtles in the Gulf of Gabes. Although the catch rate is high, the recorded mortality (direct and potential) shows quite a low number of deaths in comparison with other regions in the Mediterranean (14.3% in north Adriatic) and in the world (29% in the Gulf
+of Mexico and 45% in Florida) .</t>
   </si>
 </sst>
 </file>
@@ -4011,7 +4003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4031,17 +4023,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4063,6 +4051,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4348,19 +4337,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX52"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AK19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AJ12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO19" sqref="AO19"/>
+      <selection pane="bottomRight" activeCell="AW50" sqref="AW50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13" style="18"/>
-    <col min="4" max="4" width="18.81640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
     <col min="19" max="19" width="18.1796875" customWidth="1"/>
     <col min="24" max="24" width="29.54296875" customWidth="1"/>
     <col min="25" max="25" width="32.7265625" customWidth="1"/>
@@ -4377,70 +4365,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="25" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="23" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="24" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="26" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="20" t="s">
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="21" t="s">
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4449,10 +4437,10 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -4601,10 +4589,10 @@
       <c r="B3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="10">
@@ -4649,8 +4637,8 @@
       <c r="X3" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" s="11" t="s">
-        <v>403</v>
+      <c r="Z3" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -4662,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="AF3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG3" t="s">
         <v>71</v>
@@ -4679,8 +4667,8 @@
       <c r="AK3" t="s">
         <v>75</v>
       </c>
-      <c r="AL3" s="12" t="s">
-        <v>430</v>
+      <c r="AL3" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="AM3" t="s">
         <v>76</v>
@@ -4688,8 +4676,8 @@
       <c r="AN3" t="s">
         <v>77</v>
       </c>
-      <c r="AO3" s="11" t="s">
-        <v>426</v>
+      <c r="AO3" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="AQ3" t="s">
         <v>78</v>
@@ -4701,7 +4689,7 @@
         <v>80</v>
       </c>
       <c r="AU3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AV3" t="s">
         <v>81</v>
@@ -4709,8 +4697,8 @@
       <c r="AW3" t="s">
         <v>82</v>
       </c>
-      <c r="AX3" s="13" t="s">
-        <v>432</v>
+      <c r="AX3" s="12" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
@@ -4720,10 +4708,10 @@
       <c r="B4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="10">
@@ -4768,8 +4756,8 @@
       <c r="X4" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" s="11" t="s">
-        <v>403</v>
+      <c r="Z4" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -4781,7 +4769,7 @@
         <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG4" t="s">
         <v>71</v>
@@ -4798,8 +4786,8 @@
       <c r="AK4" t="s">
         <v>75</v>
       </c>
-      <c r="AL4" s="12" t="s">
-        <v>430</v>
+      <c r="AL4" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="AM4" t="s">
         <v>76</v>
@@ -4807,8 +4795,8 @@
       <c r="AN4" t="s">
         <v>77</v>
       </c>
-      <c r="AO4" s="11" t="s">
-        <v>426</v>
+      <c r="AO4" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="AQ4" t="s">
         <v>78</v>
@@ -4820,7 +4808,7 @@
         <v>84</v>
       </c>
       <c r="AU4" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AV4" t="s">
         <v>81</v>
@@ -4828,8 +4816,8 @@
       <c r="AW4" t="s">
         <v>129</v>
       </c>
-      <c r="AX4" s="13" t="s">
-        <v>432</v>
+      <c r="AX4" s="12" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
@@ -4839,10 +4827,10 @@
       <c r="B5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="10">
@@ -4887,8 +4875,8 @@
       <c r="X5" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="11" t="s">
-        <v>403</v>
+      <c r="Z5" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -4900,7 +4888,7 @@
         <v>3</v>
       </c>
       <c r="AF5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG5" t="s">
         <v>71</v>
@@ -4917,8 +4905,8 @@
       <c r="AK5" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="12" t="s">
-        <v>431</v>
+      <c r="AL5" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="AM5" t="s">
         <v>76</v>
@@ -4926,8 +4914,8 @@
       <c r="AN5" t="s">
         <v>77</v>
       </c>
-      <c r="AO5" s="11" t="s">
-        <v>426</v>
+      <c r="AO5" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="AQ5" t="s">
         <v>78</v>
@@ -4939,7 +4927,7 @@
         <v>80</v>
       </c>
       <c r="AU5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AV5" t="s">
         <v>81</v>
@@ -4947,8 +4935,8 @@
       <c r="AW5" t="s">
         <v>82</v>
       </c>
-      <c r="AX5" s="13" t="s">
-        <v>433</v>
+      <c r="AX5" s="12" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
@@ -4958,10 +4946,10 @@
       <c r="B6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="10">
@@ -5006,8 +4994,8 @@
       <c r="X6" t="s">
         <v>70</v>
       </c>
-      <c r="Z6" s="11" t="s">
-        <v>403</v>
+      <c r="Z6" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -5019,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="AF6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG6" t="s">
         <v>71</v>
@@ -5036,8 +5024,8 @@
       <c r="AK6" t="s">
         <v>75</v>
       </c>
-      <c r="AL6" s="12" t="s">
-        <v>431</v>
+      <c r="AL6" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="AM6" t="s">
         <v>76</v>
@@ -5045,8 +5033,8 @@
       <c r="AN6" t="s">
         <v>77</v>
       </c>
-      <c r="AO6" s="11" t="s">
-        <v>426</v>
+      <c r="AO6" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="AQ6" t="s">
         <v>78</v>
@@ -5058,7 +5046,7 @@
         <v>84</v>
       </c>
       <c r="AU6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AV6" t="s">
         <v>81</v>
@@ -5066,56 +5054,56 @@
       <c r="AW6" t="s">
         <v>129</v>
       </c>
-      <c r="AX6" s="13" t="s">
-        <v>433</v>
+      <c r="AX6" s="12" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>1998</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>16</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>49</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>64</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11" t="s">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11" t="s">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10" t="s">
         <v>66</v>
       </c>
       <c r="S7" t="s">
@@ -5134,9 +5122,9 @@
         <v>154</v>
       </c>
       <c r="Y7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Z7" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z7" s="10" t="s">
         <v>257</v>
       </c>
       <c r="AA7">
@@ -5149,10 +5137,10 @@
         <v>2</v>
       </c>
       <c r="AE7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AF7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG7" t="s">
         <v>71</v>
@@ -5166,7 +5154,7 @@
       <c r="AK7" t="s">
         <v>75</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AL7" s="11" t="s">
         <v>258</v>
       </c>
       <c r="AM7" t="s">
@@ -5175,8 +5163,8 @@
       <c r="AN7" t="s">
         <v>77</v>
       </c>
-      <c r="AO7" s="11" t="s">
-        <v>434</v>
+      <c r="AO7" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="AQ7" t="s">
         <v>78</v>
@@ -5188,7 +5176,7 @@
         <v>247</v>
       </c>
       <c r="AU7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AV7" t="s">
         <v>81</v>
@@ -5196,56 +5184,56 @@
       <c r="AW7" t="s">
         <v>82</v>
       </c>
-      <c r="AX7" s="13" t="s">
+      <c r="AX7" s="12" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>1998</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>16</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>49</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>64</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11" t="s">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10" t="s">
         <v>66</v>
       </c>
       <c r="S8" t="s">
@@ -5264,9 +5252,9 @@
         <v>154</v>
       </c>
       <c r="Y8" t="s">
-        <v>404</v>
-      </c>
-      <c r="Z8" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z8" s="10" t="s">
         <v>257</v>
       </c>
       <c r="AA8">
@@ -5279,10 +5267,10 @@
         <v>2</v>
       </c>
       <c r="AE8" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AF8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG8" t="s">
         <v>71</v>
@@ -5296,7 +5284,7 @@
       <c r="AK8" t="s">
         <v>75</v>
       </c>
-      <c r="AL8" s="12" t="s">
+      <c r="AL8" s="11" t="s">
         <v>258</v>
       </c>
       <c r="AM8" t="s">
@@ -5305,8 +5293,8 @@
       <c r="AN8" t="s">
         <v>77</v>
       </c>
-      <c r="AO8" s="11" t="s">
-        <v>434</v>
+      <c r="AO8" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="AQ8" t="s">
         <v>78</v>
@@ -5318,7 +5306,7 @@
         <v>238</v>
       </c>
       <c r="AU8" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AV8" t="s">
         <v>81</v>
@@ -5326,7 +5314,7 @@
       <c r="AW8" t="s">
         <v>82</v>
       </c>
-      <c r="AX8" s="13" t="s">
+      <c r="AX8" s="12" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5337,10 +5325,10 @@
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" t="s">
         <v>261</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" t="s">
         <v>262</v>
       </c>
       <c r="E9">
@@ -5400,7 +5388,7 @@
       <c r="X9" t="s">
         <v>122</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" s="10" t="s">
         <v>270</v>
       </c>
       <c r="AA9">
@@ -5413,7 +5401,7 @@
         <v>3</v>
       </c>
       <c r="AF9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG9" t="s">
         <v>71</v>
@@ -5427,17 +5415,17 @@
       <c r="AK9" t="s">
         <v>125</v>
       </c>
-      <c r="AL9" s="14" t="s">
+      <c r="AL9" s="13" t="s">
         <v>271</v>
       </c>
       <c r="AM9" t="s">
         <v>76</v>
       </c>
-      <c r="AN9" s="15" t="s">
+      <c r="AN9" t="s">
         <v>195</v>
       </c>
-      <c r="AO9" s="11" t="s">
-        <v>406</v>
+      <c r="AO9" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="AQ9" t="s">
         <v>78</v>
@@ -5452,7 +5440,7 @@
         <v>272</v>
       </c>
       <c r="AU9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AV9" t="s">
         <v>109</v>
@@ -5460,7 +5448,7 @@
       <c r="AW9" t="s">
         <v>129</v>
       </c>
-      <c r="AX9" s="13" t="s">
+      <c r="AX9" s="12" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5471,10 +5459,10 @@
       <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" t="s">
         <v>262</v>
       </c>
       <c r="E10">
@@ -5535,9 +5523,9 @@
         <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>405</v>
-      </c>
-      <c r="Z10" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z10" s="10" t="s">
         <v>270</v>
       </c>
       <c r="AA10">
@@ -5550,7 +5538,7 @@
         <v>3</v>
       </c>
       <c r="AF10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG10" t="s">
         <v>97</v>
@@ -5564,17 +5552,17 @@
       <c r="AK10" t="s">
         <v>125</v>
       </c>
-      <c r="AL10" s="14" t="s">
+      <c r="AL10" s="13" t="s">
         <v>271</v>
       </c>
       <c r="AM10" t="s">
         <v>76</v>
       </c>
-      <c r="AN10" s="15" t="s">
+      <c r="AN10" t="s">
         <v>195</v>
       </c>
-      <c r="AO10" s="11" t="s">
-        <v>406</v>
+      <c r="AO10" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="AQ10" t="s">
         <v>78</v>
@@ -5597,7 +5585,7 @@
       <c r="AW10" t="s">
         <v>110</v>
       </c>
-      <c r="AX10" s="13" t="s">
+      <c r="AX10" s="12" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5608,10 +5596,10 @@
       <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" t="s">
         <v>278</v>
       </c>
       <c r="E11">
@@ -5671,7 +5659,7 @@
       <c r="X11" t="s">
         <v>122</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="Z11" s="10" t="s">
         <v>286</v>
       </c>
       <c r="AA11">
@@ -5684,10 +5672,10 @@
         <v>3</v>
       </c>
       <c r="AE11" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AF11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG11" t="s">
         <v>71</v>
@@ -5698,7 +5686,7 @@
       <c r="AK11" t="s">
         <v>75</v>
       </c>
-      <c r="AL11" s="12" t="s">
+      <c r="AL11" s="11" t="s">
         <v>287</v>
       </c>
       <c r="AM11" t="s">
@@ -5707,8 +5695,8 @@
       <c r="AN11" t="s">
         <v>77</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>435</v>
+      <c r="AO11" s="10" t="s">
+        <v>426</v>
       </c>
       <c r="AQ11" t="s">
         <v>78</v>
@@ -5720,7 +5708,7 @@
         <v>238</v>
       </c>
       <c r="AU11" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AV11" t="s">
         <v>81</v>
@@ -5728,7 +5716,7 @@
       <c r="AW11" t="s">
         <v>82</v>
       </c>
-      <c r="AX11" s="13" t="s">
+      <c r="AX11" s="12" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5739,10 +5727,10 @@
       <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" t="s">
         <v>290</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" t="s">
         <v>291</v>
       </c>
       <c r="E12">
@@ -5802,7 +5790,7 @@
       <c r="X12" t="s">
         <v>122</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="Z12" s="10" t="s">
         <v>298</v>
       </c>
       <c r="AA12">
@@ -5815,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="AF12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG12" t="s">
         <v>71</v>
@@ -5829,7 +5817,7 @@
       <c r="AK12" t="s">
         <v>75</v>
       </c>
-      <c r="AL12" s="12" t="s">
+      <c r="AL12" s="11" t="s">
         <v>299</v>
       </c>
       <c r="AM12" t="s">
@@ -5838,8 +5826,8 @@
       <c r="AN12" t="s">
         <v>77</v>
       </c>
-      <c r="AO12" s="11" t="s">
-        <v>300</v>
+      <c r="AO12" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="AQ12" t="s">
         <v>78</v>
@@ -5851,57 +5839,57 @@
         <v>80</v>
       </c>
       <c r="AU12" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="AV12" t="s">
         <v>81</v>
       </c>
       <c r="AW12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX12" s="13" t="s">
-        <v>301</v>
+        <v>82</v>
+      </c>
+      <c r="AX12" s="23" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" t="s">
         <v>303</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E13">
         <v>2005</v>
       </c>
       <c r="F13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" t="s">
         <v>305</v>
-      </c>
-      <c r="G13" t="s">
-        <v>306</v>
       </c>
       <c r="H13" t="s">
         <v>265</v>
       </c>
       <c r="I13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J13" t="s">
         <v>307</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>308</v>
-      </c>
-      <c r="K13" t="s">
-        <v>309</v>
       </c>
       <c r="L13" t="s">
         <v>265</v>
       </c>
       <c r="M13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N13" t="s">
         <v>64</v>
@@ -5910,7 +5898,7 @@
         <v>65</v>
       </c>
       <c r="P13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q13" t="s">
         <v>66</v>
@@ -5927,8 +5915,8 @@
       <c r="X13" t="s">
         <v>122</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>312</v>
+      <c r="Z13" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5940,7 +5928,7 @@
         <v>1</v>
       </c>
       <c r="AF13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG13" t="s">
         <v>71</v>
@@ -5954,8 +5942,8 @@
       <c r="AK13" t="s">
         <v>125</v>
       </c>
-      <c r="AL13" s="12" t="s">
-        <v>314</v>
+      <c r="AL13" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="AM13" t="s">
         <v>76</v>
@@ -5963,8 +5951,8 @@
       <c r="AN13" t="s">
         <v>77</v>
       </c>
-      <c r="AO13" s="11" t="s">
-        <v>315</v>
+      <c r="AO13" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="AQ13" t="s">
         <v>78</v>
@@ -5976,7 +5964,7 @@
         <v>80</v>
       </c>
       <c r="AU13" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AV13" t="s">
         <v>100</v>
@@ -5985,48 +5973,48 @@
         <v>110</v>
       </c>
       <c r="AX13" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" t="s">
         <v>303</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E14">
         <v>2005</v>
       </c>
       <c r="F14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" t="s">
         <v>305</v>
-      </c>
-      <c r="G14" t="s">
-        <v>306</v>
       </c>
       <c r="H14" t="s">
         <v>265</v>
       </c>
       <c r="I14" t="s">
+        <v>306</v>
+      </c>
+      <c r="J14" t="s">
         <v>307</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>308</v>
-      </c>
-      <c r="K14" t="s">
-        <v>309</v>
       </c>
       <c r="L14" t="s">
         <v>265</v>
       </c>
       <c r="M14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N14" t="s">
         <v>64</v>
@@ -6035,7 +6023,7 @@
         <v>65</v>
       </c>
       <c r="P14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q14" t="s">
         <v>66</v>
@@ -6052,8 +6040,8 @@
       <c r="X14" t="s">
         <v>122</v>
       </c>
-      <c r="Z14" s="11" t="s">
-        <v>312</v>
+      <c r="Z14" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -6065,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="AF14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG14" t="s">
         <v>71</v>
@@ -6079,8 +6067,8 @@
       <c r="AK14" t="s">
         <v>125</v>
       </c>
-      <c r="AL14" s="12" t="s">
-        <v>314</v>
+      <c r="AL14" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="AM14" t="s">
         <v>76</v>
@@ -6088,8 +6076,8 @@
       <c r="AN14" t="s">
         <v>77</v>
       </c>
-      <c r="AO14" s="11" t="s">
-        <v>315</v>
+      <c r="AO14" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="AQ14" t="s">
         <v>78</v>
@@ -6101,7 +6089,7 @@
         <v>84</v>
       </c>
       <c r="AU14" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AV14" t="s">
         <v>100</v>
@@ -6110,48 +6098,48 @@
         <v>110</v>
       </c>
       <c r="AX14" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" t="s">
         <v>303</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E15">
         <v>2005</v>
       </c>
       <c r="F15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" t="s">
         <v>305</v>
-      </c>
-      <c r="G15" t="s">
-        <v>306</v>
       </c>
       <c r="H15" t="s">
         <v>265</v>
       </c>
       <c r="I15" t="s">
+        <v>306</v>
+      </c>
+      <c r="J15" t="s">
         <v>307</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>308</v>
-      </c>
-      <c r="K15" t="s">
-        <v>309</v>
       </c>
       <c r="L15" t="s">
         <v>265</v>
       </c>
       <c r="M15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N15" t="s">
         <v>64</v>
@@ -6160,7 +6148,7 @@
         <v>65</v>
       </c>
       <c r="P15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q15" t="s">
         <v>66</v>
@@ -6177,8 +6165,8 @@
       <c r="X15" t="s">
         <v>122</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>312</v>
+      <c r="Z15" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6190,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AF15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG15" t="s">
         <v>71</v>
@@ -6204,8 +6192,8 @@
       <c r="AK15" t="s">
         <v>125</v>
       </c>
-      <c r="AL15" s="12" t="s">
-        <v>316</v>
+      <c r="AL15" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="AM15" t="s">
         <v>76</v>
@@ -6213,8 +6201,8 @@
       <c r="AN15" t="s">
         <v>77</v>
       </c>
-      <c r="AO15" s="11" t="s">
-        <v>315</v>
+      <c r="AO15" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="AQ15" t="s">
         <v>78</v>
@@ -6226,7 +6214,7 @@
         <v>80</v>
       </c>
       <c r="AU15" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AV15" t="s">
         <v>100</v>
@@ -6235,48 +6223,48 @@
         <v>110</v>
       </c>
       <c r="AX15" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" t="s">
         <v>303</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E16">
         <v>2005</v>
       </c>
       <c r="F16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" t="s">
         <v>305</v>
-      </c>
-      <c r="G16" t="s">
-        <v>306</v>
       </c>
       <c r="H16" t="s">
         <v>265</v>
       </c>
       <c r="I16" t="s">
+        <v>306</v>
+      </c>
+      <c r="J16" t="s">
         <v>307</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>308</v>
-      </c>
-      <c r="K16" t="s">
-        <v>309</v>
       </c>
       <c r="L16" t="s">
         <v>265</v>
       </c>
       <c r="M16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N16" t="s">
         <v>64</v>
@@ -6285,7 +6273,7 @@
         <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q16" t="s">
         <v>66</v>
@@ -6302,8 +6290,8 @@
       <c r="X16" t="s">
         <v>122</v>
       </c>
-      <c r="Z16" s="11" t="s">
-        <v>312</v>
+      <c r="Z16" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6315,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="AF16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG16" t="s">
         <v>71</v>
@@ -6329,8 +6317,8 @@
       <c r="AK16" t="s">
         <v>125</v>
       </c>
-      <c r="AL16" s="12" t="s">
-        <v>316</v>
+      <c r="AL16" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="AM16" t="s">
         <v>76</v>
@@ -6338,8 +6326,8 @@
       <c r="AN16" t="s">
         <v>77</v>
       </c>
-      <c r="AO16" s="11" t="s">
-        <v>315</v>
+      <c r="AO16" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="AQ16" t="s">
         <v>78</v>
@@ -6351,7 +6339,7 @@
         <v>238</v>
       </c>
       <c r="AU16" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AV16" t="s">
         <v>100</v>
@@ -6360,48 +6348,48 @@
         <v>110</v>
       </c>
       <c r="AX16" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" t="s">
         <v>303</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E17">
         <v>2005</v>
       </c>
       <c r="F17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G17" t="s">
         <v>305</v>
-      </c>
-      <c r="G17" t="s">
-        <v>306</v>
       </c>
       <c r="H17" t="s">
         <v>265</v>
       </c>
       <c r="I17" t="s">
+        <v>306</v>
+      </c>
+      <c r="J17" t="s">
         <v>307</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>308</v>
-      </c>
-      <c r="K17" t="s">
-        <v>309</v>
       </c>
       <c r="L17" t="s">
         <v>265</v>
       </c>
       <c r="M17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N17" t="s">
         <v>64</v>
@@ -6410,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="P17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q17" t="s">
         <v>66</v>
@@ -6427,8 +6415,8 @@
       <c r="X17" t="s">
         <v>122</v>
       </c>
-      <c r="Z17" s="11" t="s">
-        <v>312</v>
+      <c r="Z17" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6440,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="AF17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG17" t="s">
         <v>71</v>
@@ -6454,8 +6442,8 @@
       <c r="AK17" t="s">
         <v>125</v>
       </c>
-      <c r="AL17" s="12" t="s">
-        <v>314</v>
+      <c r="AL17" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="AM17" t="s">
         <v>76</v>
@@ -6463,14 +6451,14 @@
       <c r="AN17" t="s">
         <v>77</v>
       </c>
-      <c r="AO17" s="11" t="s">
-        <v>446</v>
+      <c r="AO17" s="10" t="s">
+        <v>437</v>
       </c>
       <c r="AQ17" t="s">
         <v>78</v>
       </c>
       <c r="AU17" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AV17" t="s">
         <v>100</v>
@@ -6479,48 +6467,48 @@
         <v>110</v>
       </c>
       <c r="AX17" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" t="s">
         <v>303</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E18">
         <v>2005</v>
       </c>
       <c r="F18" t="s">
+        <v>304</v>
+      </c>
+      <c r="G18" t="s">
         <v>305</v>
-      </c>
-      <c r="G18" t="s">
-        <v>306</v>
       </c>
       <c r="H18" t="s">
         <v>265</v>
       </c>
       <c r="I18" t="s">
+        <v>306</v>
+      </c>
+      <c r="J18" t="s">
         <v>307</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>308</v>
-      </c>
-      <c r="K18" t="s">
-        <v>309</v>
       </c>
       <c r="L18" t="s">
         <v>265</v>
       </c>
       <c r="M18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N18" t="s">
         <v>64</v>
@@ -6529,7 +6517,7 @@
         <v>65</v>
       </c>
       <c r="P18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q18" t="s">
         <v>66</v>
@@ -6546,8 +6534,8 @@
       <c r="X18" t="s">
         <v>122</v>
       </c>
-      <c r="Z18" s="11" t="s">
-        <v>312</v>
+      <c r="Z18" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6559,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="AF18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG18" t="s">
         <v>71</v>
@@ -6573,8 +6561,8 @@
       <c r="AK18" t="s">
         <v>125</v>
       </c>
-      <c r="AL18" s="12" t="s">
-        <v>316</v>
+      <c r="AL18" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="AM18" t="s">
         <v>76</v>
@@ -6582,14 +6570,14 @@
       <c r="AN18" t="s">
         <v>77</v>
       </c>
-      <c r="AO18" s="11" t="s">
-        <v>446</v>
+      <c r="AO18" s="10" t="s">
+        <v>437</v>
       </c>
       <c r="AQ18" t="s">
         <v>78</v>
       </c>
       <c r="AU18" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AV18" t="s">
         <v>100</v>
@@ -6598,48 +6586,48 @@
         <v>110</v>
       </c>
       <c r="AX18" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" t="s">
         <v>303</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E19">
         <v>2005</v>
       </c>
       <c r="F19" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" t="s">
         <v>305</v>
-      </c>
-      <c r="G19" t="s">
-        <v>306</v>
       </c>
       <c r="H19" t="s">
         <v>265</v>
       </c>
       <c r="I19" t="s">
+        <v>306</v>
+      </c>
+      <c r="J19" t="s">
         <v>307</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>308</v>
-      </c>
-      <c r="K19" t="s">
-        <v>309</v>
       </c>
       <c r="L19" t="s">
         <v>265</v>
       </c>
       <c r="M19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N19" t="s">
         <v>64</v>
@@ -6648,7 +6636,7 @@
         <v>65</v>
       </c>
       <c r="P19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
@@ -6665,8 +6653,8 @@
       <c r="X19" t="s">
         <v>122</v>
       </c>
-      <c r="Z19" s="11" t="s">
-        <v>312</v>
+      <c r="Z19" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -6678,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="AF19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG19" t="s">
         <v>71</v>
@@ -6692,20 +6680,20 @@
       <c r="AK19" t="s">
         <v>125</v>
       </c>
-      <c r="AL19" s="12" t="s">
-        <v>455</v>
+      <c r="AL19" s="11" t="s">
+        <v>446</v>
       </c>
       <c r="AM19" t="s">
         <v>76</v>
       </c>
-      <c r="AO19" s="11" t="s">
-        <v>446</v>
+      <c r="AO19" s="10" t="s">
+        <v>437</v>
       </c>
       <c r="AQ19" t="s">
         <v>78</v>
       </c>
       <c r="AU19" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AV19" t="s">
         <v>100</v>
@@ -6714,48 +6702,48 @@
         <v>129</v>
       </c>
       <c r="AX19" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D20" t="s">
         <v>303</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E20">
         <v>2005</v>
       </c>
       <c r="F20" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" t="s">
         <v>305</v>
-      </c>
-      <c r="G20" t="s">
-        <v>306</v>
       </c>
       <c r="H20" t="s">
         <v>265</v>
       </c>
       <c r="I20" t="s">
+        <v>306</v>
+      </c>
+      <c r="J20" t="s">
         <v>307</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>308</v>
-      </c>
-      <c r="K20" t="s">
-        <v>309</v>
       </c>
       <c r="L20" t="s">
         <v>265</v>
       </c>
       <c r="M20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N20" t="s">
         <v>64</v>
@@ -6764,7 +6752,7 @@
         <v>65</v>
       </c>
       <c r="P20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q20" t="s">
         <v>66</v>
@@ -6781,8 +6769,8 @@
       <c r="X20" t="s">
         <v>122</v>
       </c>
-      <c r="Z20" s="11" t="s">
-        <v>312</v>
+      <c r="Z20" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -6794,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="AF20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG20" t="s">
         <v>71</v>
@@ -6808,20 +6796,20 @@
       <c r="AK20" t="s">
         <v>125</v>
       </c>
-      <c r="AL20" s="12" t="s">
-        <v>453</v>
+      <c r="AL20" s="11" t="s">
+        <v>444</v>
       </c>
       <c r="AM20" t="s">
         <v>76</v>
       </c>
-      <c r="AO20" s="11" t="s">
-        <v>446</v>
+      <c r="AO20" s="10" t="s">
+        <v>437</v>
       </c>
       <c r="AQ20" t="s">
         <v>78</v>
       </c>
       <c r="AU20" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AV20" t="s">
         <v>100</v>
@@ -6830,48 +6818,48 @@
         <v>118</v>
       </c>
       <c r="AX20" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" t="s">
         <v>303</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E21">
         <v>2005</v>
       </c>
       <c r="F21" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" t="s">
         <v>305</v>
-      </c>
-      <c r="G21" t="s">
-        <v>306</v>
       </c>
       <c r="H21" t="s">
         <v>265</v>
       </c>
       <c r="I21" t="s">
+        <v>306</v>
+      </c>
+      <c r="J21" t="s">
         <v>307</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>308</v>
-      </c>
-      <c r="K21" t="s">
-        <v>309</v>
       </c>
       <c r="L21" t="s">
         <v>265</v>
       </c>
       <c r="M21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N21" t="s">
         <v>64</v>
@@ -6880,7 +6868,7 @@
         <v>65</v>
       </c>
       <c r="P21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q21" t="s">
         <v>66</v>
@@ -6897,8 +6885,8 @@
       <c r="X21" t="s">
         <v>122</v>
       </c>
-      <c r="Z21" s="11" t="s">
-        <v>312</v>
+      <c r="Z21" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6910,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="AF21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG21" t="s">
         <v>71</v>
@@ -6924,18 +6912,18 @@
       <c r="AK21" t="s">
         <v>125</v>
       </c>
-      <c r="AL21" s="12"/>
+      <c r="AL21" s="11"/>
       <c r="AM21" t="s">
         <v>76</v>
       </c>
-      <c r="AO21" s="11" t="s">
-        <v>446</v>
+      <c r="AO21" s="10" t="s">
+        <v>437</v>
       </c>
       <c r="AQ21" t="s">
         <v>78</v>
       </c>
       <c r="AU21" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AV21" t="s">
         <v>100</v>
@@ -6944,48 +6932,48 @@
         <v>118</v>
       </c>
       <c r="AX21" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" t="s">
         <v>303</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E22">
         <v>2005</v>
       </c>
       <c r="F22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" t="s">
         <v>305</v>
-      </c>
-      <c r="G22" t="s">
-        <v>306</v>
       </c>
       <c r="H22" t="s">
         <v>265</v>
       </c>
       <c r="I22" t="s">
+        <v>306</v>
+      </c>
+      <c r="J22" t="s">
         <v>307</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>308</v>
-      </c>
-      <c r="K22" t="s">
-        <v>309</v>
       </c>
       <c r="L22" t="s">
         <v>265</v>
       </c>
       <c r="M22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N22" t="s">
         <v>64</v>
@@ -6994,7 +6982,7 @@
         <v>65</v>
       </c>
       <c r="P22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q22" t="s">
         <v>66</v>
@@ -7011,8 +6999,8 @@
       <c r="X22" t="s">
         <v>122</v>
       </c>
-      <c r="Z22" s="11" t="s">
-        <v>312</v>
+      <c r="Z22" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7024,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="AF22" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG22" t="s">
         <v>71</v>
@@ -7038,8 +7026,8 @@
       <c r="AK22" t="s">
         <v>125</v>
       </c>
-      <c r="AL22" s="12" t="s">
-        <v>314</v>
+      <c r="AL22" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="AM22" t="s">
         <v>76</v>
@@ -7047,14 +7035,14 @@
       <c r="AN22" t="s">
         <v>77</v>
       </c>
-      <c r="AO22" s="11" t="s">
-        <v>441</v>
+      <c r="AO22" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AQ22" t="s">
         <v>78</v>
       </c>
       <c r="AU22" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AV22" t="s">
         <v>100</v>
@@ -7063,48 +7051,48 @@
         <v>110</v>
       </c>
       <c r="AX22" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" t="s">
         <v>303</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E23">
         <v>2005</v>
       </c>
       <c r="F23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" t="s">
         <v>305</v>
-      </c>
-      <c r="G23" t="s">
-        <v>306</v>
       </c>
       <c r="H23" t="s">
         <v>265</v>
       </c>
       <c r="I23" t="s">
+        <v>306</v>
+      </c>
+      <c r="J23" t="s">
         <v>307</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>308</v>
-      </c>
-      <c r="K23" t="s">
-        <v>309</v>
       </c>
       <c r="L23" t="s">
         <v>265</v>
       </c>
       <c r="M23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N23" t="s">
         <v>64</v>
@@ -7113,7 +7101,7 @@
         <v>65</v>
       </c>
       <c r="P23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q23" t="s">
         <v>66</v>
@@ -7130,8 +7118,8 @@
       <c r="X23" t="s">
         <v>122</v>
       </c>
-      <c r="Z23" s="11" t="s">
-        <v>312</v>
+      <c r="Z23" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -7143,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="AF23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG23" t="s">
         <v>71</v>
@@ -7157,8 +7145,8 @@
       <c r="AK23" t="s">
         <v>125</v>
       </c>
-      <c r="AL23" s="12" t="s">
-        <v>316</v>
+      <c r="AL23" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="AM23" t="s">
         <v>76</v>
@@ -7166,14 +7154,14 @@
       <c r="AN23" t="s">
         <v>77</v>
       </c>
-      <c r="AO23" s="11" t="s">
-        <v>441</v>
+      <c r="AO23" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AQ23" t="s">
         <v>78</v>
       </c>
       <c r="AU23" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AV23" t="s">
         <v>100</v>
@@ -7182,48 +7170,48 @@
         <v>110</v>
       </c>
       <c r="AX23" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" t="s">
         <v>303</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E24">
         <v>2005</v>
       </c>
       <c r="F24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" t="s">
         <v>305</v>
-      </c>
-      <c r="G24" t="s">
-        <v>306</v>
       </c>
       <c r="H24" t="s">
         <v>265</v>
       </c>
       <c r="I24" t="s">
+        <v>306</v>
+      </c>
+      <c r="J24" t="s">
         <v>307</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>308</v>
-      </c>
-      <c r="K24" t="s">
-        <v>309</v>
       </c>
       <c r="L24" t="s">
         <v>265</v>
       </c>
       <c r="M24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N24" t="s">
         <v>64</v>
@@ -7232,7 +7220,7 @@
         <v>65</v>
       </c>
       <c r="P24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q24" t="s">
         <v>66</v>
@@ -7249,8 +7237,8 @@
       <c r="X24" t="s">
         <v>122</v>
       </c>
-      <c r="Z24" s="11" t="s">
-        <v>312</v>
+      <c r="Z24" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -7262,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="AF24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG24" t="s">
         <v>71</v>
@@ -7276,18 +7264,18 @@
       <c r="AK24" t="s">
         <v>125</v>
       </c>
-      <c r="AL24" s="12"/>
+      <c r="AL24" s="11"/>
       <c r="AM24" t="s">
         <v>76</v>
       </c>
-      <c r="AO24" s="11" t="s">
-        <v>441</v>
+      <c r="AO24" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AQ24" t="s">
         <v>78</v>
       </c>
       <c r="AU24" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AV24" t="s">
         <v>100</v>
@@ -7296,48 +7284,48 @@
         <v>82</v>
       </c>
       <c r="AX24" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" t="s">
         <v>303</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E25">
         <v>2005</v>
       </c>
       <c r="F25" t="s">
+        <v>304</v>
+      </c>
+      <c r="G25" t="s">
         <v>305</v>
-      </c>
-      <c r="G25" t="s">
-        <v>306</v>
       </c>
       <c r="H25" t="s">
         <v>265</v>
       </c>
       <c r="I25" t="s">
+        <v>306</v>
+      </c>
+      <c r="J25" t="s">
         <v>307</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>308</v>
-      </c>
-      <c r="K25" t="s">
-        <v>309</v>
       </c>
       <c r="L25" t="s">
         <v>265</v>
       </c>
       <c r="M25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N25" t="s">
         <v>64</v>
@@ -7346,7 +7334,7 @@
         <v>65</v>
       </c>
       <c r="P25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q25" t="s">
         <v>66</v>
@@ -7363,8 +7351,8 @@
       <c r="X25" t="s">
         <v>122</v>
       </c>
-      <c r="Z25" s="11" t="s">
-        <v>447</v>
+      <c r="Z25" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7376,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="AF25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG25" t="s">
         <v>71</v>
@@ -7387,18 +7375,18 @@
       <c r="AK25" t="s">
         <v>125</v>
       </c>
-      <c r="AL25" s="11"/>
+      <c r="AL25" s="10"/>
       <c r="AM25" t="s">
         <v>76</v>
       </c>
-      <c r="AO25" s="11" t="s">
-        <v>441</v>
+      <c r="AO25" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AQ25" t="s">
         <v>78</v>
       </c>
       <c r="AU25" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AV25" t="s">
         <v>100</v>
@@ -7407,48 +7395,48 @@
         <v>82</v>
       </c>
       <c r="AX25" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" t="s">
         <v>303</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E26">
         <v>2005</v>
       </c>
       <c r="F26" t="s">
+        <v>304</v>
+      </c>
+      <c r="G26" t="s">
         <v>305</v>
-      </c>
-      <c r="G26" t="s">
-        <v>306</v>
       </c>
       <c r="H26" t="s">
         <v>265</v>
       </c>
       <c r="I26" t="s">
+        <v>306</v>
+      </c>
+      <c r="J26" t="s">
         <v>307</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>308</v>
-      </c>
-      <c r="K26" t="s">
-        <v>309</v>
       </c>
       <c r="L26" t="s">
         <v>265</v>
       </c>
       <c r="M26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N26" t="s">
         <v>64</v>
@@ -7457,7 +7445,7 @@
         <v>65</v>
       </c>
       <c r="P26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q26" t="s">
         <v>66</v>
@@ -7474,8 +7462,8 @@
       <c r="X26" t="s">
         <v>122</v>
       </c>
-      <c r="Z26" s="11" t="s">
-        <v>447</v>
+      <c r="Z26" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7487,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="AF26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG26" t="s">
         <v>71</v>
@@ -7501,20 +7489,20 @@
       <c r="AK26" t="s">
         <v>125</v>
       </c>
-      <c r="AL26" s="12" t="s">
-        <v>457</v>
+      <c r="AL26" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="AM26" t="s">
         <v>76</v>
       </c>
-      <c r="AO26" s="11" t="s">
-        <v>441</v>
+      <c r="AO26" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AQ26" t="s">
         <v>78</v>
       </c>
       <c r="AU26" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AV26" t="s">
         <v>100</v>
@@ -7523,48 +7511,48 @@
         <v>110</v>
       </c>
       <c r="AX26" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" t="s">
         <v>303</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E27">
         <v>2005</v>
       </c>
       <c r="F27" t="s">
+        <v>304</v>
+      </c>
+      <c r="G27" t="s">
         <v>305</v>
-      </c>
-      <c r="G27" t="s">
-        <v>306</v>
       </c>
       <c r="H27" t="s">
         <v>265</v>
       </c>
       <c r="I27" t="s">
+        <v>306</v>
+      </c>
+      <c r="J27" t="s">
         <v>307</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>308</v>
-      </c>
-      <c r="K27" t="s">
-        <v>309</v>
       </c>
       <c r="L27" t="s">
         <v>265</v>
       </c>
       <c r="M27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N27" t="s">
         <v>64</v>
@@ -7573,7 +7561,7 @@
         <v>65</v>
       </c>
       <c r="P27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q27" t="s">
         <v>66</v>
@@ -7590,8 +7578,8 @@
       <c r="X27" t="s">
         <v>122</v>
       </c>
-      <c r="Z27" s="11" t="s">
-        <v>447</v>
+      <c r="Z27" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7603,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="AF27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG27" t="s">
         <v>71</v>
@@ -7617,20 +7605,20 @@
       <c r="AK27" t="s">
         <v>125</v>
       </c>
-      <c r="AL27" s="12" t="s">
-        <v>454</v>
+      <c r="AL27" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="AM27" t="s">
         <v>76</v>
       </c>
-      <c r="AO27" s="11" t="s">
-        <v>441</v>
+      <c r="AO27" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AQ27" t="s">
         <v>78</v>
       </c>
       <c r="AU27" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AV27" t="s">
         <v>100</v>
@@ -7639,48 +7627,48 @@
         <v>110</v>
       </c>
       <c r="AX27" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" t="s">
         <v>303</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E28">
         <v>2005</v>
       </c>
       <c r="F28" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" t="s">
         <v>305</v>
-      </c>
-      <c r="G28" t="s">
-        <v>306</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="I28" t="s">
+        <v>306</v>
+      </c>
+      <c r="J28" t="s">
         <v>307</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>308</v>
-      </c>
-      <c r="K28" t="s">
-        <v>309</v>
       </c>
       <c r="L28" t="s">
         <v>265</v>
       </c>
       <c r="M28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N28" t="s">
         <v>64</v>
@@ -7689,7 +7677,7 @@
         <v>65</v>
       </c>
       <c r="P28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q28" t="s">
         <v>66</v>
@@ -7706,8 +7694,8 @@
       <c r="X28" t="s">
         <v>70</v>
       </c>
-      <c r="Z28" s="11" t="s">
-        <v>447</v>
+      <c r="Z28" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7719,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="AF28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG28" t="s">
         <v>123</v>
@@ -7733,8 +7721,8 @@
       <c r="AK28" t="s">
         <v>125</v>
       </c>
-      <c r="AL28" s="12" t="s">
-        <v>314</v>
+      <c r="AL28" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="AM28" t="s">
         <v>76</v>
@@ -7742,14 +7730,14 @@
       <c r="AN28" t="s">
         <v>77</v>
       </c>
-      <c r="AO28" s="11" t="s">
-        <v>441</v>
+      <c r="AO28" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AQ28" t="s">
         <v>78</v>
       </c>
       <c r="AU28" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AV28" t="s">
         <v>100</v>
@@ -7757,49 +7745,49 @@
       <c r="AW28" t="s">
         <v>82</v>
       </c>
-      <c r="AX28" s="18" t="s">
-        <v>442</v>
+      <c r="AX28" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" t="s">
         <v>303</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E29">
         <v>2005</v>
       </c>
       <c r="F29" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" t="s">
         <v>305</v>
-      </c>
-      <c r="G29" t="s">
-        <v>306</v>
       </c>
       <c r="H29" t="s">
         <v>265</v>
       </c>
       <c r="I29" t="s">
+        <v>306</v>
+      </c>
+      <c r="J29" t="s">
         <v>307</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>308</v>
-      </c>
-      <c r="K29" t="s">
-        <v>309</v>
       </c>
       <c r="L29" t="s">
         <v>265</v>
       </c>
       <c r="M29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N29" t="s">
         <v>64</v>
@@ -7808,7 +7796,7 @@
         <v>65</v>
       </c>
       <c r="P29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q29" t="s">
         <v>66</v>
@@ -7825,8 +7813,8 @@
       <c r="X29" t="s">
         <v>70</v>
       </c>
-      <c r="Z29" s="11" t="s">
-        <v>447</v>
+      <c r="Z29" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -7838,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="AF29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG29" t="s">
         <v>123</v>
@@ -7852,8 +7840,8 @@
       <c r="AK29" t="s">
         <v>125</v>
       </c>
-      <c r="AL29" s="12" t="s">
-        <v>316</v>
+      <c r="AL29" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="AM29" t="s">
         <v>76</v>
@@ -7861,14 +7849,14 @@
       <c r="AN29" t="s">
         <v>77</v>
       </c>
-      <c r="AO29" s="11" t="s">
-        <v>441</v>
+      <c r="AO29" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AQ29" t="s">
         <v>78</v>
       </c>
       <c r="AU29" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AV29" t="s">
         <v>100</v>
@@ -7876,49 +7864,49 @@
       <c r="AW29" t="s">
         <v>82</v>
       </c>
-      <c r="AX29" s="18" t="s">
-        <v>442</v>
+      <c r="AX29" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" t="s">
+        <v>302</v>
+      </c>
+      <c r="D30" t="s">
         <v>303</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E30">
         <v>2005</v>
       </c>
       <c r="F30" t="s">
+        <v>304</v>
+      </c>
+      <c r="G30" t="s">
         <v>305</v>
-      </c>
-      <c r="G30" t="s">
-        <v>306</v>
       </c>
       <c r="H30" t="s">
         <v>265</v>
       </c>
       <c r="I30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J30" t="s">
         <v>307</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>308</v>
-      </c>
-      <c r="K30" t="s">
-        <v>309</v>
       </c>
       <c r="L30" t="s">
         <v>265</v>
       </c>
       <c r="M30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N30" t="s">
         <v>64</v>
@@ -7927,7 +7915,7 @@
         <v>65</v>
       </c>
       <c r="P30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q30" t="s">
         <v>66</v>
@@ -7944,8 +7932,8 @@
       <c r="X30" t="s">
         <v>70</v>
       </c>
-      <c r="Z30" s="11" t="s">
-        <v>447</v>
+      <c r="Z30" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -7957,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="AF30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG30" t="s">
         <v>123</v>
@@ -7971,20 +7959,20 @@
       <c r="AK30" t="s">
         <v>125</v>
       </c>
-      <c r="AL30" s="12" t="s">
-        <v>444</v>
+      <c r="AL30" s="11" t="s">
+        <v>435</v>
       </c>
       <c r="AM30" t="s">
         <v>76</v>
       </c>
-      <c r="AO30" s="11" t="s">
-        <v>441</v>
+      <c r="AO30" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AQ30" t="s">
         <v>78</v>
       </c>
       <c r="AU30" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AV30" t="s">
         <v>100</v>
@@ -7992,49 +7980,49 @@
       <c r="AW30" t="s">
         <v>82</v>
       </c>
-      <c r="AX30" s="18" t="s">
-        <v>442</v>
+      <c r="AX30" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" t="s">
         <v>303</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E31">
         <v>2005</v>
       </c>
       <c r="F31" t="s">
+        <v>304</v>
+      </c>
+      <c r="G31" t="s">
         <v>305</v>
-      </c>
-      <c r="G31" t="s">
-        <v>306</v>
       </c>
       <c r="H31" t="s">
         <v>265</v>
       </c>
       <c r="I31" t="s">
+        <v>306</v>
+      </c>
+      <c r="J31" t="s">
         <v>307</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>308</v>
-      </c>
-      <c r="K31" t="s">
-        <v>309</v>
       </c>
       <c r="L31" t="s">
         <v>265</v>
       </c>
       <c r="M31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N31" t="s">
         <v>64</v>
@@ -8043,7 +8031,7 @@
         <v>65</v>
       </c>
       <c r="P31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q31" t="s">
         <v>66</v>
@@ -8060,8 +8048,8 @@
       <c r="X31" t="s">
         <v>70</v>
       </c>
-      <c r="Z31" s="11" t="s">
-        <v>447</v>
+      <c r="Z31" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8073,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="AF31" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG31" t="s">
         <v>123</v>
@@ -8084,20 +8072,20 @@
       <c r="AK31" t="s">
         <v>125</v>
       </c>
-      <c r="AL31" s="11" t="s">
-        <v>445</v>
+      <c r="AL31" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="AM31" t="s">
         <v>76</v>
       </c>
-      <c r="AO31" s="11" t="s">
-        <v>441</v>
+      <c r="AO31" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AQ31" t="s">
         <v>78</v>
       </c>
       <c r="AU31" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AV31" t="s">
         <v>100</v>
@@ -8105,49 +8093,49 @@
       <c r="AW31" t="s">
         <v>82</v>
       </c>
-      <c r="AX31" s="18" t="s">
-        <v>442</v>
+      <c r="AX31" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32" t="s">
         <v>303</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E32">
         <v>2005</v>
       </c>
       <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" t="s">
         <v>305</v>
-      </c>
-      <c r="G32" t="s">
-        <v>306</v>
       </c>
       <c r="H32" t="s">
         <v>265</v>
       </c>
       <c r="I32" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" t="s">
         <v>307</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>308</v>
-      </c>
-      <c r="K32" t="s">
-        <v>309</v>
       </c>
       <c r="L32" t="s">
         <v>265</v>
       </c>
       <c r="M32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s">
         <v>64</v>
@@ -8156,7 +8144,7 @@
         <v>65</v>
       </c>
       <c r="P32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q32" t="s">
         <v>66</v>
@@ -8173,8 +8161,8 @@
       <c r="X32" t="s">
         <v>70</v>
       </c>
-      <c r="Z32" s="11" t="s">
-        <v>447</v>
+      <c r="Z32" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8186,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="AF32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG32" t="s">
         <v>123</v>
@@ -8203,8 +8191,8 @@
       <c r="AK32" t="s">
         <v>125</v>
       </c>
-      <c r="AL32" s="11" t="s">
-        <v>443</v>
+      <c r="AL32" s="10" t="s">
+        <v>434</v>
       </c>
       <c r="AM32" t="s">
         <v>76</v>
@@ -8212,14 +8200,14 @@
       <c r="AN32" t="s">
         <v>77</v>
       </c>
-      <c r="AO32" s="11" t="s">
-        <v>441</v>
+      <c r="AO32" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AQ32" t="s">
         <v>78</v>
       </c>
       <c r="AU32" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AV32" t="s">
         <v>100</v>
@@ -8227,49 +8215,49 @@
       <c r="AW32" t="s">
         <v>82</v>
       </c>
-      <c r="AX32" s="18" t="s">
-        <v>442</v>
+      <c r="AX32" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" t="s">
+        <v>302</v>
+      </c>
+      <c r="D33" t="s">
         <v>303</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="E33">
         <v>2005</v>
       </c>
       <c r="F33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" t="s">
         <v>305</v>
-      </c>
-      <c r="G33" t="s">
-        <v>306</v>
       </c>
       <c r="H33" t="s">
         <v>265</v>
       </c>
       <c r="I33" t="s">
+        <v>306</v>
+      </c>
+      <c r="J33" t="s">
         <v>307</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>308</v>
-      </c>
-      <c r="K33" t="s">
-        <v>309</v>
       </c>
       <c r="L33" t="s">
         <v>265</v>
       </c>
       <c r="M33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N33" t="s">
         <v>64</v>
@@ -8278,7 +8266,7 @@
         <v>65</v>
       </c>
       <c r="P33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q33" t="s">
         <v>66</v>
@@ -8295,8 +8283,8 @@
       <c r="X33" t="s">
         <v>122</v>
       </c>
-      <c r="Z33" s="11" t="s">
-        <v>312</v>
+      <c r="Z33" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -8308,7 +8296,7 @@
         <v>1</v>
       </c>
       <c r="AF33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG33" t="s">
         <v>71</v>
@@ -8319,8 +8307,8 @@
       <c r="AK33" t="s">
         <v>125</v>
       </c>
-      <c r="AL33" s="11" t="s">
-        <v>317</v>
+      <c r="AL33" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="AM33" t="s">
         <v>76</v>
@@ -8328,14 +8316,14 @@
       <c r="AN33" t="s">
         <v>77</v>
       </c>
-      <c r="AO33" s="11" t="s">
-        <v>446</v>
+      <c r="AO33" s="10" t="s">
+        <v>437</v>
       </c>
       <c r="AQ33" t="s">
         <v>78</v>
       </c>
       <c r="AU33" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AV33" t="s">
         <v>165</v>
@@ -8343,47 +8331,47 @@
       <c r="AW33" t="s">
         <v>129</v>
       </c>
-      <c r="AX33" s="13"/>
+      <c r="AX33" s="12"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" t="s">
         <v>319</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>320</v>
       </c>
       <c r="E34">
         <v>2017</v>
       </c>
       <c r="F34" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" t="s">
         <v>321</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>322</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>323</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>324</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>325</v>
-      </c>
-      <c r="K34" t="s">
-        <v>326</v>
       </c>
       <c r="L34" t="s">
         <v>265</v>
       </c>
       <c r="M34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N34" t="s">
         <v>64</v>
@@ -8416,10 +8404,10 @@
         <v>122</v>
       </c>
       <c r="Y34" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z34" s="11" t="s">
         <v>329</v>
+      </c>
+      <c r="Z34" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -8431,10 +8419,10 @@
         <v>3</v>
       </c>
       <c r="AF34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AH34" t="s">
         <v>162</v>
@@ -8445,7 +8433,7 @@
       <c r="AK34" t="s">
         <v>75</v>
       </c>
-      <c r="AL34" s="12" t="s">
+      <c r="AL34" s="11" t="s">
         <v>299</v>
       </c>
       <c r="AM34" t="s">
@@ -8454,8 +8442,8 @@
       <c r="AN34" t="s">
         <v>77</v>
       </c>
-      <c r="AO34" s="11" t="s">
-        <v>332</v>
+      <c r="AO34" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="AQ34" t="s">
         <v>78</v>
@@ -8467,7 +8455,7 @@
         <v>84</v>
       </c>
       <c r="AU34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AV34" t="s">
         <v>100</v>
@@ -8475,49 +8463,49 @@
       <c r="AW34" t="s">
         <v>110</v>
       </c>
-      <c r="AX34" s="13" t="s">
-        <v>428</v>
+      <c r="AX34" s="12" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" t="s">
         <v>319</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>320</v>
       </c>
       <c r="E35">
         <v>2017</v>
       </c>
       <c r="F35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" t="s">
         <v>321</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>322</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>323</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>324</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>325</v>
-      </c>
-      <c r="K35" t="s">
-        <v>326</v>
       </c>
       <c r="L35" t="s">
         <v>265</v>
       </c>
       <c r="M35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s">
         <v>64</v>
@@ -8550,10 +8538,10 @@
         <v>122</v>
       </c>
       <c r="Y35" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z35" s="11" t="s">
         <v>329</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -8565,10 +8553,10 @@
         <v>3</v>
       </c>
       <c r="AF35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AH35" t="s">
         <v>162</v>
@@ -8579,7 +8567,7 @@
       <c r="AK35" t="s">
         <v>75</v>
       </c>
-      <c r="AL35" s="12" t="s">
+      <c r="AL35" s="11" t="s">
         <v>299</v>
       </c>
       <c r="AM35" t="s">
@@ -8588,8 +8576,8 @@
       <c r="AN35" t="s">
         <v>77</v>
       </c>
-      <c r="AO35" s="11" t="s">
-        <v>332</v>
+      <c r="AO35" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="AQ35" t="s">
         <v>78</v>
@@ -8601,7 +8589,7 @@
         <v>85</v>
       </c>
       <c r="AU35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AV35" t="s">
         <v>100</v>
@@ -8609,49 +8597,49 @@
       <c r="AW35" t="s">
         <v>110</v>
       </c>
-      <c r="AX35" s="13" t="s">
-        <v>428</v>
+      <c r="AX35" s="12" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" t="s">
+        <v>318</v>
+      </c>
+      <c r="D36" t="s">
         <v>319</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>320</v>
       </c>
       <c r="E36">
         <v>2017</v>
       </c>
       <c r="F36" t="s">
+        <v>320</v>
+      </c>
+      <c r="G36" t="s">
         <v>321</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>322</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>323</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>324</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>325</v>
-      </c>
-      <c r="K36" t="s">
-        <v>326</v>
       </c>
       <c r="L36" t="s">
         <v>265</v>
       </c>
       <c r="M36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N36" t="s">
         <v>64</v>
@@ -8680,14 +8668,14 @@
       <c r="W36" t="s">
         <v>114</v>
       </c>
-      <c r="X36" s="15" t="s">
+      <c r="X36" t="s">
         <v>122</v>
       </c>
       <c r="Y36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z36" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
+      </c>
+      <c r="Z36" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -8699,10 +8687,10 @@
         <v>3</v>
       </c>
       <c r="AE36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s">
         <v>71</v>
@@ -8716,7 +8704,7 @@
       <c r="AK36" t="s">
         <v>108</v>
       </c>
-      <c r="AL36" s="12" t="s">
+      <c r="AL36" s="11" t="s">
         <v>299</v>
       </c>
       <c r="AM36" t="s">
@@ -8725,8 +8713,8 @@
       <c r="AN36" t="s">
         <v>77</v>
       </c>
-      <c r="AO36" s="11" t="s">
-        <v>333</v>
+      <c r="AO36" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="AQ36" t="s">
         <v>78</v>
@@ -8738,10 +8726,10 @@
         <v>84</v>
       </c>
       <c r="AT36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AU36" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AV36" t="s">
         <v>81</v>
@@ -8749,49 +8737,49 @@
       <c r="AW36" t="s">
         <v>118</v>
       </c>
-      <c r="AX36" s="13" t="s">
-        <v>335</v>
+      <c r="AX36" s="12" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" t="s">
         <v>319</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>320</v>
       </c>
       <c r="E37">
         <v>2017</v>
       </c>
       <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
         <v>321</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>322</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>323</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>324</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>325</v>
-      </c>
-      <c r="K37" t="s">
-        <v>326</v>
       </c>
       <c r="L37" t="s">
         <v>265</v>
       </c>
       <c r="M37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s">
         <v>64</v>
@@ -8820,14 +8808,14 @@
       <c r="W37" t="s">
         <v>105</v>
       </c>
-      <c r="X37" s="15" t="s">
+      <c r="X37" t="s">
         <v>122</v>
       </c>
       <c r="Y37" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z37" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -8839,10 +8827,10 @@
         <v>3</v>
       </c>
       <c r="AE37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s">
         <v>71</v>
@@ -8856,7 +8844,7 @@
       <c r="AK37" t="s">
         <v>108</v>
       </c>
-      <c r="AL37" s="12" t="s">
+      <c r="AL37" s="11" t="s">
         <v>299</v>
       </c>
       <c r="AM37" t="s">
@@ -8865,8 +8853,8 @@
       <c r="AN37" t="s">
         <v>77</v>
       </c>
-      <c r="AO37" s="11" t="s">
-        <v>333</v>
+      <c r="AO37" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="AQ37" t="s">
         <v>78</v>
@@ -8878,10 +8866,10 @@
         <v>85</v>
       </c>
       <c r="AT37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AU37" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AV37" t="s">
         <v>81</v>
@@ -8889,49 +8877,49 @@
       <c r="AW37" t="s">
         <v>118</v>
       </c>
-      <c r="AX37" s="13" t="s">
-        <v>335</v>
+      <c r="AX37" s="12" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>341</v>
       </c>
       <c r="E38">
         <v>2021</v>
       </c>
       <c r="F38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G38" t="s">
+        <v>341</v>
+      </c>
+      <c r="H38" t="s">
         <v>342</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>343</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>344</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>345</v>
-      </c>
-      <c r="K38" t="s">
-        <v>346</v>
       </c>
       <c r="L38" t="s">
         <v>265</v>
       </c>
       <c r="M38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N38" t="s">
         <v>64</v>
@@ -8960,8 +8948,8 @@
       <c r="X38" t="s">
         <v>122</v>
       </c>
-      <c r="Z38" s="11" t="s">
-        <v>351</v>
+      <c r="Z38" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -8969,11 +8957,11 @@
       <c r="AB38">
         <v>2</v>
       </c>
-      <c r="AC38" s="15">
+      <c r="AC38">
         <v>3</v>
       </c>
       <c r="AF38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s">
         <v>71</v>
@@ -8981,8 +8969,8 @@
       <c r="AH38" t="s">
         <v>124</v>
       </c>
-      <c r="AL38" s="12" t="s">
-        <v>348</v>
+      <c r="AL38" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="AM38" t="s">
         <v>76</v>
@@ -8990,8 +8978,8 @@
       <c r="AN38" t="s">
         <v>77</v>
       </c>
-      <c r="AO38" s="11" t="s">
-        <v>349</v>
+      <c r="AO38" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="AQ38" t="s">
         <v>78</v>
@@ -9003,7 +8991,7 @@
         <v>84</v>
       </c>
       <c r="AT38" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AU38" t="s">
         <v>300</v>
@@ -9014,49 +9002,49 @@
       <c r="AW38" t="s">
         <v>129</v>
       </c>
-      <c r="AX38" s="13" t="s">
-        <v>413</v>
+      <c r="AX38" s="12" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>341</v>
       </c>
       <c r="E39">
         <v>2021</v>
       </c>
       <c r="F39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G39" t="s">
+        <v>341</v>
+      </c>
+      <c r="H39" t="s">
         <v>342</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>343</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>344</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>345</v>
-      </c>
-      <c r="K39" t="s">
-        <v>346</v>
       </c>
       <c r="L39" t="s">
         <v>265</v>
       </c>
       <c r="M39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N39" t="s">
         <v>64</v>
@@ -9085,8 +9073,8 @@
       <c r="X39" t="s">
         <v>122</v>
       </c>
-      <c r="Z39" s="11" t="s">
-        <v>351</v>
+      <c r="Z39" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -9094,11 +9082,11 @@
       <c r="AB39">
         <v>2</v>
       </c>
-      <c r="AC39" s="15">
+      <c r="AC39">
         <v>3</v>
       </c>
       <c r="AF39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s">
         <v>71</v>
@@ -9106,8 +9094,8 @@
       <c r="AH39" t="s">
         <v>124</v>
       </c>
-      <c r="AL39" s="12" t="s">
-        <v>348</v>
+      <c r="AL39" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="AM39" t="s">
         <v>76</v>
@@ -9115,8 +9103,8 @@
       <c r="AN39" t="s">
         <v>77</v>
       </c>
-      <c r="AO39" s="11" t="s">
-        <v>349</v>
+      <c r="AO39" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="AQ39" t="s">
         <v>78</v>
@@ -9128,7 +9116,7 @@
         <v>84</v>
       </c>
       <c r="AT39" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AU39" t="s">
         <v>300</v>
@@ -9139,49 +9127,49 @@
       <c r="AW39" t="s">
         <v>129</v>
       </c>
-      <c r="AX39" s="13" t="s">
-        <v>414</v>
+      <c r="AX39" s="12" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>341</v>
       </c>
       <c r="E40">
         <v>2021</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G40" t="s">
+        <v>341</v>
+      </c>
+      <c r="H40" t="s">
         <v>342</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>343</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>344</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>345</v>
-      </c>
-      <c r="K40" t="s">
-        <v>346</v>
       </c>
       <c r="L40" t="s">
         <v>265</v>
       </c>
       <c r="M40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N40" t="s">
         <v>64</v>
@@ -9210,8 +9198,8 @@
       <c r="X40" t="s">
         <v>122</v>
       </c>
-      <c r="Z40" s="11" t="s">
-        <v>351</v>
+      <c r="Z40" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -9219,11 +9207,11 @@
       <c r="AB40">
         <v>2</v>
       </c>
-      <c r="AC40" s="15">
+      <c r="AC40">
         <v>3</v>
       </c>
       <c r="AF40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s">
         <v>71</v>
@@ -9231,8 +9219,8 @@
       <c r="AH40" t="s">
         <v>124</v>
       </c>
-      <c r="AL40" s="12" t="s">
-        <v>348</v>
+      <c r="AL40" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="AM40" t="s">
         <v>76</v>
@@ -9240,8 +9228,8 @@
       <c r="AN40" t="s">
         <v>77</v>
       </c>
-      <c r="AO40" s="11" t="s">
-        <v>349</v>
+      <c r="AO40" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="AQ40" t="s">
         <v>78</v>
@@ -9253,7 +9241,7 @@
         <v>84</v>
       </c>
       <c r="AT40" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AU40" t="s">
         <v>300</v>
@@ -9264,49 +9252,49 @@
       <c r="AW40" t="s">
         <v>129</v>
       </c>
-      <c r="AX40" s="13" t="s">
-        <v>350</v>
+      <c r="AX40" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>341</v>
       </c>
       <c r="E41">
         <v>2021</v>
       </c>
       <c r="F41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
+        <v>341</v>
+      </c>
+      <c r="H41" t="s">
         <v>342</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>343</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>344</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>345</v>
-      </c>
-      <c r="K41" t="s">
-        <v>346</v>
       </c>
       <c r="L41" t="s">
         <v>265</v>
       </c>
       <c r="M41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N41" t="s">
         <v>64</v>
@@ -9335,8 +9323,8 @@
       <c r="X41" t="s">
         <v>122</v>
       </c>
-      <c r="Z41" s="11" t="s">
-        <v>351</v>
+      <c r="Z41" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="AA41">
         <v>2</v>
@@ -9344,11 +9332,11 @@
       <c r="AB41">
         <v>2</v>
       </c>
-      <c r="AC41" s="15">
+      <c r="AC41">
         <v>3</v>
       </c>
       <c r="AF41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG41" t="s">
         <v>71</v>
@@ -9356,8 +9344,8 @@
       <c r="AH41" t="s">
         <v>124</v>
       </c>
-      <c r="AL41" s="12" t="s">
-        <v>348</v>
+      <c r="AL41" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="AM41" t="s">
         <v>76</v>
@@ -9365,8 +9353,8 @@
       <c r="AN41" t="s">
         <v>77</v>
       </c>
-      <c r="AO41" s="11" t="s">
-        <v>349</v>
+      <c r="AO41" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="AQ41" t="s">
         <v>78</v>
@@ -9378,7 +9366,7 @@
         <v>84</v>
       </c>
       <c r="AT41" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AU41" t="s">
         <v>300</v>
@@ -9389,49 +9377,49 @@
       <c r="AW41" t="s">
         <v>129</v>
       </c>
-      <c r="AX41" s="13" t="s">
-        <v>415</v>
+      <c r="AX41" s="12" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" t="s">
+        <v>352</v>
+      </c>
+      <c r="D42" t="s">
         <v>353</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>354</v>
       </c>
       <c r="E42">
         <v>2018</v>
       </c>
       <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" t="s">
         <v>355</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>356</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>357</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>358</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>359</v>
-      </c>
-      <c r="K42" t="s">
-        <v>360</v>
       </c>
       <c r="L42" t="s">
         <v>265</v>
       </c>
       <c r="M42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s">
         <v>64</v>
@@ -9460,11 +9448,11 @@
       <c r="X42" t="s">
         <v>70</v>
       </c>
-      <c r="Z42" s="11" t="s">
-        <v>424</v>
+      <c r="Z42" s="10" t="s">
+        <v>415</v>
       </c>
       <c r="AF42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG42" t="s">
         <v>123</v>
@@ -9475,15 +9463,15 @@
       <c r="AI42" t="s">
         <v>217</v>
       </c>
-      <c r="AL42" s="12"/>
+      <c r="AL42" s="11"/>
       <c r="AM42" t="s">
         <v>76</v>
       </c>
       <c r="AN42" t="s">
         <v>199</v>
       </c>
-      <c r="AO42" s="11" t="s">
-        <v>429</v>
+      <c r="AO42" s="10" t="s">
+        <v>420</v>
       </c>
       <c r="AQ42" t="s">
         <v>78</v>
@@ -9495,7 +9483,7 @@
         <v>80</v>
       </c>
       <c r="AU42" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="AV42" t="s">
         <v>186</v>
@@ -9503,49 +9491,49 @@
       <c r="AW42" t="s">
         <v>129</v>
       </c>
-      <c r="AX42" s="13" t="s">
-        <v>366</v>
+      <c r="AX42" s="12" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D43" t="s">
         <v>353</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>354</v>
       </c>
       <c r="E43">
         <v>2018</v>
       </c>
       <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
         <v>355</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>356</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>357</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>358</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>359</v>
-      </c>
-      <c r="K43" t="s">
-        <v>360</v>
       </c>
       <c r="L43" t="s">
         <v>265</v>
       </c>
       <c r="M43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N43" t="s">
         <v>64</v>
@@ -9574,11 +9562,11 @@
       <c r="X43" t="s">
         <v>70</v>
       </c>
-      <c r="Z43" s="11" t="s">
-        <v>424</v>
+      <c r="Z43" s="10" t="s">
+        <v>415</v>
       </c>
       <c r="AF43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s">
         <v>123</v>
@@ -9589,8 +9577,8 @@
       <c r="AI43" t="s">
         <v>206</v>
       </c>
-      <c r="AL43" s="12" t="s">
-        <v>362</v>
+      <c r="AL43" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="AM43" t="s">
         <v>76</v>
@@ -9598,8 +9586,8 @@
       <c r="AN43" t="s">
         <v>199</v>
       </c>
-      <c r="AO43" s="11" t="s">
-        <v>429</v>
+      <c r="AO43" s="10" t="s">
+        <v>420</v>
       </c>
       <c r="AQ43" t="s">
         <v>78</v>
@@ -9611,7 +9599,7 @@
         <v>80</v>
       </c>
       <c r="AU43" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AV43" t="s">
         <v>186</v>
@@ -9619,49 +9607,49 @@
       <c r="AW43" t="s">
         <v>118</v>
       </c>
-      <c r="AX43" s="13" t="s">
-        <v>365</v>
+      <c r="AX43" s="12" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" t="s">
+        <v>352</v>
+      </c>
+      <c r="D44" t="s">
         <v>353</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>354</v>
       </c>
       <c r="E44">
         <v>2018</v>
       </c>
       <c r="F44" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" t="s">
         <v>355</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>356</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>357</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>358</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>359</v>
-      </c>
-      <c r="K44" t="s">
-        <v>360</v>
       </c>
       <c r="L44" t="s">
         <v>265</v>
       </c>
       <c r="M44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N44" t="s">
         <v>64</v>
@@ -9690,11 +9678,11 @@
       <c r="X44" t="s">
         <v>70</v>
       </c>
-      <c r="Z44" s="11" t="s">
-        <v>424</v>
+      <c r="Z44" s="10" t="s">
+        <v>415</v>
       </c>
       <c r="AF44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s">
         <v>123</v>
@@ -9702,8 +9690,8 @@
       <c r="AH44" t="s">
         <v>155</v>
       </c>
-      <c r="AL44" s="11" t="s">
-        <v>420</v>
+      <c r="AL44" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="AM44" t="s">
         <v>76</v>
@@ -9711,8 +9699,8 @@
       <c r="AN44" t="s">
         <v>199</v>
       </c>
-      <c r="AO44" s="11" t="s">
-        <v>429</v>
+      <c r="AO44" s="10" t="s">
+        <v>420</v>
       </c>
       <c r="AQ44" t="s">
         <v>78</v>
@@ -9724,7 +9712,7 @@
         <v>80</v>
       </c>
       <c r="AU44" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="AV44" t="s">
         <v>186</v>
@@ -9732,49 +9720,49 @@
       <c r="AW44" t="s">
         <v>118</v>
       </c>
-      <c r="AX44" s="13" t="s">
-        <v>421</v>
+      <c r="AX44" s="12" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" t="s">
+        <v>352</v>
+      </c>
+      <c r="D45" t="s">
         <v>353</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>354</v>
       </c>
       <c r="E45">
         <v>2018</v>
       </c>
       <c r="F45" t="s">
+        <v>354</v>
+      </c>
+      <c r="G45" t="s">
         <v>355</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>356</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>357</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>358</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>359</v>
-      </c>
-      <c r="K45" t="s">
-        <v>360</v>
       </c>
       <c r="L45" t="s">
         <v>265</v>
       </c>
       <c r="M45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N45" t="s">
         <v>64</v>
@@ -9803,11 +9791,11 @@
       <c r="X45" t="s">
         <v>70</v>
       </c>
-      <c r="Z45" s="11" t="s">
-        <v>424</v>
+      <c r="Z45" s="10" t="s">
+        <v>415</v>
       </c>
       <c r="AF45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG45" t="s">
         <v>123</v>
@@ -9821,8 +9809,8 @@
       <c r="AJ45" t="s">
         <v>154</v>
       </c>
-      <c r="AL45" s="11" t="s">
-        <v>363</v>
+      <c r="AL45" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="AM45" t="s">
         <v>76</v>
@@ -9830,8 +9818,8 @@
       <c r="AN45" t="s">
         <v>199</v>
       </c>
-      <c r="AO45" s="11" t="s">
-        <v>429</v>
+      <c r="AO45" s="10" t="s">
+        <v>420</v>
       </c>
       <c r="AQ45" t="s">
         <v>78</v>
@@ -9843,7 +9831,7 @@
         <v>80</v>
       </c>
       <c r="AU45" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AV45" t="s">
         <v>186</v>
@@ -9852,48 +9840,48 @@
         <v>118</v>
       </c>
       <c r="AX45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" t="s">
+        <v>367</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>368</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>369</v>
       </c>
       <c r="E46">
         <v>2020</v>
       </c>
       <c r="F46" t="s">
+        <v>369</v>
+      </c>
+      <c r="G46" t="s">
         <v>370</v>
-      </c>
-      <c r="G46" t="s">
-        <v>371</v>
       </c>
       <c r="H46" t="s">
         <v>294</v>
       </c>
       <c r="I46" t="s">
+        <v>371</v>
+      </c>
+      <c r="J46" t="s">
         <v>372</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>373</v>
-      </c>
-      <c r="K46" t="s">
-        <v>374</v>
       </c>
       <c r="L46" t="s">
         <v>265</v>
       </c>
       <c r="M46" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N46" t="s">
         <v>64</v>
@@ -9920,13 +9908,13 @@
         <v>154</v>
       </c>
       <c r="Y46" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="Z46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG46" t="s">
         <v>71</v>
@@ -9937,8 +9925,8 @@
       <c r="AK46" t="s">
         <v>75</v>
       </c>
-      <c r="AL46" s="12" t="s">
-        <v>386</v>
+      <c r="AL46" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="AM46" t="s">
         <v>76</v>
@@ -9946,8 +9934,8 @@
       <c r="AN46" t="s">
         <v>77</v>
       </c>
-      <c r="AO46" s="11" t="s">
-        <v>387</v>
+      <c r="AO46" s="10" t="s">
+        <v>386</v>
       </c>
       <c r="AQ46" t="s">
         <v>78</v>
@@ -9959,7 +9947,7 @@
         <v>84</v>
       </c>
       <c r="AU46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AV46" t="s">
         <v>100</v>
@@ -9967,34 +9955,34 @@
       <c r="AW46" t="s">
         <v>110</v>
       </c>
-      <c r="AX46" s="13" t="s">
-        <v>389</v>
+      <c r="AX46" s="12" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" t="s">
+        <v>376</v>
+      </c>
+      <c r="D47" t="s">
         <v>377</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>378</v>
       </c>
       <c r="E47">
         <v>2020</v>
       </c>
       <c r="F47" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" t="s">
         <v>379</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>380</v>
-      </c>
-      <c r="H47" t="s">
-        <v>381</v>
       </c>
       <c r="I47" t="s">
         <v>265</v>
@@ -10003,13 +9991,13 @@
         <v>265</v>
       </c>
       <c r="K47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s">
         <v>265</v>
       </c>
       <c r="M47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N47" t="s">
         <v>64</v>
@@ -10018,7 +10006,7 @@
         <v>65</v>
       </c>
       <c r="P47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q47" t="s">
         <v>66</v>
@@ -10042,7 +10030,7 @@
         <v>122</v>
       </c>
       <c r="Z47" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AA47">
         <v>2</v>
@@ -10054,7 +10042,7 @@
         <v>3</v>
       </c>
       <c r="AF47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG47" t="s">
         <v>71</v>
@@ -10068,8 +10056,8 @@
       <c r="AK47" t="s">
         <v>125</v>
       </c>
-      <c r="AL47" s="12" t="s">
-        <v>395</v>
+      <c r="AL47" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="AM47" t="s">
         <v>76</v>
@@ -10077,8 +10065,8 @@
       <c r="AN47" t="s">
         <v>195</v>
       </c>
-      <c r="AO47" s="11" t="s">
-        <v>391</v>
+      <c r="AO47" s="10" t="s">
+        <v>451</v>
       </c>
       <c r="AQ47" t="s">
         <v>78</v>
@@ -10087,45 +10075,45 @@
         <v>200</v>
       </c>
       <c r="AT47" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AU47" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="AV47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW47" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW47" t="s">
         <v>82</v>
       </c>
-      <c r="AX47" s="13" t="s">
-        <v>400</v>
+      <c r="AX47" s="12" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" t="s">
+        <v>376</v>
+      </c>
+      <c r="D48" t="s">
         <v>377</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>378</v>
       </c>
       <c r="E48">
         <v>2020</v>
       </c>
       <c r="F48" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" t="s">
         <v>379</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>380</v>
-      </c>
-      <c r="H48" t="s">
-        <v>381</v>
       </c>
       <c r="I48" t="s">
         <v>265</v>
@@ -10134,13 +10122,13 @@
         <v>265</v>
       </c>
       <c r="K48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s">
         <v>265</v>
       </c>
       <c r="M48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N48" t="s">
         <v>64</v>
@@ -10149,7 +10137,7 @@
         <v>65</v>
       </c>
       <c r="P48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q48" t="s">
         <v>66</v>
@@ -10173,7 +10161,7 @@
         <v>122</v>
       </c>
       <c r="Z48" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -10185,22 +10173,19 @@
         <v>3</v>
       </c>
       <c r="AF48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG48" t="s">
         <v>71</v>
       </c>
       <c r="AH48" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="AK48" t="s">
         <v>125</v>
       </c>
-      <c r="AL48" s="12" t="s">
-        <v>395</v>
+      <c r="AL48" s="11" t="s">
+        <v>452</v>
       </c>
       <c r="AM48" t="s">
         <v>76</v>
@@ -10208,298 +10193,36 @@
       <c r="AN48" t="s">
         <v>195</v>
       </c>
-      <c r="AO48" s="11" t="s">
-        <v>391</v>
+      <c r="AO48" s="10" t="s">
+        <v>451</v>
       </c>
       <c r="AQ48" t="s">
         <v>78</v>
       </c>
       <c r="AR48" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS48" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AT48" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AU48" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="AV48" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW48" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX48" s="13" t="s">
-        <v>399</v>
+        <v>100</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX48" s="12" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>376</v>
-      </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="E49">
-        <v>2020</v>
-      </c>
-      <c r="F49" t="s">
-        <v>379</v>
-      </c>
-      <c r="G49" t="s">
-        <v>380</v>
-      </c>
-      <c r="H49" t="s">
-        <v>381</v>
-      </c>
-      <c r="I49" t="s">
-        <v>265</v>
-      </c>
-      <c r="J49" t="s">
-        <v>265</v>
-      </c>
-      <c r="K49" t="s">
-        <v>382</v>
-      </c>
-      <c r="L49" t="s">
-        <v>265</v>
-      </c>
-      <c r="M49" t="s">
-        <v>383</v>
-      </c>
-      <c r="N49" t="s">
-        <v>64</v>
-      </c>
-      <c r="O49" t="s">
-        <v>65</v>
-      </c>
-      <c r="P49" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>66</v>
-      </c>
-      <c r="S49" t="s">
-        <v>67</v>
-      </c>
-      <c r="T49" t="s">
-        <v>68</v>
-      </c>
-      <c r="U49" t="s">
-        <v>175</v>
-      </c>
-      <c r="V49" t="s">
-        <v>142</v>
-      </c>
-      <c r="W49" t="s">
-        <v>168</v>
-      </c>
-      <c r="X49" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA49">
-        <v>2</v>
-      </c>
-      <c r="AB49">
-        <v>2</v>
-      </c>
-      <c r="AC49">
-        <v>3</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>313</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL49" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO49" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AQ49" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR49" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT49" t="s">
-        <v>392</v>
-      </c>
-      <c r="AU49" t="s">
-        <v>401</v>
-      </c>
-      <c r="AV49" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW49" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX49" t="s">
-        <v>397</v>
-      </c>
+    <row r="49" spans="50:50" x14ac:dyDescent="0.35">
+      <c r="AX49" s="12"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>376</v>
-      </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="E50">
-        <v>2020</v>
-      </c>
-      <c r="F50" t="s">
-        <v>379</v>
-      </c>
-      <c r="G50" t="s">
-        <v>380</v>
-      </c>
-      <c r="H50" t="s">
-        <v>381</v>
-      </c>
-      <c r="I50" t="s">
-        <v>265</v>
-      </c>
-      <c r="J50" t="s">
-        <v>265</v>
-      </c>
-      <c r="K50" t="s">
-        <v>382</v>
-      </c>
-      <c r="L50" t="s">
-        <v>265</v>
-      </c>
-      <c r="M50" t="s">
-        <v>383</v>
-      </c>
-      <c r="N50" t="s">
-        <v>64</v>
-      </c>
-      <c r="O50" t="s">
-        <v>65</v>
-      </c>
-      <c r="P50" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>66</v>
-      </c>
-      <c r="S50" t="s">
-        <v>67</v>
-      </c>
-      <c r="T50" t="s">
-        <v>68</v>
-      </c>
-      <c r="U50" t="s">
-        <v>175</v>
-      </c>
-      <c r="V50" t="s">
-        <v>142</v>
-      </c>
-      <c r="W50" t="s">
-        <v>168</v>
-      </c>
-      <c r="X50" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA50">
-        <v>2</v>
-      </c>
-      <c r="AB50">
-        <v>2</v>
-      </c>
-      <c r="AC50">
-        <v>3</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>313</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK50" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL50" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO50" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AQ50" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR50" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT50" t="s">
-        <v>390</v>
-      </c>
-      <c r="AU50" t="s">
-        <v>401</v>
-      </c>
-      <c r="AV50" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW50" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX50" s="13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="AX51" s="13"/>
-    </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="AX52" s="13"/>
+    <row r="50" spans="50:50" x14ac:dyDescent="0.35">
+      <c r="AX50" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10533,7 +10256,7 @@
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AG36:AG1048576 AG3:AG33</xm:sqref>
+          <xm:sqref>AG3:AG33 AG36:AG1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84FB6C9D-6663-48D4-B8D6-1FA5BD04B6AD}">
           <x14:formula1>
@@ -10650,64 +10373,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="25" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="23" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="24" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
       <c r="AM1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="AN1" s="9"/>
       <c r="AO1" s="9"/>
       <c r="AP1" s="9"/>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
       <c r="AU1" s="8" t="s">
         <v>6</v>
       </c>
@@ -11217,7 +10940,7 @@
         <v>161</v>
       </c>
       <c r="AG10" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AH10" t="s">
         <v>162</v>
@@ -11748,51 +11471,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="23" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
       <c r="V1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="21" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -12753,13 +12476,13 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Lefkaditou_Chatzispyrou.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5864ADB3-D520-4544-9739-53EA0658D082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4C3882-E257-42A4-A63C-21B852BBE327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="457">
   <si>
     <t>Bibliographic Data</t>
   </si>
@@ -3733,10 +3733,6 @@
     <t>Closed area</t>
   </si>
   <si>
-    <t>The main fish species groups that gain benefit from the trawl exclusion
-are elasmobranchs (catshark and rays), small demersal fish (e.g. Pagellus, Boops), benthic fish (mullet, gurnards and great weever). Also, benthic cephalopods (octopus and white octopus) and other invertebrates (sea urchins) groups show major increases in the level of biomass in the Llanes closed area after closure to trawl operations.</t>
-  </si>
-  <si>
     <t>Echinoidea</t>
   </si>
   <si>
@@ -3823,6 +3819,12 @@
   <si>
     <t>Trawlers have a large impact in sea turtles in the Gulf of Gabes. Although the catch rate is high, the recorded mortality (direct and potential) shows quite a low number of deaths in comparison with other regions in the Mediterranean (14.3% in north Adriatic) and in the world (29% in the Gulf
 of Mexico and 45% in Florida) .</t>
+  </si>
+  <si>
+    <t>the trawl exclusion in this area reduces the biomass of small pelagic fish (anchovy and sardine), blue whiting (more pressure from predators), megrim and values for discards</t>
+  </si>
+  <si>
+    <t>The main fish species groups that gain benefit from the trawl exclusion are elasmobranchs (catshark and rays), small demersal fish (e.g. Pagellus, Boops), benthic fish (mullet, gurnards and great weever). Also, benthic cephalopods (octopus and white octopus) and other invertebrates (sea urchins) groups show major increases in the level of biomass in the Llanes closed area after closure to trawl operations.</t>
   </si>
 </sst>
 </file>
@@ -4003,7 +4005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4051,7 +4053,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4339,11 +4340,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AJ12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="AI13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW50" sqref="AW50"/>
+      <selection pane="bottomRight" activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5839,7 +5840,7 @@
         <v>80</v>
       </c>
       <c r="AU12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AV12" t="s">
         <v>81</v>
@@ -5847,8 +5848,8 @@
       <c r="AW12" t="s">
         <v>82</v>
       </c>
-      <c r="AX12" s="23" t="s">
-        <v>455</v>
+      <c r="AX12" s="12" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
@@ -6452,13 +6453,13 @@
         <v>77</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AQ17" t="s">
         <v>78</v>
       </c>
       <c r="AU17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV17" t="s">
         <v>100</v>
@@ -6467,7 +6468,7 @@
         <v>110</v>
       </c>
       <c r="AX17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
@@ -6571,13 +6572,13 @@
         <v>77</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AQ18" t="s">
         <v>78</v>
       </c>
       <c r="AU18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV18" t="s">
         <v>100</v>
@@ -6586,7 +6587,7 @@
         <v>110</v>
       </c>
       <c r="AX18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
@@ -6681,19 +6682,19 @@
         <v>125</v>
       </c>
       <c r="AL19" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM19" t="s">
         <v>76</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AQ19" t="s">
         <v>78</v>
       </c>
       <c r="AU19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV19" t="s">
         <v>100</v>
@@ -6702,7 +6703,7 @@
         <v>129</v>
       </c>
       <c r="AX19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.35">
@@ -6797,19 +6798,19 @@
         <v>125</v>
       </c>
       <c r="AL20" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AM20" t="s">
         <v>76</v>
       </c>
       <c r="AO20" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AQ20" t="s">
         <v>78</v>
       </c>
       <c r="AU20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV20" t="s">
         <v>100</v>
@@ -6818,7 +6819,7 @@
         <v>118</v>
       </c>
       <c r="AX20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
@@ -6917,13 +6918,13 @@
         <v>76</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AQ21" t="s">
         <v>78</v>
       </c>
       <c r="AU21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV21" t="s">
         <v>100</v>
@@ -6932,7 +6933,7 @@
         <v>118</v>
       </c>
       <c r="AX21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
@@ -7042,16 +7043,16 @@
         <v>78</v>
       </c>
       <c r="AU22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV22" t="s">
         <v>100</v>
       </c>
       <c r="AW22" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="AX22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
@@ -7161,16 +7162,16 @@
         <v>78</v>
       </c>
       <c r="AU23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV23" t="s">
         <v>100</v>
       </c>
       <c r="AW23" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="AX23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
@@ -7275,7 +7276,7 @@
         <v>78</v>
       </c>
       <c r="AU24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV24" t="s">
         <v>100</v>
@@ -7284,7 +7285,7 @@
         <v>82</v>
       </c>
       <c r="AX24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
@@ -7352,7 +7353,7 @@
         <v>122</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7386,7 +7387,7 @@
         <v>78</v>
       </c>
       <c r="AU25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV25" t="s">
         <v>100</v>
@@ -7395,7 +7396,7 @@
         <v>82</v>
       </c>
       <c r="AX25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
@@ -7463,7 +7464,7 @@
         <v>122</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7490,7 +7491,7 @@
         <v>125</v>
       </c>
       <c r="AL26" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM26" t="s">
         <v>76</v>
@@ -7502,7 +7503,7 @@
         <v>78</v>
       </c>
       <c r="AU26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV26" t="s">
         <v>100</v>
@@ -7511,7 +7512,7 @@
         <v>110</v>
       </c>
       <c r="AX26" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
@@ -7579,7 +7580,7 @@
         <v>122</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7606,7 +7607,7 @@
         <v>125</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AM27" t="s">
         <v>76</v>
@@ -7618,7 +7619,7 @@
         <v>78</v>
       </c>
       <c r="AU27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV27" t="s">
         <v>100</v>
@@ -7627,7 +7628,7 @@
         <v>110</v>
       </c>
       <c r="AX27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
@@ -7695,7 +7696,7 @@
         <v>70</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7737,7 +7738,7 @@
         <v>78</v>
       </c>
       <c r="AU28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AV28" t="s">
         <v>100</v>
@@ -7746,7 +7747,7 @@
         <v>82</v>
       </c>
       <c r="AX28" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
@@ -7814,7 +7815,7 @@
         <v>70</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -7856,7 +7857,7 @@
         <v>78</v>
       </c>
       <c r="AU29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AV29" t="s">
         <v>100</v>
@@ -7865,7 +7866,7 @@
         <v>82</v>
       </c>
       <c r="AX29" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
@@ -7933,7 +7934,7 @@
         <v>70</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -7960,7 +7961,7 @@
         <v>125</v>
       </c>
       <c r="AL30" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM30" t="s">
         <v>76</v>
@@ -7972,7 +7973,7 @@
         <v>78</v>
       </c>
       <c r="AU30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AV30" t="s">
         <v>100</v>
@@ -7981,7 +7982,7 @@
         <v>82</v>
       </c>
       <c r="AX30" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
@@ -8049,7 +8050,7 @@
         <v>70</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8073,7 +8074,7 @@
         <v>125</v>
       </c>
       <c r="AL31" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM31" t="s">
         <v>76</v>
@@ -8085,7 +8086,7 @@
         <v>78</v>
       </c>
       <c r="AU31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AV31" t="s">
         <v>100</v>
@@ -8094,7 +8095,7 @@
         <v>82</v>
       </c>
       <c r="AX31" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
@@ -8162,7 +8163,7 @@
         <v>70</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8192,7 +8193,7 @@
         <v>125</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AM32" t="s">
         <v>76</v>
@@ -8207,7 +8208,7 @@
         <v>78</v>
       </c>
       <c r="AU32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AV32" t="s">
         <v>100</v>
@@ -8216,7 +8217,7 @@
         <v>82</v>
       </c>
       <c r="AX32" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
@@ -8317,13 +8318,13 @@
         <v>77</v>
       </c>
       <c r="AO33" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AQ33" t="s">
         <v>78</v>
       </c>
       <c r="AU33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AV33" t="s">
         <v>165</v>
@@ -10066,7 +10067,7 @@
         <v>195</v>
       </c>
       <c r="AO47" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AQ47" t="s">
         <v>78</v>
@@ -10078,7 +10079,7 @@
         <v>390</v>
       </c>
       <c r="AU47" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AV47" t="s">
         <v>100</v>
@@ -10087,7 +10088,7 @@
         <v>82</v>
       </c>
       <c r="AX47" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
@@ -10185,7 +10186,7 @@
         <v>125</v>
       </c>
       <c r="AL48" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM48" t="s">
         <v>76</v>
@@ -10194,7 +10195,7 @@
         <v>195</v>
       </c>
       <c r="AO48" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AQ48" t="s">
         <v>78</v>
@@ -10206,7 +10207,7 @@
         <v>389</v>
       </c>
       <c r="AU48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AV48" t="s">
         <v>100</v>
@@ -12344,9 +12345,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12464,25 +12468,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12504,9 +12498,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>